--- a/name/vnindex/20221221/VNINDEX_HOSE_5p_20221221.xlsx
+++ b/name/vnindex/20221221/VNINDEX_HOSE_5p_20221221.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P54"/>
+  <dimension ref="A1:P123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -454,96 +454,96 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1671613200000</v>
+        <v>1671613320000</v>
       </c>
       <c r="B2">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>800</v>
+        <v>200</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>12360000</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>8280000</v>
+        <v>2039999.9999999998</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="I2">
-        <v>20640000</v>
+        <v>2039999.9999999998</v>
       </c>
       <c r="J2" t="str">
-        <v>2022-12-21T09:00:00.000Z</v>
+        <v>2022-12-21T09:02:00.000Z</v>
       </c>
       <c r="K2">
-        <v>20640000</v>
+        <v>2039999.9999999998</v>
       </c>
       <c r="L2">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="M2">
-        <v>-400</v>
+        <v>200</v>
       </c>
       <c r="N2">
-        <v>-4080000</v>
+        <v>2039999.9999999998</v>
       </c>
       <c r="O2">
-        <v>-400</v>
+        <v>200</v>
       </c>
       <c r="P2">
-        <v>-4080000</v>
+        <v>2039999.9999999998</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>1671613500000</v>
+        <v>1671613440000</v>
       </c>
       <c r="B3">
+        <v>1200</v>
+      </c>
+      <c r="C3">
+        <v>600</v>
+      </c>
+      <c r="D3">
         <v>0</v>
       </c>
-      <c r="C3">
+      <c r="E3">
+        <v>12360000</v>
+      </c>
+      <c r="F3">
+        <v>6240000</v>
+      </c>
+      <c r="G3">
         <v>0</v>
       </c>
-      <c r="D3">
-        <v>1000</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>10300000</v>
-      </c>
       <c r="H3">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="I3">
-        <v>10300000</v>
+        <v>18600000</v>
       </c>
       <c r="J3" t="str">
-        <v>2022-12-21T09:05:00.000Z</v>
+        <v>2022-12-21T09:04:00.000Z</v>
       </c>
       <c r="K3">
-        <v>30940000</v>
+        <v>20640000</v>
       </c>
       <c r="L3">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>-6120000</v>
       </c>
       <c r="O3">
         <v>-400</v>
@@ -554,2557 +554,6007 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>1671613800000</v>
+        <v>1671613560000</v>
       </c>
       <c r="B4">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
+        <v>1000</v>
+      </c>
+      <c r="E4">
         <v>0</v>
-      </c>
-      <c r="E4">
-        <v>1030000</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
+        <v>10300000</v>
+      </c>
+      <c r="H4">
+        <v>1000</v>
+      </c>
+      <c r="I4">
+        <v>10300000</v>
+      </c>
+      <c r="J4" t="str">
+        <v>2022-12-21T09:06:00.000Z</v>
+      </c>
+      <c r="K4">
+        <v>30940000</v>
+      </c>
+      <c r="L4">
+        <v>3000</v>
+      </c>
+      <c r="M4">
         <v>0</v>
       </c>
-      <c r="H4">
-        <v>100</v>
-      </c>
-      <c r="I4">
-        <v>1030000</v>
-      </c>
-      <c r="J4" t="str">
-        <v>2022-12-21T09:10:00.000Z</v>
-      </c>
-      <c r="K4">
-        <v>31970000</v>
-      </c>
-      <c r="L4">
-        <v>3100</v>
-      </c>
-      <c r="M4">
-        <v>-100</v>
-      </c>
       <c r="N4">
-        <v>-1030000</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="P4">
-        <v>-5110000</v>
+        <v>-4080000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>1671614100000</v>
+        <v>1671614040000</v>
       </c>
       <c r="B5">
-        <v>10276400</v>
+        <v>4940700</v>
       </c>
       <c r="C5">
-        <v>7934100</v>
+        <v>3922300</v>
       </c>
       <c r="D5">
-        <v>1845200</v>
+        <v>1802000</v>
       </c>
       <c r="E5">
-        <v>151412035000</v>
+        <v>68942592000</v>
       </c>
       <c r="F5">
-        <v>130055690000</v>
+        <v>56569606000</v>
       </c>
       <c r="G5">
-        <v>26647152000</v>
+        <v>25937389000</v>
       </c>
       <c r="H5">
-        <v>20055700</v>
+        <v>10665000</v>
       </c>
       <c r="I5">
-        <v>308114877000</v>
+        <v>151449587000</v>
       </c>
       <c r="J5" t="str">
-        <v>2022-12-21T09:15:00.000Z</v>
+        <v>2022-12-21T09:14:00.000Z</v>
       </c>
       <c r="K5">
-        <v>308146847000</v>
+        <v>151480527000</v>
       </c>
       <c r="L5">
-        <v>20058800</v>
+        <v>10668000</v>
       </c>
       <c r="M5">
-        <v>-2342300</v>
+        <v>-1018400</v>
       </c>
       <c r="N5">
-        <v>-21356345000</v>
+        <v>-12372986000</v>
       </c>
       <c r="O5">
-        <v>-2342800</v>
+        <v>-1018800</v>
       </c>
       <c r="P5">
-        <v>-21361455000</v>
+        <v>-12377066000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>1671614400000</v>
+        <v>1671614160000</v>
       </c>
       <c r="B6">
-        <v>7518900</v>
+        <v>2114800</v>
       </c>
       <c r="C6">
-        <v>5914400</v>
+        <v>2283800</v>
       </c>
       <c r="D6">
-        <v>77000</v>
+        <v>29900</v>
       </c>
       <c r="E6">
-        <v>115347383000</v>
+        <v>32410038000</v>
       </c>
       <c r="F6">
-        <v>110960107000</v>
+        <v>42221344000</v>
       </c>
       <c r="G6">
-        <v>1333966000</v>
+        <v>492176000</v>
       </c>
       <c r="H6">
-        <v>13510300</v>
+        <v>4428500</v>
       </c>
       <c r="I6">
-        <v>227641456000</v>
+        <v>75123558000</v>
       </c>
       <c r="J6" t="str">
-        <v>2022-12-21T09:20:00.000Z</v>
+        <v>2022-12-21T09:16:00.000Z</v>
       </c>
       <c r="K6">
-        <v>535788303000</v>
+        <v>226604085000</v>
       </c>
       <c r="L6">
-        <v>33569100</v>
+        <v>15096500</v>
       </c>
       <c r="M6">
-        <v>-1604500</v>
+        <v>169000</v>
       </c>
       <c r="N6">
-        <v>-4387276000</v>
+        <v>9811306000</v>
       </c>
       <c r="O6">
-        <v>-3947300</v>
+        <v>-849800</v>
       </c>
       <c r="P6">
-        <v>-25748731000</v>
+        <v>-2565760000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>1671614700000</v>
+        <v>1671614280000</v>
       </c>
       <c r="B7">
-        <v>3812600</v>
+        <v>3221000</v>
       </c>
       <c r="C7">
-        <v>4492200</v>
+        <v>1728000</v>
       </c>
       <c r="D7">
-        <v>31500</v>
+        <v>13300</v>
       </c>
       <c r="E7">
-        <v>57809064000</v>
+        <v>50060435000</v>
       </c>
       <c r="F7">
-        <v>82445791000</v>
+        <v>31264740000</v>
       </c>
       <c r="G7">
-        <v>774016000</v>
+        <v>217587000</v>
       </c>
       <c r="H7">
-        <v>8336300</v>
+        <v>4962300</v>
       </c>
       <c r="I7">
-        <v>141028871000</v>
+        <v>81542762000</v>
       </c>
       <c r="J7" t="str">
-        <v>2022-12-21T09:25:00.000Z</v>
+        <v>2022-12-21T09:18:00.000Z</v>
       </c>
       <c r="K7">
-        <v>676817174000</v>
+        <v>308146847000</v>
       </c>
       <c r="L7">
-        <v>41905400</v>
+        <v>20058800</v>
       </c>
       <c r="M7">
-        <v>679600</v>
+        <v>-1493000</v>
       </c>
       <c r="N7">
-        <v>24636727000</v>
+        <v>-18795695000</v>
       </c>
       <c r="O7">
-        <v>-3267700</v>
+        <v>-2342800</v>
       </c>
       <c r="P7">
-        <v>-1112004000</v>
+        <v>-21361455000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>1671615000000</v>
+        <v>1671614400000</v>
       </c>
       <c r="B8">
-        <v>6322900</v>
+        <v>3228300</v>
       </c>
       <c r="C8">
-        <v>2500600</v>
+        <v>3069100</v>
       </c>
       <c r="D8">
-        <v>47300</v>
+        <v>16700</v>
       </c>
       <c r="E8">
-        <v>93312959000</v>
+        <v>51575311000</v>
       </c>
       <c r="F8">
-        <v>38533047000</v>
+        <v>58407102000</v>
       </c>
       <c r="G8">
-        <v>1113670000</v>
+        <v>142055000</v>
       </c>
       <c r="H8">
-        <v>8870800</v>
+        <v>6314100</v>
       </c>
       <c r="I8">
-        <v>132959676000</v>
+        <v>110124468000</v>
       </c>
       <c r="J8" t="str">
-        <v>2022-12-21T09:30:00.000Z</v>
+        <v>2022-12-21T09:20:00.000Z</v>
       </c>
       <c r="K8">
-        <v>809776850000</v>
+        <v>418271315000</v>
       </c>
       <c r="L8">
-        <v>50776200</v>
+        <v>26372900</v>
       </c>
       <c r="M8">
-        <v>-3822300</v>
+        <v>-159200</v>
       </c>
       <c r="N8">
-        <v>-54779912000</v>
+        <v>6831791000</v>
       </c>
       <c r="O8">
-        <v>-7090000</v>
+        <v>-2502000</v>
       </c>
       <c r="P8">
-        <v>-55891916000</v>
+        <v>-14529664000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>1671615300000</v>
+        <v>1671614520000</v>
       </c>
       <c r="B9">
-        <v>9639100</v>
+        <v>2731500</v>
       </c>
       <c r="C9">
-        <v>3227100</v>
+        <v>1728600</v>
       </c>
       <c r="D9">
-        <v>97700</v>
+        <v>51000</v>
       </c>
       <c r="E9">
-        <v>150445902000</v>
+        <v>40052523000</v>
       </c>
       <c r="F9">
-        <v>62757661000</v>
+        <v>30724780000</v>
       </c>
       <c r="G9">
-        <v>1682411000</v>
+        <v>824091000</v>
       </c>
       <c r="H9">
-        <v>12963900</v>
+        <v>4511100</v>
       </c>
       <c r="I9">
-        <v>214885974000</v>
+        <v>71601394000</v>
       </c>
       <c r="J9" t="str">
-        <v>2022-12-21T09:35:00.000Z</v>
+        <v>2022-12-21T09:22:00.000Z</v>
       </c>
       <c r="K9">
-        <v>1024662824000</v>
+        <v>489872709000</v>
       </c>
       <c r="L9">
-        <v>63740100</v>
+        <v>30884000</v>
       </c>
       <c r="M9">
-        <v>-6412000</v>
+        <v>-1002900</v>
       </c>
       <c r="N9">
-        <v>-87688241000</v>
+        <v>-9327743000</v>
       </c>
       <c r="O9">
-        <v>-13502000</v>
+        <v>-3504900</v>
       </c>
       <c r="P9">
-        <v>-143580157000</v>
+        <v>-23857407000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>1671615600000</v>
+        <v>1671614640000</v>
       </c>
       <c r="B10">
-        <v>3644100</v>
+        <v>2574300</v>
       </c>
       <c r="C10">
-        <v>4246000</v>
+        <v>2201500</v>
       </c>
       <c r="D10">
-        <v>51400</v>
+        <v>22300</v>
       </c>
       <c r="E10">
-        <v>55128029000</v>
+        <v>38521992000</v>
       </c>
       <c r="F10">
-        <v>73404207000</v>
+        <v>43180367000</v>
       </c>
       <c r="G10">
-        <v>870964000</v>
+        <v>843143000</v>
       </c>
       <c r="H10">
-        <v>7941500</v>
+        <v>4798100</v>
       </c>
       <c r="I10">
-        <v>129403200000</v>
+        <v>82545502000</v>
       </c>
       <c r="J10" t="str">
-        <v>2022-12-21T09:40:00.000Z</v>
+        <v>2022-12-21T09:24:00.000Z</v>
       </c>
       <c r="K10">
-        <v>1154066024000</v>
+        <v>572418211000</v>
       </c>
       <c r="L10">
-        <v>71681600</v>
+        <v>35682100</v>
       </c>
       <c r="M10">
-        <v>601900</v>
+        <v>-372800</v>
       </c>
       <c r="N10">
-        <v>18276178000</v>
+        <v>4658375000</v>
       </c>
       <c r="O10">
-        <v>-12900100</v>
+        <v>-3877700</v>
       </c>
       <c r="P10">
-        <v>-125303979000</v>
+        <v>-19199032000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>1671615900000</v>
+        <v>1671614760000</v>
       </c>
       <c r="B11">
-        <v>2670500</v>
+        <v>1388200</v>
       </c>
       <c r="C11">
-        <v>2499800</v>
+        <v>2167700</v>
       </c>
       <c r="D11">
-        <v>36400</v>
+        <v>16200</v>
       </c>
       <c r="E11">
-        <v>39888327000</v>
+        <v>22265146000</v>
       </c>
       <c r="F11">
-        <v>42495277000</v>
+        <v>41566586000</v>
       </c>
       <c r="G11">
-        <v>567296000</v>
+        <v>240836000</v>
       </c>
       <c r="H11">
-        <v>5206700</v>
+        <v>3572100</v>
       </c>
       <c r="I11">
-        <v>82950900000</v>
+        <v>64072568000</v>
       </c>
       <c r="J11" t="str">
-        <v>2022-12-21T09:45:00.000Z</v>
+        <v>2022-12-21T09:26:00.000Z</v>
       </c>
       <c r="K11">
-        <v>1237016924000</v>
+        <v>636490779000</v>
       </c>
       <c r="L11">
-        <v>76888300</v>
+        <v>39254200</v>
       </c>
       <c r="M11">
-        <v>-170700</v>
+        <v>779500</v>
       </c>
       <c r="N11">
-        <v>2606950000</v>
+        <v>19301440000</v>
       </c>
       <c r="O11">
-        <v>-13070800</v>
+        <v>-3098200</v>
       </c>
       <c r="P11">
-        <v>-122697029000</v>
+        <v>102408000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>1671616200000</v>
+        <v>1671614880000</v>
       </c>
       <c r="B12">
-        <v>1964500</v>
+        <v>1409200</v>
       </c>
       <c r="C12">
-        <v>2501300</v>
+        <v>1239700</v>
       </c>
       <c r="D12">
-        <v>52500</v>
+        <v>2300</v>
       </c>
       <c r="E12">
-        <v>31555279000</v>
+        <v>20741475000</v>
       </c>
       <c r="F12">
-        <v>40462274000</v>
+        <v>19527063000</v>
       </c>
       <c r="G12">
-        <v>444743000</v>
+        <v>57857000</v>
       </c>
       <c r="H12">
-        <v>4518300</v>
+        <v>2651200</v>
       </c>
       <c r="I12">
-        <v>72462296000</v>
+        <v>40326395000</v>
       </c>
       <c r="J12" t="str">
-        <v>2022-12-21T09:50:00.000Z</v>
+        <v>2022-12-21T09:28:00.000Z</v>
       </c>
       <c r="K12">
-        <v>1309479220000</v>
+        <v>676817174000</v>
       </c>
       <c r="L12">
-        <v>81406600</v>
+        <v>41905400</v>
       </c>
       <c r="M12">
-        <v>536800</v>
+        <v>-169500</v>
       </c>
       <c r="N12">
-        <v>8906995000</v>
+        <v>-1214412000</v>
       </c>
       <c r="O12">
-        <v>-12534000</v>
+        <v>-3267700</v>
       </c>
       <c r="P12">
-        <v>-113790034000</v>
+        <v>-1112004000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>1671616500000</v>
+        <v>1671615000000</v>
       </c>
       <c r="B13">
-        <v>1956200</v>
+        <v>1700800</v>
       </c>
       <c r="C13">
-        <v>4039400</v>
+        <v>1010100</v>
       </c>
       <c r="D13">
-        <v>46500</v>
+        <v>18200</v>
       </c>
       <c r="E13">
-        <v>30217138000</v>
+        <v>25978945000</v>
       </c>
       <c r="F13">
-        <v>64130442000</v>
+        <v>15692173000</v>
       </c>
       <c r="G13">
-        <v>959867000</v>
+        <v>666802000</v>
       </c>
       <c r="H13">
-        <v>6042100</v>
+        <v>2729100</v>
       </c>
       <c r="I13">
-        <v>95307447000</v>
+        <v>42337920000</v>
       </c>
       <c r="J13" t="str">
-        <v>2022-12-21T09:55:00.000Z</v>
+        <v>2022-12-21T09:30:00.000Z</v>
       </c>
       <c r="K13">
-        <v>1404786667000</v>
+        <v>719155094000</v>
       </c>
       <c r="L13">
-        <v>87448700</v>
+        <v>44634500</v>
       </c>
       <c r="M13">
-        <v>2083200</v>
+        <v>-690700</v>
       </c>
       <c r="N13">
-        <v>33913304000</v>
+        <v>-10286772000</v>
       </c>
       <c r="O13">
-        <v>-10450800</v>
+        <v>-3958400</v>
       </c>
       <c r="P13">
-        <v>-79876730000</v>
+        <v>-11398776000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>1671616800000</v>
+        <v>1671615120000</v>
       </c>
       <c r="B14">
-        <v>3704500</v>
+        <v>2545400</v>
       </c>
       <c r="C14">
-        <v>2142800</v>
+        <v>988900</v>
       </c>
       <c r="D14">
-        <v>132000</v>
+        <v>14900</v>
       </c>
       <c r="E14">
-        <v>55013270000</v>
+        <v>37563807000</v>
       </c>
       <c r="F14">
-        <v>31128601000</v>
+        <v>14841354000</v>
       </c>
       <c r="G14">
-        <v>3536584000</v>
+        <v>299448000</v>
       </c>
       <c r="H14">
-        <v>5979300</v>
+        <v>3549200</v>
       </c>
       <c r="I14">
-        <v>89678455000</v>
+        <v>52704609000</v>
       </c>
       <c r="J14" t="str">
-        <v>2022-12-21T10:00:00.000Z</v>
+        <v>2022-12-21T09:32:00.000Z</v>
       </c>
       <c r="K14">
-        <v>1494465122000</v>
+        <v>771859703000</v>
       </c>
       <c r="L14">
-        <v>93428000</v>
+        <v>48183700</v>
       </c>
       <c r="M14">
-        <v>-1561700</v>
+        <v>-1556500</v>
       </c>
       <c r="N14">
-        <v>-23884669000</v>
+        <v>-22722453000</v>
       </c>
       <c r="O14">
-        <v>-12012500</v>
+        <v>-5514900</v>
       </c>
       <c r="P14">
-        <v>-103761399000</v>
+        <v>-34121229000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>1671617100000</v>
+        <v>1671615240000</v>
       </c>
       <c r="B15">
-        <v>4920400</v>
+        <v>4362800</v>
       </c>
       <c r="C15">
-        <v>1531500</v>
+        <v>1414800</v>
       </c>
       <c r="D15">
-        <v>19900</v>
+        <v>18300</v>
       </c>
       <c r="E15">
-        <v>80114460000</v>
+        <v>67176395000</v>
       </c>
       <c r="F15">
-        <v>23261135000</v>
+        <v>23217680000</v>
       </c>
       <c r="G15">
-        <v>276385000</v>
+        <v>192868000</v>
       </c>
       <c r="H15">
-        <v>6471800</v>
+        <v>5795900</v>
       </c>
       <c r="I15">
-        <v>103651980000</v>
+        <v>90586943000</v>
       </c>
       <c r="J15" t="str">
-        <v>2022-12-21T10:05:00.000Z</v>
+        <v>2022-12-21T09:34:00.000Z</v>
       </c>
       <c r="K15">
-        <v>1598117102000</v>
+        <v>862446646000</v>
       </c>
       <c r="L15">
-        <v>99899800</v>
+        <v>53979600</v>
       </c>
       <c r="M15">
-        <v>-3388900</v>
+        <v>-2948000</v>
       </c>
       <c r="N15">
-        <v>-56853325000</v>
+        <v>-43958715000</v>
       </c>
       <c r="O15">
-        <v>-15401400</v>
+        <v>-8462900</v>
       </c>
       <c r="P15">
-        <v>-160614724000</v>
+        <v>-78079944000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>1671617400000</v>
+        <v>1671615360000</v>
       </c>
       <c r="B16">
-        <v>4625500</v>
+        <v>4003400</v>
       </c>
       <c r="C16">
-        <v>1418500</v>
+        <v>804500</v>
       </c>
       <c r="D16">
-        <v>42800</v>
+        <v>19800</v>
       </c>
       <c r="E16">
-        <v>72925083000</v>
+        <v>62730379000</v>
       </c>
       <c r="F16">
-        <v>22138800000</v>
+        <v>11703126000</v>
       </c>
       <c r="G16">
-        <v>854052000</v>
+        <v>299484000</v>
       </c>
       <c r="H16">
-        <v>6086800</v>
+        <v>4827700</v>
       </c>
       <c r="I16">
-        <v>95917935000</v>
+        <v>74732989000</v>
       </c>
       <c r="J16" t="str">
-        <v>2022-12-21T10:10:00.000Z</v>
+        <v>2022-12-21T09:36:00.000Z</v>
       </c>
       <c r="K16">
-        <v>1694035037000</v>
+        <v>937179635000</v>
       </c>
       <c r="L16">
-        <v>105986600</v>
+        <v>58807300</v>
       </c>
       <c r="M16">
-        <v>-3207000</v>
+        <v>-3198900</v>
       </c>
       <c r="N16">
-        <v>-50786283000</v>
+        <v>-51027253000</v>
       </c>
       <c r="O16">
-        <v>-18608400</v>
+        <v>-11661800</v>
       </c>
       <c r="P16">
-        <v>-211401007000</v>
+        <v>-129107197000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>1671617700000</v>
+        <v>1671615480000</v>
       </c>
       <c r="B17">
-        <v>6462000</v>
+        <v>3349600</v>
       </c>
       <c r="C17">
-        <v>1413900</v>
+        <v>1509400</v>
       </c>
       <c r="D17">
-        <v>37400</v>
+        <v>73800</v>
       </c>
       <c r="E17">
-        <v>101091864000</v>
+        <v>50309335000</v>
       </c>
       <c r="F17">
-        <v>25412896000</v>
+        <v>35836375000</v>
       </c>
       <c r="G17">
-        <v>720456000</v>
+        <v>1337479000</v>
       </c>
       <c r="H17">
-        <v>7913300</v>
+        <v>4932800</v>
       </c>
       <c r="I17">
-        <v>127225216000</v>
+        <v>87483189000</v>
       </c>
       <c r="J17" t="str">
-        <v>2022-12-21T10:15:00.000Z</v>
+        <v>2022-12-21T09:38:00.000Z</v>
       </c>
       <c r="K17">
-        <v>1821260253000</v>
+        <v>1024662824000</v>
       </c>
       <c r="L17">
-        <v>113899900</v>
+        <v>63740100</v>
       </c>
       <c r="M17">
-        <v>-5048100</v>
+        <v>-1840200</v>
       </c>
       <c r="N17">
-        <v>-75678968000</v>
+        <v>-14472960000</v>
       </c>
       <c r="O17">
-        <v>-23656500</v>
+        <v>-13502000</v>
       </c>
       <c r="P17">
-        <v>-287079975000</v>
+        <v>-143580157000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>1671618000000</v>
+        <v>1671615600000</v>
       </c>
       <c r="B18">
-        <v>4127100</v>
+        <v>2040500</v>
       </c>
       <c r="C18">
-        <v>3342300</v>
+        <v>1566300</v>
       </c>
       <c r="D18">
-        <v>71200</v>
+        <v>37100</v>
       </c>
       <c r="E18">
-        <v>59386804000</v>
+        <v>29497785000</v>
       </c>
       <c r="F18">
-        <v>50584520000</v>
+        <v>28675999000</v>
       </c>
       <c r="G18">
-        <v>1169942000</v>
+        <v>519869000</v>
       </c>
       <c r="H18">
-        <v>7540600</v>
+        <v>3643900</v>
       </c>
       <c r="I18">
-        <v>111141266000</v>
+        <v>58693653000</v>
       </c>
       <c r="J18" t="str">
-        <v>2022-12-21T10:20:00.000Z</v>
+        <v>2022-12-21T09:40:00.000Z</v>
       </c>
       <c r="K18">
-        <v>1932401519000</v>
+        <v>1083356477000</v>
       </c>
       <c r="L18">
-        <v>121440500</v>
+        <v>67384000</v>
       </c>
       <c r="M18">
-        <v>-784800</v>
+        <v>-474200</v>
       </c>
       <c r="N18">
-        <v>-8802284000</v>
+        <v>-821786000</v>
       </c>
       <c r="O18">
-        <v>-24441300</v>
+        <v>-13976200</v>
       </c>
       <c r="P18">
-        <v>-295882259000</v>
+        <v>-144401943000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>1671618300000</v>
+        <v>1671615720000</v>
       </c>
       <c r="B19">
-        <v>2922000</v>
+        <v>1208400</v>
       </c>
       <c r="C19">
-        <v>1543100</v>
+        <v>1927100</v>
       </c>
       <c r="D19">
-        <v>23500</v>
+        <v>11800</v>
       </c>
       <c r="E19">
-        <v>43962205000</v>
+        <v>19393362000</v>
       </c>
       <c r="F19">
-        <v>24374010000</v>
+        <v>30131280000</v>
       </c>
       <c r="G19">
-        <v>725084000</v>
+        <v>109825000</v>
       </c>
       <c r="H19">
-        <v>4488600</v>
+        <v>3147300</v>
       </c>
       <c r="I19">
-        <v>69061299000</v>
+        <v>49634467000</v>
       </c>
       <c r="J19" t="str">
-        <v>2022-12-21T10:25:00.000Z</v>
+        <v>2022-12-21T09:42:00.000Z</v>
       </c>
       <c r="K19">
-        <v>2001462818000</v>
+        <v>1132990944000</v>
       </c>
       <c r="L19">
-        <v>125929100</v>
+        <v>70531300</v>
       </c>
       <c r="M19">
-        <v>-1378900</v>
+        <v>718700</v>
       </c>
       <c r="N19">
-        <v>-19588195000</v>
+        <v>10737918000</v>
       </c>
       <c r="O19">
-        <v>-25820200</v>
+        <v>-13257500</v>
       </c>
       <c r="P19">
-        <v>-315470454000</v>
+        <v>-133664025000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>1671618600000</v>
+        <v>1671615840000</v>
       </c>
       <c r="B20">
-        <v>2325200</v>
+        <v>917000</v>
       </c>
       <c r="C20">
-        <v>2233400</v>
+        <v>1224800</v>
       </c>
       <c r="D20">
-        <v>26300</v>
+        <v>10100</v>
       </c>
       <c r="E20">
-        <v>35897312000</v>
+        <v>14778929000</v>
       </c>
       <c r="F20">
-        <v>36377543000</v>
+        <v>23097166000</v>
       </c>
       <c r="G20">
-        <v>284260000</v>
+        <v>439550000</v>
       </c>
       <c r="H20">
-        <v>4584900</v>
+        <v>2151900</v>
       </c>
       <c r="I20">
-        <v>72559115000</v>
+        <v>38315645000</v>
       </c>
       <c r="J20" t="str">
-        <v>2022-12-21T10:30:00.000Z</v>
+        <v>2022-12-21T09:44:00.000Z</v>
       </c>
       <c r="K20">
-        <v>2074021933000</v>
+        <v>1171306589000</v>
       </c>
       <c r="L20">
-        <v>130514000</v>
+        <v>72683200</v>
       </c>
       <c r="M20">
-        <v>-91800</v>
+        <v>307800</v>
       </c>
       <c r="N20">
-        <v>480231000</v>
+        <v>8318237000</v>
       </c>
       <c r="O20">
-        <v>-25912000</v>
+        <v>-12949700</v>
       </c>
       <c r="P20">
-        <v>-314990223000</v>
+        <v>-125345788000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>1671618900000</v>
+        <v>1671615960000</v>
       </c>
       <c r="B21">
-        <v>2967900</v>
+        <v>1178100</v>
       </c>
       <c r="C21">
-        <v>3451700</v>
+        <v>1082600</v>
       </c>
       <c r="D21">
-        <v>14000</v>
+        <v>13800</v>
       </c>
       <c r="E21">
-        <v>45274241000</v>
+        <v>17010797000</v>
       </c>
       <c r="F21">
-        <v>58701298000</v>
+        <v>16169916000</v>
       </c>
       <c r="G21">
-        <v>164056000</v>
+        <v>182499000</v>
       </c>
       <c r="H21">
-        <v>6433600</v>
+        <v>2274500</v>
       </c>
       <c r="I21">
-        <v>104139595000</v>
+        <v>33363212000</v>
       </c>
       <c r="J21" t="str">
-        <v>2022-12-21T10:35:00.000Z</v>
+        <v>2022-12-21T09:46:00.000Z</v>
       </c>
       <c r="K21">
-        <v>2178161528000</v>
+        <v>1204669801000</v>
       </c>
       <c r="L21">
-        <v>136947600</v>
+        <v>74957700</v>
       </c>
       <c r="M21">
-        <v>483800</v>
+        <v>-95500</v>
       </c>
       <c r="N21">
-        <v>13427057000</v>
+        <v>-840881000</v>
       </c>
       <c r="O21">
-        <v>-25428200</v>
+        <v>-13045200</v>
       </c>
       <c r="P21">
-        <v>-301563166000</v>
+        <v>-126186669000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>1671619200000</v>
+        <v>1671616080000</v>
       </c>
       <c r="B22">
-        <v>1998700</v>
+        <v>970600</v>
       </c>
       <c r="C22">
-        <v>4536400</v>
+        <v>945000</v>
       </c>
       <c r="D22">
-        <v>83800</v>
+        <v>15000</v>
       </c>
       <c r="E22">
-        <v>29485557000</v>
+        <v>14335483000</v>
       </c>
       <c r="F22">
-        <v>77522278000</v>
+        <v>17825123000</v>
       </c>
       <c r="G22">
-        <v>1407727000</v>
+        <v>186517000</v>
       </c>
       <c r="H22">
-        <v>6618900</v>
+        <v>1930600</v>
       </c>
       <c r="I22">
-        <v>108415562000</v>
+        <v>32347123000</v>
       </c>
       <c r="J22" t="str">
-        <v>2022-12-21T10:40:00.000Z</v>
+        <v>2022-12-21T09:48:00.000Z</v>
       </c>
       <c r="K22">
-        <v>2286577090000</v>
+        <v>1237016924000</v>
       </c>
       <c r="L22">
-        <v>143566500</v>
+        <v>76888300</v>
       </c>
       <c r="M22">
-        <v>2537700</v>
+        <v>-25600</v>
       </c>
       <c r="N22">
-        <v>48036721000</v>
+        <v>3489640000</v>
       </c>
       <c r="O22">
-        <v>-22890500</v>
+        <v>-13070800</v>
       </c>
       <c r="P22">
-        <v>-253526445000</v>
+        <v>-122697029000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>1671619500000</v>
+        <v>1671616200000</v>
       </c>
       <c r="B23">
-        <v>2386200</v>
+        <v>1028900</v>
       </c>
       <c r="C23">
-        <v>6255600</v>
+        <v>754600</v>
       </c>
       <c r="D23">
-        <v>115300</v>
+        <v>35300</v>
       </c>
       <c r="E23">
-        <v>40401039000</v>
+        <v>15641184000</v>
       </c>
       <c r="F23">
-        <v>115944922000</v>
+        <v>13869813000</v>
       </c>
       <c r="G23">
-        <v>2115842000</v>
+        <v>170074000</v>
       </c>
       <c r="H23">
-        <v>8757100</v>
+        <v>1818800</v>
       </c>
       <c r="I23">
-        <v>158461803000</v>
+        <v>29681071000</v>
       </c>
       <c r="J23" t="str">
-        <v>2022-12-21T10:45:00.000Z</v>
+        <v>2022-12-21T09:50:00.000Z</v>
       </c>
       <c r="K23">
-        <v>2445038893000</v>
+        <v>1266697995000</v>
       </c>
       <c r="L23">
-        <v>152323600</v>
+        <v>78707100</v>
       </c>
       <c r="M23">
-        <v>3869400</v>
+        <v>-274300</v>
       </c>
       <c r="N23">
-        <v>75543883000</v>
+        <v>-1771371000</v>
       </c>
       <c r="O23">
-        <v>-19021100</v>
+        <v>-13345100</v>
       </c>
       <c r="P23">
-        <v>-177982562000</v>
+        <v>-124468400000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>1671619800000</v>
+        <v>1671616320000</v>
       </c>
       <c r="B24">
-        <v>3474400</v>
+        <v>529800</v>
       </c>
       <c r="C24">
-        <v>1188600</v>
+        <v>1106700</v>
       </c>
       <c r="D24">
-        <v>48700</v>
+        <v>8900</v>
       </c>
       <c r="E24">
-        <v>57869320000</v>
+        <v>9582540000</v>
       </c>
       <c r="F24">
-        <v>20393794000</v>
+        <v>16955275000</v>
       </c>
       <c r="G24">
-        <v>1494595000</v>
+        <v>187961000</v>
       </c>
       <c r="H24">
-        <v>4711700</v>
+        <v>1645400</v>
       </c>
       <c r="I24">
-        <v>79757709000</v>
+        <v>26725776000</v>
       </c>
       <c r="J24" t="str">
-        <v>2022-12-21T10:50:00.000Z</v>
+        <v>2022-12-21T09:52:00.000Z</v>
       </c>
       <c r="K24">
-        <v>2524796602000</v>
+        <v>1293423771000</v>
       </c>
       <c r="L24">
-        <v>157035300</v>
+        <v>80352500</v>
       </c>
       <c r="M24">
-        <v>-2285800</v>
+        <v>576900</v>
       </c>
       <c r="N24">
-        <v>-37475526000</v>
+        <v>7372735000</v>
       </c>
       <c r="O24">
-        <v>-21306900</v>
+        <v>-12768200</v>
       </c>
       <c r="P24">
-        <v>-215458088000</v>
+        <v>-117095665000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>1671620100000</v>
+        <v>1671616440000</v>
       </c>
       <c r="B25">
-        <v>2025000</v>
+        <v>661400</v>
       </c>
       <c r="C25">
-        <v>1378300</v>
+        <v>1605700</v>
       </c>
       <c r="D25">
-        <v>22500</v>
+        <v>15600</v>
       </c>
       <c r="E25">
-        <v>31027029000</v>
+        <v>11209080000</v>
       </c>
       <c r="F25">
-        <v>28079752000</v>
+        <v>25966599000</v>
       </c>
       <c r="G25">
-        <v>301515000</v>
+        <v>274140000</v>
       </c>
       <c r="H25">
-        <v>3425800</v>
+        <v>2282700</v>
       </c>
       <c r="I25">
-        <v>59408296000</v>
+        <v>37449819000</v>
       </c>
       <c r="J25" t="str">
-        <v>2022-12-21T10:55:00.000Z</v>
+        <v>2022-12-21T09:54:00.000Z</v>
       </c>
       <c r="K25">
-        <v>2584204898000</v>
+        <v>1330873590000</v>
       </c>
       <c r="L25">
-        <v>160461100</v>
+        <v>82635200</v>
       </c>
       <c r="M25">
-        <v>-646700</v>
+        <v>944300</v>
       </c>
       <c r="N25">
-        <v>-2947277000</v>
+        <v>14757519000</v>
       </c>
       <c r="O25">
-        <v>-21953600</v>
+        <v>-11823900</v>
       </c>
       <c r="P25">
-        <v>-218405365000</v>
+        <v>-102338146000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>1671620400000</v>
+        <v>1671616560000</v>
       </c>
       <c r="B26">
-        <v>1360600</v>
+        <v>729900</v>
       </c>
       <c r="C26">
-        <v>1560000</v>
+        <v>1905400</v>
       </c>
       <c r="D26">
-        <v>19900</v>
+        <v>200</v>
       </c>
       <c r="E26">
-        <v>22244529000</v>
+        <v>11659893000</v>
       </c>
       <c r="F26">
-        <v>32883677000</v>
+        <v>30081421000</v>
       </c>
       <c r="G26">
-        <v>377265000</v>
+        <v>5070000</v>
       </c>
       <c r="H26">
-        <v>2940500</v>
+        <v>2635500</v>
       </c>
       <c r="I26">
-        <v>55505471000</v>
+        <v>41746384000</v>
       </c>
       <c r="J26" t="str">
-        <v>2022-12-21T11:00:00.000Z</v>
+        <v>2022-12-21T09:56:00.000Z</v>
       </c>
       <c r="K26">
-        <v>2639710369000</v>
+        <v>1372619974000</v>
       </c>
       <c r="L26">
-        <v>163401600</v>
+        <v>85270700</v>
       </c>
       <c r="M26">
-        <v>199400</v>
+        <v>1175500</v>
       </c>
       <c r="N26">
-        <v>10639148000</v>
+        <v>18421528000</v>
       </c>
       <c r="O26">
-        <v>-21754200</v>
+        <v>-10648400</v>
       </c>
       <c r="P26">
-        <v>-207766217000</v>
+        <v>-83916618000</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>1671620700000</v>
+        <v>1671616680000</v>
       </c>
       <c r="B27">
-        <v>1704200</v>
+        <v>970700</v>
       </c>
       <c r="C27">
-        <v>2932200</v>
+        <v>1168300</v>
       </c>
       <c r="D27">
-        <v>65100</v>
+        <v>39000</v>
       </c>
       <c r="E27">
-        <v>25745778000</v>
+        <v>13679720000</v>
       </c>
       <c r="F27">
-        <v>52340674000</v>
+        <v>17719608000</v>
       </c>
       <c r="G27">
-        <v>1327276000</v>
+        <v>767365000</v>
       </c>
       <c r="H27">
-        <v>4701500</v>
+        <v>2178000</v>
       </c>
       <c r="I27">
-        <v>79413728000</v>
+        <v>32166693000</v>
       </c>
       <c r="J27" t="str">
-        <v>2022-12-21T11:05:00.000Z</v>
+        <v>2022-12-21T09:58:00.000Z</v>
       </c>
       <c r="K27">
-        <v>2719124097000</v>
+        <v>1404786667000</v>
       </c>
       <c r="L27">
-        <v>168103100</v>
+        <v>87448700</v>
       </c>
       <c r="M27">
-        <v>1228000</v>
+        <v>197600</v>
       </c>
       <c r="N27">
-        <v>26594896000</v>
+        <v>4039888000</v>
       </c>
       <c r="O27">
-        <v>-20526200</v>
+        <v>-10450800</v>
       </c>
       <c r="P27">
-        <v>-181171321000</v>
+        <v>-79876730000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>1671621000000</v>
+        <v>1671616800000</v>
       </c>
       <c r="B28">
-        <v>2070800</v>
+        <v>1072500</v>
       </c>
       <c r="C28">
-        <v>2093300</v>
+        <v>1264600</v>
       </c>
       <c r="D28">
-        <v>10500</v>
+        <v>2100</v>
       </c>
       <c r="E28">
-        <v>41157970000</v>
+        <v>15919300000</v>
       </c>
       <c r="F28">
-        <v>39566621000</v>
+        <v>17935228000</v>
       </c>
       <c r="G28">
-        <v>435778000</v>
+        <v>39089000</v>
       </c>
       <c r="H28">
-        <v>4174600</v>
+        <v>2339200</v>
       </c>
       <c r="I28">
-        <v>81160369000</v>
+        <v>33893617000</v>
       </c>
       <c r="J28" t="str">
-        <v>2022-12-21T11:10:00.000Z</v>
+        <v>2022-12-21T10:00:00.000Z</v>
       </c>
       <c r="K28">
-        <v>2800284466000</v>
+        <v>1438680284000</v>
       </c>
       <c r="L28">
-        <v>172277700</v>
+        <v>89787900</v>
       </c>
       <c r="M28">
-        <v>22500</v>
+        <v>192100</v>
       </c>
       <c r="N28">
-        <v>-1591349000</v>
+        <v>2015928000</v>
       </c>
       <c r="O28">
-        <v>-20503700</v>
+        <v>-10258700</v>
       </c>
       <c r="P28">
-        <v>-182762670000</v>
+        <v>-77860802000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>1671621300000</v>
+        <v>1671616920000</v>
       </c>
       <c r="B29">
-        <v>2185800</v>
+        <v>1876200</v>
       </c>
       <c r="C29">
-        <v>1678100</v>
+        <v>664500</v>
       </c>
       <c r="D29">
-        <v>12000</v>
+        <v>82900</v>
       </c>
       <c r="E29">
-        <v>37724934000</v>
+        <v>27841216000</v>
       </c>
       <c r="F29">
-        <v>30701534000</v>
+        <v>10464634000</v>
       </c>
       <c r="G29">
-        <v>140033000</v>
+        <v>2583491000</v>
       </c>
       <c r="H29">
-        <v>3875900</v>
+        <v>2623600</v>
       </c>
       <c r="I29">
-        <v>68566501000</v>
+        <v>40889341000</v>
       </c>
       <c r="J29" t="str">
-        <v>2022-12-21T11:15:00.000Z</v>
+        <v>2022-12-21T10:02:00.000Z</v>
       </c>
       <c r="K29">
-        <v>2868850967000</v>
+        <v>1479569625000</v>
       </c>
       <c r="L29">
-        <v>176153600</v>
+        <v>92411500</v>
       </c>
       <c r="M29">
-        <v>-507700</v>
+        <v>-1211700</v>
       </c>
       <c r="N29">
-        <v>-7023400000</v>
+        <v>-17376582000</v>
       </c>
       <c r="O29">
-        <v>-21011400</v>
+        <v>-11470400</v>
       </c>
       <c r="P29">
-        <v>-189786070000</v>
+        <v>-95237384000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>1671621600000</v>
+        <v>1671617040000</v>
       </c>
       <c r="B30">
-        <v>3083900</v>
+        <v>1429200</v>
       </c>
       <c r="C30">
-        <v>2033800</v>
+        <v>425100</v>
       </c>
       <c r="D30">
-        <v>20500</v>
+        <v>57800</v>
       </c>
       <c r="E30">
-        <v>46918883000</v>
+        <v>20979006000</v>
       </c>
       <c r="F30">
-        <v>35383633000</v>
+        <v>5523630000</v>
       </c>
       <c r="G30">
-        <v>629864000</v>
+        <v>965069000</v>
       </c>
       <c r="H30">
-        <v>5138200</v>
+        <v>1912100</v>
       </c>
       <c r="I30">
-        <v>82932380000</v>
+        <v>27467705000</v>
       </c>
       <c r="J30" t="str">
-        <v>2022-12-21T11:20:00.000Z</v>
+        <v>2022-12-21T10:04:00.000Z</v>
       </c>
       <c r="K30">
-        <v>2951783347000</v>
+        <v>1507037330000</v>
       </c>
       <c r="L30">
-        <v>181291800</v>
+        <v>94323600</v>
       </c>
       <c r="M30">
-        <v>-1050100</v>
+        <v>-1004100</v>
       </c>
       <c r="N30">
-        <v>-11535250000</v>
+        <v>-15455376000</v>
       </c>
       <c r="O30">
-        <v>-22061500</v>
+        <v>-12474500</v>
       </c>
       <c r="P30">
-        <v>-201321320000</v>
+        <v>-110692760000</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>1671621900000</v>
+        <v>1671617160000</v>
       </c>
       <c r="B31">
-        <v>3014800</v>
+        <v>2248000</v>
       </c>
       <c r="C31">
-        <v>4052800</v>
+        <v>558300</v>
       </c>
       <c r="D31">
-        <v>41200</v>
+        <v>5200</v>
       </c>
       <c r="E31">
-        <v>46177654000</v>
+        <v>35491624000</v>
       </c>
       <c r="F31">
-        <v>82678969000</v>
+        <v>9424240000</v>
       </c>
       <c r="G31">
-        <v>1072723000</v>
+        <v>190391000</v>
       </c>
       <c r="H31">
-        <v>7108800</v>
+        <v>2811500</v>
       </c>
       <c r="I31">
-        <v>129929346000</v>
+        <v>45106255000</v>
       </c>
       <c r="J31" t="str">
-        <v>2022-12-21T11:25:00.000Z</v>
+        <v>2022-12-21T10:06:00.000Z</v>
       </c>
       <c r="K31">
-        <v>3081712693000</v>
+        <v>1552143585000</v>
       </c>
       <c r="L31">
-        <v>188400600</v>
+        <v>97135100</v>
       </c>
       <c r="M31">
-        <v>1038000</v>
+        <v>-1689700</v>
       </c>
       <c r="N31">
-        <v>36501315000</v>
+        <v>-26067384000</v>
       </c>
       <c r="O31">
-        <v>-21023500</v>
+        <v>-14164200</v>
       </c>
       <c r="P31">
-        <v>-164820005000</v>
+        <v>-136760144000</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>1671622200000</v>
+        <v>1671617280000</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>1999000</v>
       </c>
       <c r="C32">
-        <v>1600</v>
+        <v>761800</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>3900</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>34896584000</v>
       </c>
       <c r="F32">
-        <v>17470000</v>
+        <v>11042004000</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>34929000</v>
       </c>
       <c r="H32">
-        <v>1600</v>
+        <v>2764700</v>
       </c>
       <c r="I32">
-        <v>17470000</v>
+        <v>45973517000</v>
       </c>
       <c r="J32" t="str">
-        <v>2022-12-21T11:30:00.000Z</v>
+        <v>2022-12-21T10:08:00.000Z</v>
       </c>
       <c r="K32">
-        <v>3081730163000</v>
+        <v>1598117102000</v>
       </c>
       <c r="L32">
-        <v>188402200</v>
+        <v>99899800</v>
       </c>
       <c r="M32">
-        <v>1600</v>
+        <v>-1237200</v>
       </c>
       <c r="N32">
-        <v>17470000</v>
+        <v>-23854580000</v>
       </c>
       <c r="O32">
-        <v>-21021900</v>
+        <v>-15401400</v>
       </c>
       <c r="P32">
-        <v>-164802535000</v>
+        <v>-160614724000</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>1671627600000</v>
+        <v>1671617400000</v>
       </c>
       <c r="B33">
-        <v>13948600</v>
+        <v>2214900</v>
       </c>
       <c r="C33">
-        <v>7976100</v>
+        <v>568300</v>
       </c>
       <c r="D33">
-        <v>928200</v>
+        <v>7600</v>
       </c>
       <c r="E33">
-        <v>229944699000</v>
+        <v>34264366000</v>
       </c>
       <c r="F33">
-        <v>136858299000</v>
+        <v>8275272000</v>
       </c>
       <c r="G33">
-        <v>16231697000</v>
+        <v>258656000</v>
       </c>
       <c r="H33">
-        <v>22852900</v>
+        <v>2790800</v>
       </c>
       <c r="I33">
-        <v>383034695000</v>
+        <v>42798294000</v>
       </c>
       <c r="J33" t="str">
-        <v>2022-12-21T13:00:00.000Z</v>
+        <v>2022-12-21T10:10:00.000Z</v>
       </c>
       <c r="K33">
-        <v>3464764858000</v>
+        <v>1640915396000</v>
       </c>
       <c r="L33">
-        <v>211255100</v>
+        <v>102690600</v>
       </c>
       <c r="M33">
-        <v>-5972500</v>
+        <v>-1646600</v>
       </c>
       <c r="N33">
-        <v>-93086400000</v>
+        <v>-25989094000</v>
       </c>
       <c r="O33">
-        <v>-26994400</v>
+        <v>-17048000</v>
       </c>
       <c r="P33">
-        <v>-257888935000</v>
+        <v>-186603818000</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>1671627900000</v>
+        <v>1671617520000</v>
       </c>
       <c r="B34">
-        <v>19859500</v>
+        <v>1418100</v>
       </c>
       <c r="C34">
-        <v>4843800</v>
+        <v>498200</v>
       </c>
       <c r="D34">
-        <v>166700</v>
+        <v>8800</v>
       </c>
       <c r="E34">
-        <v>282988766000</v>
+        <v>21764637000</v>
       </c>
       <c r="F34">
-        <v>79096414000</v>
+        <v>7711123000</v>
       </c>
       <c r="G34">
-        <v>2631072000</v>
+        <v>48511000</v>
       </c>
       <c r="H34">
-        <v>24870000</v>
+        <v>1925100</v>
       </c>
       <c r="I34">
-        <v>364716252000</v>
+        <v>29524271000</v>
       </c>
       <c r="J34" t="str">
-        <v>2022-12-21T13:05:00.000Z</v>
+        <v>2022-12-21T10:12:00.000Z</v>
       </c>
       <c r="K34">
-        <v>3829481110000</v>
+        <v>1670439667000</v>
       </c>
       <c r="L34">
-        <v>236125100</v>
+        <v>104615700</v>
       </c>
       <c r="M34">
-        <v>-15015700</v>
+        <v>-919900</v>
       </c>
       <c r="N34">
-        <v>-203892352000</v>
+        <v>-14053514000</v>
       </c>
       <c r="O34">
-        <v>-42010100</v>
+        <v>-17967900</v>
       </c>
       <c r="P34">
-        <v>-461781287000</v>
+        <v>-200657332000</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>1671628200000</v>
+        <v>1671617640000</v>
       </c>
       <c r="B35">
-        <v>6184700</v>
+        <v>1871000</v>
       </c>
       <c r="C35">
-        <v>8505600</v>
+        <v>641500</v>
       </c>
       <c r="D35">
-        <v>79900</v>
+        <v>29400</v>
       </c>
       <c r="E35">
-        <v>96888753000</v>
+        <v>31587888000</v>
       </c>
       <c r="F35">
-        <v>142618828000</v>
+        <v>11065088000</v>
       </c>
       <c r="G35">
-        <v>1097867000</v>
+        <v>787485000</v>
       </c>
       <c r="H35">
-        <v>14770200</v>
+        <v>2541900</v>
       </c>
       <c r="I35">
-        <v>240605448000</v>
+        <v>43440461000</v>
       </c>
       <c r="J35" t="str">
-        <v>2022-12-21T13:10:00.000Z</v>
+        <v>2022-12-21T10:14:00.000Z</v>
       </c>
       <c r="K35">
-        <v>4070086558000</v>
+        <v>1713880128000</v>
       </c>
       <c r="L35">
-        <v>250895300</v>
+        <v>107157600</v>
       </c>
       <c r="M35">
-        <v>2320900</v>
+        <v>-1229500</v>
       </c>
       <c r="N35">
-        <v>45730075000</v>
+        <v>-20522800000</v>
       </c>
       <c r="O35">
-        <v>-39689200</v>
+        <v>-19197400</v>
       </c>
       <c r="P35">
-        <v>-416051212000</v>
+        <v>-221180132000</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>1671628500000</v>
+        <v>1671617760000</v>
       </c>
       <c r="B36">
-        <v>4745700</v>
+        <v>2212900</v>
       </c>
       <c r="C36">
-        <v>5575700</v>
+        <v>453000</v>
       </c>
       <c r="D36">
-        <v>63000</v>
+        <v>8500</v>
       </c>
       <c r="E36">
-        <v>75553215000</v>
+        <v>32353661000</v>
       </c>
       <c r="F36">
-        <v>92835510000</v>
+        <v>7820616000</v>
       </c>
       <c r="G36">
-        <v>1127090000</v>
+        <v>107694000</v>
       </c>
       <c r="H36">
-        <v>10384400</v>
+        <v>2674400</v>
       </c>
       <c r="I36">
-        <v>169515815000</v>
+        <v>40281971000</v>
       </c>
       <c r="J36" t="str">
-        <v>2022-12-21T13:15:00.000Z</v>
+        <v>2022-12-21T10:16:00.000Z</v>
       </c>
       <c r="K36">
-        <v>4239602373000</v>
+        <v>1754162099000</v>
       </c>
       <c r="L36">
-        <v>261279700</v>
+        <v>109832000</v>
       </c>
       <c r="M36">
-        <v>830000</v>
+        <v>-1759900</v>
       </c>
       <c r="N36">
-        <v>17282295000</v>
+        <v>-24533045000</v>
       </c>
       <c r="O36">
-        <v>-38859200</v>
+        <v>-20957300</v>
       </c>
       <c r="P36">
-        <v>-398768917000</v>
+        <v>-245713177000</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>1671628800000</v>
+        <v>1671617880000</v>
       </c>
       <c r="B37">
-        <v>5658900</v>
+        <v>3370600</v>
       </c>
       <c r="C37">
-        <v>5837900</v>
+        <v>671400</v>
       </c>
       <c r="D37">
-        <v>23500</v>
+        <v>25900</v>
       </c>
       <c r="E37">
-        <v>81451968000</v>
+        <v>54046395000</v>
       </c>
       <c r="F37">
-        <v>104478399000</v>
+        <v>12679597000</v>
       </c>
       <c r="G37">
-        <v>409511000</v>
+        <v>372162000</v>
       </c>
       <c r="H37">
-        <v>11520300</v>
+        <v>4067900</v>
       </c>
       <c r="I37">
-        <v>186339878000</v>
+        <v>67098154000</v>
       </c>
       <c r="J37" t="str">
-        <v>2022-12-21T13:20:00.000Z</v>
+        <v>2022-12-21T10:18:00.000Z</v>
       </c>
       <c r="K37">
-        <v>4425942251000</v>
+        <v>1821260253000</v>
       </c>
       <c r="L37">
-        <v>272800000</v>
+        <v>113899900</v>
       </c>
       <c r="M37">
-        <v>179000</v>
+        <v>-2699200</v>
       </c>
       <c r="N37">
-        <v>23026431000</v>
+        <v>-41366798000</v>
       </c>
       <c r="O37">
-        <v>-38680200</v>
+        <v>-23656500</v>
       </c>
       <c r="P37">
-        <v>-375742486000</v>
+        <v>-287079975000</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>1671629100000</v>
+        <v>1671618000000</v>
       </c>
       <c r="B38">
-        <v>6088300</v>
+        <v>1981900</v>
       </c>
       <c r="C38">
-        <v>5812100</v>
+        <v>1067700</v>
       </c>
       <c r="D38">
-        <v>59600</v>
+        <v>23200</v>
       </c>
       <c r="E38">
-        <v>97111948000</v>
+        <v>28081917000</v>
       </c>
       <c r="F38">
-        <v>108216400000</v>
+        <v>17257409000</v>
       </c>
       <c r="G38">
-        <v>815593000</v>
+        <v>485136000</v>
       </c>
       <c r="H38">
-        <v>11960000</v>
+        <v>3072800</v>
       </c>
       <c r="I38">
-        <v>206143941000</v>
+        <v>45824462000</v>
       </c>
       <c r="J38" t="str">
-        <v>2022-12-21T13:25:00.000Z</v>
+        <v>2022-12-21T10:20:00.000Z</v>
       </c>
       <c r="K38">
-        <v>4632086192000</v>
+        <v>1867084715000</v>
       </c>
       <c r="L38">
-        <v>284760000</v>
+        <v>116972700</v>
       </c>
       <c r="M38">
-        <v>-276200</v>
+        <v>-914200</v>
       </c>
       <c r="N38">
-        <v>11104452000</v>
+        <v>-10824508000</v>
       </c>
       <c r="O38">
-        <v>-38956400</v>
+        <v>-24570700</v>
       </c>
       <c r="P38">
-        <v>-364638034000</v>
+        <v>-297904483000</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>1671629400000</v>
+        <v>1671618120000</v>
       </c>
       <c r="B39">
-        <v>8290900</v>
+        <v>1524100</v>
       </c>
       <c r="C39">
-        <v>5410200</v>
+        <v>1621800</v>
       </c>
       <c r="D39">
-        <v>142600</v>
+        <v>34600</v>
       </c>
       <c r="E39">
-        <v>129651837000</v>
+        <v>23411589000</v>
       </c>
       <c r="F39">
-        <v>95900877000</v>
+        <v>25000772000</v>
       </c>
       <c r="G39">
-        <v>1953623000</v>
+        <v>483012000</v>
       </c>
       <c r="H39">
-        <v>13843700</v>
+        <v>3180500</v>
       </c>
       <c r="I39">
-        <v>227506337000</v>
+        <v>48895373000</v>
       </c>
       <c r="J39" t="str">
-        <v>2022-12-21T13:30:00.000Z</v>
+        <v>2022-12-21T10:22:00.000Z</v>
       </c>
       <c r="K39">
-        <v>4859592529000</v>
+        <v>1915980088000</v>
       </c>
       <c r="L39">
-        <v>298603700</v>
+        <v>120153200</v>
       </c>
       <c r="M39">
-        <v>-2880700</v>
+        <v>97700</v>
       </c>
       <c r="N39">
-        <v>-33750960000</v>
+        <v>1589183000</v>
       </c>
       <c r="O39">
-        <v>-41837100</v>
+        <v>-24473000</v>
       </c>
       <c r="P39">
-        <v>-398388994000</v>
+        <v>-296315300000</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>1671629700000</v>
+        <v>1671618240000</v>
       </c>
       <c r="B40">
-        <v>30643500</v>
+        <v>962900</v>
       </c>
       <c r="C40">
-        <v>9867600</v>
+        <v>1009500</v>
       </c>
       <c r="D40">
-        <v>489900</v>
+        <v>13700</v>
       </c>
       <c r="E40">
-        <v>392197423000</v>
+        <v>13917630000</v>
       </c>
       <c r="F40">
-        <v>149325657000</v>
+        <v>14571348000</v>
       </c>
       <c r="G40">
-        <v>7044363000</v>
+        <v>205298000</v>
       </c>
       <c r="H40">
-        <v>41001000</v>
+        <v>1986100</v>
       </c>
       <c r="I40">
-        <v>548567443000</v>
+        <v>28694276000</v>
       </c>
       <c r="J40" t="str">
-        <v>2022-12-21T13:35:00.000Z</v>
+        <v>2022-12-21T10:24:00.000Z</v>
       </c>
       <c r="K40">
-        <v>5408159972000</v>
+        <v>1944674364000</v>
       </c>
       <c r="L40">
-        <v>339604700</v>
+        <v>122139300</v>
       </c>
       <c r="M40">
-        <v>-20775900</v>
+        <v>46600</v>
       </c>
       <c r="N40">
-        <v>-242871766000</v>
+        <v>653718000</v>
       </c>
       <c r="O40">
-        <v>-62613000</v>
+        <v>-24426400</v>
       </c>
       <c r="P40">
-        <v>-641260760000</v>
+        <v>-295661582000</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>1671630000000</v>
+        <v>1671618360000</v>
       </c>
       <c r="B41">
-        <v>10153400</v>
+        <v>1290800</v>
       </c>
       <c r="C41">
-        <v>10696800</v>
+        <v>777100</v>
       </c>
       <c r="D41">
-        <v>74700</v>
+        <v>22900</v>
       </c>
       <c r="E41">
-        <v>133640252000</v>
+        <v>17854239000</v>
       </c>
       <c r="F41">
-        <v>152936073000</v>
+        <v>11688495000</v>
       </c>
       <c r="G41">
-        <v>1197724000</v>
+        <v>717545000</v>
       </c>
       <c r="H41">
-        <v>20924900</v>
+        <v>2090800</v>
       </c>
       <c r="I41">
-        <v>287774049000</v>
+        <v>30260279000</v>
       </c>
       <c r="J41" t="str">
-        <v>2022-12-21T13:40:00.000Z</v>
+        <v>2022-12-21T10:26:00.000Z</v>
       </c>
       <c r="K41">
-        <v>5695934021000</v>
+        <v>1974934643000</v>
       </c>
       <c r="L41">
-        <v>360529600</v>
+        <v>124230100</v>
       </c>
       <c r="M41">
-        <v>543400</v>
+        <v>-513700</v>
       </c>
       <c r="N41">
-        <v>19295821000</v>
+        <v>-6165744000</v>
       </c>
       <c r="O41">
-        <v>-62069600</v>
+        <v>-24940100</v>
       </c>
       <c r="P41">
-        <v>-621964939000</v>
+        <v>-301827326000</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>1671630300000</v>
+        <v>1671618480000</v>
       </c>
       <c r="B42">
-        <v>13760200</v>
+        <v>1289400</v>
       </c>
       <c r="C42">
-        <v>4631700</v>
+        <v>409300</v>
       </c>
       <c r="D42">
-        <v>49800</v>
+        <v>300</v>
       </c>
       <c r="E42">
-        <v>197872213000</v>
+        <v>20083634000</v>
       </c>
       <c r="F42">
-        <v>75391087000</v>
+        <v>6440506000</v>
       </c>
       <c r="G42">
-        <v>776583000</v>
+        <v>4035000</v>
       </c>
       <c r="H42">
-        <v>18441700</v>
+        <v>1699000</v>
       </c>
       <c r="I42">
-        <v>274039883000</v>
+        <v>26528175000</v>
       </c>
       <c r="J42" t="str">
-        <v>2022-12-21T13:45:00.000Z</v>
+        <v>2022-12-21T10:28:00.000Z</v>
       </c>
       <c r="K42">
-        <v>5969973904000</v>
+        <v>2001462818000</v>
       </c>
       <c r="L42">
-        <v>378971300</v>
+        <v>125929100</v>
       </c>
       <c r="M42">
-        <v>-9128500</v>
+        <v>-880100</v>
       </c>
       <c r="N42">
-        <v>-122481126000</v>
+        <v>-13643128000</v>
       </c>
       <c r="O42">
-        <v>-71198100</v>
+        <v>-25820200</v>
       </c>
       <c r="P42">
-        <v>-744446065000</v>
+        <v>-315470454000</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>1671630600000</v>
+        <v>1671618600000</v>
       </c>
       <c r="B43">
-        <v>31547600</v>
+        <v>1110600</v>
       </c>
       <c r="C43">
-        <v>7614900</v>
+        <v>734900</v>
       </c>
       <c r="D43">
-        <v>441100</v>
+        <v>19100</v>
       </c>
       <c r="E43">
-        <v>484492033000</v>
+        <v>18007588000</v>
       </c>
       <c r="F43">
-        <v>119170972000</v>
+        <v>11640328000</v>
       </c>
       <c r="G43">
-        <v>8745450000</v>
+        <v>161700000</v>
       </c>
       <c r="H43">
-        <v>39603600</v>
+        <v>1864600</v>
       </c>
       <c r="I43">
-        <v>612408455000</v>
+        <v>29809616000</v>
       </c>
       <c r="J43" t="str">
-        <v>2022-12-21T13:50:00.000Z</v>
+        <v>2022-12-21T10:30:00.000Z</v>
       </c>
       <c r="K43">
-        <v>6582382359000</v>
+        <v>2031272434000</v>
       </c>
       <c r="L43">
-        <v>418574900</v>
+        <v>127793700</v>
       </c>
       <c r="M43">
-        <v>-23932700</v>
+        <v>-375700</v>
       </c>
       <c r="N43">
-        <v>-365321061000</v>
+        <v>-6367260000</v>
       </c>
       <c r="O43">
-        <v>-95130800</v>
+        <v>-26195900</v>
       </c>
       <c r="P43">
-        <v>-1109767126000</v>
+        <v>-321837714000</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>1671630900000</v>
+        <v>1671618720000</v>
       </c>
       <c r="B44">
-        <v>9680300</v>
+        <v>896700</v>
       </c>
       <c r="C44">
-        <v>12271600</v>
+        <v>1035300</v>
       </c>
       <c r="D44">
-        <v>175300</v>
+        <v>4600</v>
       </c>
       <c r="E44">
-        <v>151431184000</v>
+        <v>13049146000</v>
       </c>
       <c r="F44">
-        <v>203120128000</v>
+        <v>17143291000</v>
       </c>
       <c r="G44">
-        <v>3708232000</v>
+        <v>65175000</v>
       </c>
       <c r="H44">
-        <v>22127200</v>
+        <v>1936600</v>
       </c>
       <c r="I44">
-        <v>358259544000</v>
+        <v>30257612000</v>
       </c>
       <c r="J44" t="str">
-        <v>2022-12-21T13:55:00.000Z</v>
+        <v>2022-12-21T10:32:00.000Z</v>
       </c>
       <c r="K44">
-        <v>6940641903000</v>
+        <v>2061530046000</v>
       </c>
       <c r="L44">
-        <v>440702100</v>
+        <v>129730300</v>
       </c>
       <c r="M44">
-        <v>2591300</v>
+        <v>138600</v>
       </c>
       <c r="N44">
-        <v>51688944000</v>
+        <v>4094145000</v>
       </c>
       <c r="O44">
-        <v>-92539500</v>
+        <v>-26057300</v>
       </c>
       <c r="P44">
-        <v>-1058078182000</v>
+        <v>-317743569000</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>1671631200000</v>
+        <v>1671618840000</v>
       </c>
       <c r="B45">
-        <v>4340200</v>
+        <v>534900</v>
       </c>
       <c r="C45">
-        <v>10753000</v>
+        <v>966900</v>
       </c>
       <c r="D45">
-        <v>58600</v>
+        <v>2700</v>
       </c>
       <c r="E45">
-        <v>74464926000</v>
+        <v>8437792000</v>
       </c>
       <c r="F45">
-        <v>161583487000</v>
+        <v>15929564000</v>
       </c>
       <c r="G45">
-        <v>626388000</v>
+        <v>58475000</v>
       </c>
       <c r="H45">
-        <v>15151800</v>
+        <v>1504500</v>
       </c>
       <c r="I45">
-        <v>236674801000</v>
+        <v>24425831000</v>
       </c>
       <c r="J45" t="str">
-        <v>2022-12-21T14:00:00.000Z</v>
+        <v>2022-12-21T10:34:00.000Z</v>
       </c>
       <c r="K45">
-        <v>7177316704000</v>
+        <v>2085955877000</v>
       </c>
       <c r="L45">
-        <v>455853900</v>
+        <v>131234800</v>
       </c>
       <c r="M45">
-        <v>6412800</v>
+        <v>432000</v>
       </c>
       <c r="N45">
-        <v>87118561000</v>
+        <v>7491772000</v>
       </c>
       <c r="O45">
-        <v>-86126700</v>
+        <v>-25625300</v>
       </c>
       <c r="P45">
-        <v>-970959621000</v>
+        <v>-310251797000</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>1671631500000</v>
+        <v>1671618960000</v>
       </c>
       <c r="B46">
-        <v>14870900</v>
+        <v>1060500</v>
       </c>
       <c r="C46">
-        <v>5799900</v>
+        <v>1523700</v>
       </c>
       <c r="D46">
-        <v>102700</v>
+        <v>3000</v>
       </c>
       <c r="E46">
-        <v>232006529000</v>
+        <v>16504484000</v>
       </c>
       <c r="F46">
-        <v>96666130000</v>
+        <v>27695312000</v>
       </c>
       <c r="G46">
-        <v>1593820000</v>
+        <v>117570000</v>
       </c>
       <c r="H46">
-        <v>20773500</v>
+        <v>2587200</v>
       </c>
       <c r="I46">
-        <v>330266479000</v>
+        <v>44317366000</v>
       </c>
       <c r="J46" t="str">
-        <v>2022-12-21T14:05:00.000Z</v>
+        <v>2022-12-21T10:36:00.000Z</v>
       </c>
       <c r="K46">
-        <v>7507583183000</v>
+        <v>2130273243000</v>
       </c>
       <c r="L46">
-        <v>476627400</v>
+        <v>133822000</v>
       </c>
       <c r="M46">
-        <v>-9071000</v>
+        <v>463200</v>
       </c>
       <c r="N46">
-        <v>-135340399000</v>
+        <v>11190828000</v>
       </c>
       <c r="O46">
-        <v>-95197700</v>
+        <v>-25162100</v>
       </c>
       <c r="P46">
-        <v>-1106300020000</v>
+        <v>-299060969000</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>1671631800000</v>
+        <v>1671619080000</v>
       </c>
       <c r="B47">
-        <v>30735300</v>
+        <v>1690400</v>
       </c>
       <c r="C47">
-        <v>7589900</v>
+        <v>1424300</v>
       </c>
       <c r="D47">
-        <v>288200</v>
+        <v>10900</v>
       </c>
       <c r="E47">
-        <v>481973386000</v>
+        <v>25172543000</v>
       </c>
       <c r="F47">
-        <v>125352198000</v>
+        <v>22670346000</v>
       </c>
       <c r="G47">
-        <v>4443904000</v>
+        <v>45396000</v>
       </c>
       <c r="H47">
-        <v>38613400</v>
+        <v>3125600</v>
       </c>
       <c r="I47">
-        <v>611769488000</v>
+        <v>47888285000</v>
       </c>
       <c r="J47" t="str">
-        <v>2022-12-21T14:10:00.000Z</v>
+        <v>2022-12-21T10:38:00.000Z</v>
       </c>
       <c r="K47">
-        <v>8119352671000</v>
+        <v>2178161528000</v>
       </c>
       <c r="L47">
-        <v>515240800</v>
+        <v>136947600</v>
       </c>
       <c r="M47">
-        <v>-23145400</v>
+        <v>-266100</v>
       </c>
       <c r="N47">
-        <v>-356621188000</v>
+        <v>-2502197000</v>
       </c>
       <c r="O47">
-        <v>-118343100</v>
+        <v>-25428200</v>
       </c>
       <c r="P47">
-        <v>-1462921208000</v>
+        <v>-301563166000</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>1671632100000</v>
+        <v>1671619200000</v>
       </c>
       <c r="B48">
-        <v>36003200</v>
+        <v>777500</v>
       </c>
       <c r="C48">
-        <v>13294100</v>
+        <v>1467700</v>
       </c>
       <c r="D48">
-        <v>497900</v>
+        <v>55500</v>
       </c>
       <c r="E48">
-        <v>570354790000</v>
+        <v>12625191000</v>
       </c>
       <c r="F48">
-        <v>217252541000</v>
+        <v>24743055000</v>
       </c>
       <c r="G48">
-        <v>7136294000</v>
+        <v>864128000</v>
       </c>
       <c r="H48">
-        <v>49795200</v>
+        <v>2300700</v>
       </c>
       <c r="I48">
-        <v>794743625000</v>
+        <v>38232374000</v>
       </c>
       <c r="J48" t="str">
-        <v>2022-12-21T14:15:00.000Z</v>
+        <v>2022-12-21T10:40:00.000Z</v>
       </c>
       <c r="K48">
-        <v>8914096296000</v>
+        <v>2216393902000</v>
       </c>
       <c r="L48">
-        <v>565036000</v>
+        <v>139248300</v>
       </c>
       <c r="M48">
-        <v>-22709100</v>
+        <v>690200</v>
       </c>
       <c r="N48">
-        <v>-353102249000</v>
+        <v>12117864000</v>
       </c>
       <c r="O48">
-        <v>-141052200</v>
+        <v>-24738000</v>
       </c>
       <c r="P48">
-        <v>-1816023457000</v>
+        <v>-289445302000</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>1671632400000</v>
+        <v>1671619320000</v>
       </c>
       <c r="B49">
-        <v>7882300</v>
+        <v>642400</v>
       </c>
       <c r="C49">
-        <v>21893400</v>
+        <v>2095500</v>
       </c>
       <c r="D49">
-        <v>279200</v>
+        <v>24000</v>
       </c>
       <c r="E49">
-        <v>130364856000</v>
+        <v>8739496000</v>
       </c>
       <c r="F49">
-        <v>341632260000</v>
+        <v>36088139000</v>
       </c>
       <c r="G49">
-        <v>4747517000</v>
+        <v>453278000</v>
       </c>
       <c r="H49">
-        <v>30054900</v>
+        <v>2761900</v>
       </c>
       <c r="I49">
-        <v>476744633000</v>
+        <v>45280913000</v>
       </c>
       <c r="J49" t="str">
-        <v>2022-12-21T14:20:00.000Z</v>
+        <v>2022-12-21T10:42:00.000Z</v>
       </c>
       <c r="K49">
-        <v>9390840929000</v>
+        <v>2261674815000</v>
       </c>
       <c r="L49">
-        <v>595090900</v>
+        <v>142010200</v>
       </c>
       <c r="M49">
-        <v>14011100</v>
+        <v>1453100</v>
       </c>
       <c r="N49">
-        <v>211267404000</v>
+        <v>27348643000</v>
       </c>
       <c r="O49">
-        <v>-127041100</v>
+        <v>-23284900</v>
       </c>
       <c r="P49">
-        <v>-1604756053000</v>
+        <v>-262096659000</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>1671632700000</v>
+        <v>1671619440000</v>
       </c>
       <c r="B50">
-        <v>8091200</v>
+        <v>798300</v>
       </c>
       <c r="C50">
-        <v>25102100</v>
+        <v>3344100</v>
       </c>
       <c r="D50">
-        <v>203500</v>
+        <v>18000</v>
       </c>
       <c r="E50">
-        <v>117389417000</v>
+        <v>11805580000</v>
       </c>
       <c r="F50">
-        <v>363906932000</v>
+        <v>61920493000</v>
       </c>
       <c r="G50">
-        <v>3077573000</v>
+        <v>389086000</v>
       </c>
       <c r="H50">
-        <v>33396800</v>
+        <v>4160400</v>
       </c>
       <c r="I50">
-        <v>484373922000</v>
+        <v>74115159000</v>
       </c>
       <c r="J50" t="str">
-        <v>2022-12-21T14:25:00.000Z</v>
+        <v>2022-12-21T10:44:00.000Z</v>
       </c>
       <c r="K50">
-        <v>9875214851000</v>
+        <v>2335789974000</v>
       </c>
       <c r="L50">
-        <v>628487700</v>
+        <v>146170600</v>
       </c>
       <c r="M50">
-        <v>17010900</v>
+        <v>2545800</v>
       </c>
       <c r="N50">
-        <v>246517515000</v>
+        <v>50114913000</v>
       </c>
       <c r="O50">
-        <v>-110030200</v>
+        <v>-20739100</v>
       </c>
       <c r="P50">
-        <v>-1358238538000</v>
+        <v>-211981746000</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>1671633000000</v>
+        <v>1671619560000</v>
       </c>
       <c r="B51">
-        <v>11400</v>
+        <v>839000</v>
       </c>
       <c r="C51">
-        <v>11800</v>
+        <v>2186600</v>
       </c>
       <c r="D51">
-        <v>2000</v>
+        <v>39600</v>
       </c>
       <c r="E51">
-        <v>326226000</v>
+        <v>12882702000</v>
       </c>
       <c r="F51">
-        <v>133275000</v>
+        <v>40382477000</v>
       </c>
       <c r="G51">
-        <v>20000000</v>
+        <v>844313000</v>
       </c>
       <c r="H51">
-        <v>25200</v>
+        <v>3065200</v>
       </c>
       <c r="I51">
-        <v>479501000</v>
+        <v>54109492000</v>
       </c>
       <c r="J51" t="str">
-        <v>2022-12-21T14:30:00.000Z</v>
+        <v>2022-12-21T10:46:00.000Z</v>
       </c>
       <c r="K51">
-        <v>9875694352000</v>
+        <v>2389899466000</v>
       </c>
       <c r="L51">
-        <v>628512900</v>
+        <v>149235800</v>
       </c>
       <c r="M51">
-        <v>400</v>
+        <v>1347600</v>
       </c>
       <c r="N51">
-        <v>-192951000</v>
+        <v>27499775000</v>
       </c>
       <c r="O51">
-        <v>-110029800</v>
+        <v>-19391500</v>
       </c>
       <c r="P51">
-        <v>-1358431489000</v>
+        <v>-184481971000</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>1671633300000</v>
+        <v>1671619680000</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>1327700</v>
       </c>
       <c r="C52">
-        <v>100</v>
+        <v>1698100</v>
       </c>
       <c r="D52">
-        <v>100</v>
+        <v>62000</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>23833627000</v>
       </c>
       <c r="F52">
-        <v>1000000</v>
+        <v>30333036000</v>
       </c>
       <c r="G52">
-        <v>1000000</v>
+        <v>972764000</v>
       </c>
       <c r="H52">
-        <v>200</v>
+        <v>3087800</v>
       </c>
       <c r="I52">
-        <v>2000000</v>
+        <v>55139427000</v>
       </c>
       <c r="J52" t="str">
-        <v>2022-12-21T14:35:00.000Z</v>
+        <v>2022-12-21T10:48:00.000Z</v>
       </c>
       <c r="K52">
-        <v>9875696352000</v>
+        <v>2445038893000</v>
       </c>
       <c r="L52">
-        <v>628513100</v>
+        <v>152323600</v>
       </c>
       <c r="M52">
-        <v>100</v>
+        <v>370400</v>
       </c>
       <c r="N52">
-        <v>1000000</v>
+        <v>6499409000</v>
       </c>
       <c r="O52">
-        <v>-110029700</v>
+        <v>-19021100</v>
       </c>
       <c r="P52">
-        <v>-1358430489000</v>
+        <v>-177982562000</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>1671633900000</v>
+        <v>1671619800000</v>
       </c>
       <c r="B53">
-        <v>5817900</v>
+        <v>1604200</v>
       </c>
       <c r="C53">
-        <v>9016600</v>
+        <v>541400</v>
       </c>
       <c r="D53">
-        <v>23259200</v>
+        <v>40300</v>
       </c>
       <c r="E53">
-        <v>130766965000</v>
+        <v>28241319000</v>
       </c>
       <c r="F53">
-        <v>181452341000</v>
+        <v>9521910000</v>
       </c>
       <c r="G53">
-        <v>441832085000</v>
+        <v>1386842000</v>
       </c>
       <c r="H53">
-        <v>38093700</v>
+        <v>2185900</v>
       </c>
       <c r="I53">
-        <v>754051391000</v>
+        <v>39150071000</v>
       </c>
       <c r="J53" t="str">
-        <v>2022-12-21T14:45:00.000Z</v>
+        <v>2022-12-21T10:50:00.000Z</v>
       </c>
       <c r="K53">
-        <v>10629747743000</v>
+        <v>2484188964000</v>
       </c>
       <c r="L53">
-        <v>666606800</v>
+        <v>154509500</v>
       </c>
       <c r="M53">
-        <v>3198700</v>
+        <v>-1062800</v>
       </c>
       <c r="N53">
-        <v>50685376000</v>
+        <v>-18719409000</v>
       </c>
       <c r="O53">
-        <v>-106831000</v>
+        <v>-20083900</v>
       </c>
       <c r="P53">
-        <v>-1307745113000</v>
+        <v>-196701971000</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>1671634500000</v>
+        <v>1671619920000</v>
       </c>
       <c r="B54">
+        <v>1475600</v>
+      </c>
+      <c r="C54">
+        <v>400600</v>
+      </c>
+      <c r="D54">
+        <v>6500</v>
+      </c>
+      <c r="E54">
+        <v>23396192000</v>
+      </c>
+      <c r="F54">
+        <v>6717013000</v>
+      </c>
+      <c r="G54">
+        <v>73708000</v>
+      </c>
+      <c r="H54">
+        <v>1882700</v>
+      </c>
+      <c r="I54">
+        <v>30186913000</v>
+      </c>
+      <c r="J54" t="str">
+        <v>2022-12-21T10:52:00.000Z</v>
+      </c>
+      <c r="K54">
+        <v>2514375877000</v>
+      </c>
+      <c r="L54">
+        <v>156392200</v>
+      </c>
+      <c r="M54">
+        <v>-1075000</v>
+      </c>
+      <c r="N54">
+        <v>-16679179000</v>
+      </c>
+      <c r="O54">
+        <v>-21158900</v>
+      </c>
+      <c r="P54">
+        <v>-213381150000</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>1671620040000</v>
+      </c>
+      <c r="B55">
+        <v>907700</v>
+      </c>
+      <c r="C55">
+        <v>491700</v>
+      </c>
+      <c r="D55">
+        <v>8700</v>
+      </c>
+      <c r="E55">
+        <v>14085815000</v>
+      </c>
+      <c r="F55">
+        <v>8414046000</v>
+      </c>
+      <c r="G55">
+        <v>154745000</v>
+      </c>
+      <c r="H55">
+        <v>1408100</v>
+      </c>
+      <c r="I55">
+        <v>22654606000</v>
+      </c>
+      <c r="J55" t="str">
+        <v>2022-12-21T10:54:00.000Z</v>
+      </c>
+      <c r="K55">
+        <v>2537030483000</v>
+      </c>
+      <c r="L55">
+        <v>157800300</v>
+      </c>
+      <c r="M55">
+        <v>-416000</v>
+      </c>
+      <c r="N55">
+        <v>-5671769000</v>
+      </c>
+      <c r="O55">
+        <v>-21574900</v>
+      </c>
+      <c r="P55">
+        <v>-219052919000</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>1671620160000</v>
+      </c>
+      <c r="B56">
+        <v>1054300</v>
+      </c>
+      <c r="C56">
+        <v>465400</v>
+      </c>
+      <c r="D56">
+        <v>11200</v>
+      </c>
+      <c r="E56">
+        <v>16044871000</v>
+      </c>
+      <c r="F56">
+        <v>10604396000</v>
+      </c>
+      <c r="G56">
+        <v>133794000</v>
+      </c>
+      <c r="H56">
+        <v>1530900</v>
+      </c>
+      <c r="I56">
+        <v>26783061000</v>
+      </c>
+      <c r="J56" t="str">
+        <v>2022-12-21T10:56:00.000Z</v>
+      </c>
+      <c r="K56">
+        <v>2563813544000</v>
+      </c>
+      <c r="L56">
+        <v>159331200</v>
+      </c>
+      <c r="M56">
+        <v>-588900</v>
+      </c>
+      <c r="N56">
+        <v>-5440475000</v>
+      </c>
+      <c r="O56">
+        <v>-22163800</v>
+      </c>
+      <c r="P56">
+        <v>-224493394000</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>1671620280000</v>
+      </c>
+      <c r="B57">
+        <v>457600</v>
+      </c>
+      <c r="C57">
+        <v>667800</v>
+      </c>
+      <c r="D57">
+        <v>4500</v>
+      </c>
+      <c r="E57">
+        <v>7128152000</v>
+      </c>
+      <c r="F57">
+        <v>13216181000</v>
+      </c>
+      <c r="G57">
+        <v>47021000</v>
+      </c>
+      <c r="H57">
+        <v>1129900</v>
+      </c>
+      <c r="I57">
+        <v>20391354000</v>
+      </c>
+      <c r="J57" t="str">
+        <v>2022-12-21T10:58:00.000Z</v>
+      </c>
+      <c r="K57">
+        <v>2584204898000</v>
+      </c>
+      <c r="L57">
+        <v>160461100</v>
+      </c>
+      <c r="M57">
+        <v>210200</v>
+      </c>
+      <c r="N57">
+        <v>6088029000</v>
+      </c>
+      <c r="O57">
+        <v>-21953600</v>
+      </c>
+      <c r="P57">
+        <v>-218405365000</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>1671620400000</v>
+      </c>
+      <c r="B58">
+        <v>647100</v>
+      </c>
+      <c r="C58">
+        <v>451100</v>
+      </c>
+      <c r="D58">
+        <v>5300</v>
+      </c>
+      <c r="E58">
+        <v>9956826000</v>
+      </c>
+      <c r="F58">
+        <v>9243403000</v>
+      </c>
+      <c r="G58">
+        <v>78870000</v>
+      </c>
+      <c r="H58">
+        <v>1103500</v>
+      </c>
+      <c r="I58">
+        <v>19279099000</v>
+      </c>
+      <c r="J58" t="str">
+        <v>2022-12-21T11:00:00.000Z</v>
+      </c>
+      <c r="K58">
+        <v>2603483997000</v>
+      </c>
+      <c r="L58">
+        <v>161564600</v>
+      </c>
+      <c r="M58">
+        <v>-196000</v>
+      </c>
+      <c r="N58">
+        <v>-713423000</v>
+      </c>
+      <c r="O58">
+        <v>-22149600</v>
+      </c>
+      <c r="P58">
+        <v>-219118788000</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>1671620520000</v>
+      </c>
+      <c r="B59">
+        <v>531100</v>
+      </c>
+      <c r="C59">
+        <v>715300</v>
+      </c>
+      <c r="D59">
+        <v>14600</v>
+      </c>
+      <c r="E59">
+        <v>8910834000</v>
+      </c>
+      <c r="F59">
+        <v>14816529000</v>
+      </c>
+      <c r="G59">
+        <v>298395000</v>
+      </c>
+      <c r="H59">
+        <v>1261000</v>
+      </c>
+      <c r="I59">
+        <v>24025758000</v>
+      </c>
+      <c r="J59" t="str">
+        <v>2022-12-21T11:02:00.000Z</v>
+      </c>
+      <c r="K59">
+        <v>2627509755000</v>
+      </c>
+      <c r="L59">
+        <v>162825600</v>
+      </c>
+      <c r="M59">
+        <v>184200</v>
+      </c>
+      <c r="N59">
+        <v>5905695000</v>
+      </c>
+      <c r="O59">
+        <v>-21965400</v>
+      </c>
+      <c r="P59">
+        <v>-213213093000</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>1671620640000</v>
+      </c>
+      <c r="B60">
+        <v>370700</v>
+      </c>
+      <c r="C60">
+        <v>1059400</v>
+      </c>
+      <c r="D60">
+        <v>1400</v>
+      </c>
+      <c r="E60">
+        <v>5908627000</v>
+      </c>
+      <c r="F60">
+        <v>22720168000</v>
+      </c>
+      <c r="G60">
+        <v>107660000.00000001</v>
+      </c>
+      <c r="H60">
+        <v>1431500</v>
+      </c>
+      <c r="I60">
+        <v>28736455000</v>
+      </c>
+      <c r="J60" t="str">
+        <v>2022-12-21T11:04:00.000Z</v>
+      </c>
+      <c r="K60">
+        <v>2656246210000</v>
+      </c>
+      <c r="L60">
+        <v>164257100</v>
+      </c>
+      <c r="M60">
+        <v>688700</v>
+      </c>
+      <c r="N60">
+        <v>16811541000</v>
+      </c>
+      <c r="O60">
+        <v>-21276700</v>
+      </c>
+      <c r="P60">
+        <v>-196401552000</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>1671620760000</v>
+      </c>
+      <c r="B61">
+        <v>698300</v>
+      </c>
+      <c r="C61">
+        <v>1144200</v>
+      </c>
+      <c r="D61">
+        <v>4500</v>
+      </c>
+      <c r="E61">
+        <v>11410972000</v>
+      </c>
+      <c r="F61">
+        <v>19988513000</v>
+      </c>
+      <c r="G61">
+        <v>161636000</v>
+      </c>
+      <c r="H61">
+        <v>1847000</v>
+      </c>
+      <c r="I61">
+        <v>31561121000</v>
+      </c>
+      <c r="J61" t="str">
+        <v>2022-12-21T11:06:00.000Z</v>
+      </c>
+      <c r="K61">
+        <v>2687807331000</v>
+      </c>
+      <c r="L61">
+        <v>166104100</v>
+      </c>
+      <c r="M61">
+        <v>445900</v>
+      </c>
+      <c r="N61">
+        <v>8577541000</v>
+      </c>
+      <c r="O61">
+        <v>-20830800</v>
+      </c>
+      <c r="P61">
+        <v>-187824011000</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>1671620880000</v>
+      </c>
+      <c r="B62">
+        <v>817600</v>
+      </c>
+      <c r="C62">
+        <v>1122200</v>
+      </c>
+      <c r="D62">
+        <v>59200</v>
+      </c>
+      <c r="E62">
+        <v>11803048000</v>
+      </c>
+      <c r="F62">
+        <v>18455738000</v>
+      </c>
+      <c r="G62">
+        <v>1057980000</v>
+      </c>
+      <c r="H62">
+        <v>1999000</v>
+      </c>
+      <c r="I62">
+        <v>31316766000</v>
+      </c>
+      <c r="J62" t="str">
+        <v>2022-12-21T11:08:00.000Z</v>
+      </c>
+      <c r="K62">
+        <v>2719124097000</v>
+      </c>
+      <c r="L62">
+        <v>168103100</v>
+      </c>
+      <c r="M62">
+        <v>304600</v>
+      </c>
+      <c r="N62">
+        <v>6652690000</v>
+      </c>
+      <c r="O62">
+        <v>-20526200</v>
+      </c>
+      <c r="P62">
+        <v>-181171321000</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>1671621000000</v>
+      </c>
+      <c r="B63">
+        <v>608900</v>
+      </c>
+      <c r="C63">
+        <v>890900</v>
+      </c>
+      <c r="D63">
+        <v>2200</v>
+      </c>
+      <c r="E63">
+        <v>12013576000</v>
+      </c>
+      <c r="F63">
+        <v>15483443000</v>
+      </c>
+      <c r="G63">
+        <v>91718000</v>
+      </c>
+      <c r="H63">
+        <v>1502000</v>
+      </c>
+      <c r="I63">
+        <v>27588737000</v>
+      </c>
+      <c r="J63" t="str">
+        <v>2022-12-21T11:10:00.000Z</v>
+      </c>
+      <c r="K63">
+        <v>2746712834000</v>
+      </c>
+      <c r="L63">
+        <v>169605100</v>
+      </c>
+      <c r="M63">
+        <v>282000</v>
+      </c>
+      <c r="N63">
+        <v>3469867000</v>
+      </c>
+      <c r="O63">
+        <v>-20244200</v>
+      </c>
+      <c r="P63">
+        <v>-177701454000</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>1671621120000</v>
+      </c>
+      <c r="B64">
+        <v>847900</v>
+      </c>
+      <c r="C64">
+        <v>726300</v>
+      </c>
+      <c r="D64">
+        <v>7800</v>
+      </c>
+      <c r="E64">
+        <v>16237735000</v>
+      </c>
+      <c r="F64">
+        <v>13104800000</v>
+      </c>
+      <c r="G64">
+        <v>333130000</v>
+      </c>
+      <c r="H64">
+        <v>1582000</v>
+      </c>
+      <c r="I64">
+        <v>29675665000</v>
+      </c>
+      <c r="J64" t="str">
+        <v>2022-12-21T11:12:00.000Z</v>
+      </c>
+      <c r="K64">
+        <v>2776388499000</v>
+      </c>
+      <c r="L64">
+        <v>171187100</v>
+      </c>
+      <c r="M64">
+        <v>-121600</v>
+      </c>
+      <c r="N64">
+        <v>-3132935000</v>
+      </c>
+      <c r="O64">
+        <v>-20365800</v>
+      </c>
+      <c r="P64">
+        <v>-180834389000</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>1671621240000</v>
+      </c>
+      <c r="B65">
+        <v>1342400</v>
+      </c>
+      <c r="C65">
+        <v>746500</v>
+      </c>
+      <c r="D65">
+        <v>12300</v>
+      </c>
+      <c r="E65">
+        <v>26095139000</v>
+      </c>
+      <c r="F65">
+        <v>15676339000</v>
+      </c>
+      <c r="G65">
+        <v>149225000</v>
+      </c>
+      <c r="H65">
+        <v>2101200</v>
+      </c>
+      <c r="I65">
+        <v>41920703000</v>
+      </c>
+      <c r="J65" t="str">
+        <v>2022-12-21T11:14:00.000Z</v>
+      </c>
+      <c r="K65">
+        <v>2818309202000</v>
+      </c>
+      <c r="L65">
+        <v>173288300</v>
+      </c>
+      <c r="M65">
+        <v>-595900</v>
+      </c>
+      <c r="N65">
+        <v>-10418800000</v>
+      </c>
+      <c r="O65">
+        <v>-20961700</v>
+      </c>
+      <c r="P65">
+        <v>-191253189000</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>1671621360000</v>
+      </c>
+      <c r="B66">
+        <v>799800</v>
+      </c>
+      <c r="C66">
+        <v>626300</v>
+      </c>
+      <c r="D66">
         <v>0</v>
       </c>
-      <c r="C54">
+      <c r="E66">
+        <v>14142038000</v>
+      </c>
+      <c r="F66">
+        <v>11570019000</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>1426100</v>
+      </c>
+      <c r="I66">
+        <v>25712057000</v>
+      </c>
+      <c r="J66" t="str">
+        <v>2022-12-21T11:16:00.000Z</v>
+      </c>
+      <c r="K66">
+        <v>2844021259000</v>
+      </c>
+      <c r="L66">
+        <v>174714400</v>
+      </c>
+      <c r="M66">
+        <v>-173500</v>
+      </c>
+      <c r="N66">
+        <v>-2572019000</v>
+      </c>
+      <c r="O66">
+        <v>-21135200</v>
+      </c>
+      <c r="P66">
+        <v>-193825208000</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>1671621480000</v>
+      </c>
+      <c r="B67">
+        <v>657600</v>
+      </c>
+      <c r="C67">
+        <v>781400</v>
+      </c>
+      <c r="D67">
+        <v>200</v>
+      </c>
+      <c r="E67">
+        <v>10394416000</v>
+      </c>
+      <c r="F67">
+        <v>14433554000</v>
+      </c>
+      <c r="G67">
+        <v>1738000</v>
+      </c>
+      <c r="H67">
+        <v>1439200</v>
+      </c>
+      <c r="I67">
+        <v>24829708000</v>
+      </c>
+      <c r="J67" t="str">
+        <v>2022-12-21T11:18:00.000Z</v>
+      </c>
+      <c r="K67">
+        <v>2868850967000</v>
+      </c>
+      <c r="L67">
+        <v>176153600</v>
+      </c>
+      <c r="M67">
+        <v>123800</v>
+      </c>
+      <c r="N67">
+        <v>4039138000</v>
+      </c>
+      <c r="O67">
+        <v>-21011400</v>
+      </c>
+      <c r="P67">
+        <v>-189786070000</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>1671621600000</v>
+      </c>
+      <c r="B68">
+        <v>1890500</v>
+      </c>
+      <c r="C68">
+        <v>1022700</v>
+      </c>
+      <c r="D68">
+        <v>6600</v>
+      </c>
+      <c r="E68">
+        <v>27559234000</v>
+      </c>
+      <c r="F68">
+        <v>16867238000</v>
+      </c>
+      <c r="G68">
+        <v>102105000</v>
+      </c>
+      <c r="H68">
+        <v>2919800</v>
+      </c>
+      <c r="I68">
+        <v>44528577000</v>
+      </c>
+      <c r="J68" t="str">
+        <v>2022-12-21T11:20:00.000Z</v>
+      </c>
+      <c r="K68">
+        <v>2913379544000</v>
+      </c>
+      <c r="L68">
+        <v>179073400</v>
+      </c>
+      <c r="M68">
+        <v>-867800</v>
+      </c>
+      <c r="N68">
+        <v>-10691996000</v>
+      </c>
+      <c r="O68">
+        <v>-21879200</v>
+      </c>
+      <c r="P68">
+        <v>-200478066000</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>1671621720000</v>
+      </c>
+      <c r="B69">
+        <v>820400</v>
+      </c>
+      <c r="C69">
+        <v>791900</v>
+      </c>
+      <c r="D69">
+        <v>6100</v>
+      </c>
+      <c r="E69">
+        <v>12919519000</v>
+      </c>
+      <c r="F69">
+        <v>14612033000</v>
+      </c>
+      <c r="G69">
+        <v>137270000</v>
+      </c>
+      <c r="H69">
+        <v>1618400</v>
+      </c>
+      <c r="I69">
+        <v>27668822000</v>
+      </c>
+      <c r="J69" t="str">
+        <v>2022-12-21T11:22:00.000Z</v>
+      </c>
+      <c r="K69">
+        <v>2941048366000</v>
+      </c>
+      <c r="L69">
+        <v>180691800</v>
+      </c>
+      <c r="M69">
+        <v>-28500</v>
+      </c>
+      <c r="N69">
+        <v>1692514000</v>
+      </c>
+      <c r="O69">
+        <v>-21907700</v>
+      </c>
+      <c r="P69">
+        <v>-198785552000</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>1671621840000</v>
+      </c>
+      <c r="B70">
+        <v>932400</v>
+      </c>
+      <c r="C70">
+        <v>590500</v>
+      </c>
+      <c r="D70">
+        <v>11800</v>
+      </c>
+      <c r="E70">
+        <v>14515242000</v>
+      </c>
+      <c r="F70">
+        <v>10091664000</v>
+      </c>
+      <c r="G70">
+        <v>410581000</v>
+      </c>
+      <c r="H70">
+        <v>1534700</v>
+      </c>
+      <c r="I70">
+        <v>25017487000</v>
+      </c>
+      <c r="J70" t="str">
+        <v>2022-12-21T11:24:00.000Z</v>
+      </c>
+      <c r="K70">
+        <v>2966065853000</v>
+      </c>
+      <c r="L70">
+        <v>182226500</v>
+      </c>
+      <c r="M70">
+        <v>-341900</v>
+      </c>
+      <c r="N70">
+        <v>-4423578000</v>
+      </c>
+      <c r="O70">
+        <v>-22249600</v>
+      </c>
+      <c r="P70">
+        <v>-203209130000</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>1671621960000</v>
+      </c>
+      <c r="B71">
+        <v>963100</v>
+      </c>
+      <c r="C71">
+        <v>1752400</v>
+      </c>
+      <c r="D71">
+        <v>5600</v>
+      </c>
+      <c r="E71">
+        <v>15097368000</v>
+      </c>
+      <c r="F71">
+        <v>35347885000</v>
+      </c>
+      <c r="G71">
+        <v>532019000</v>
+      </c>
+      <c r="H71">
+        <v>2721100</v>
+      </c>
+      <c r="I71">
+        <v>50977272000</v>
+      </c>
+      <c r="J71" t="str">
+        <v>2022-12-21T11:26:00.000Z</v>
+      </c>
+      <c r="K71">
+        <v>3017043125000</v>
+      </c>
+      <c r="L71">
+        <v>184947600</v>
+      </c>
+      <c r="M71">
+        <v>789300</v>
+      </c>
+      <c r="N71">
+        <v>20250517000</v>
+      </c>
+      <c r="O71">
+        <v>-21460300</v>
+      </c>
+      <c r="P71">
+        <v>-182958613000</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>1671622080000</v>
+      </c>
+      <c r="B72">
+        <v>1492300</v>
+      </c>
+      <c r="C72">
+        <v>1929100</v>
+      </c>
+      <c r="D72">
+        <v>31600</v>
+      </c>
+      <c r="E72">
+        <v>23005174000</v>
+      </c>
+      <c r="F72">
+        <v>41143782000</v>
+      </c>
+      <c r="G72">
+        <v>520612000</v>
+      </c>
+      <c r="H72">
+        <v>3453000</v>
+      </c>
+      <c r="I72">
+        <v>64669568000</v>
+      </c>
+      <c r="J72" t="str">
+        <v>2022-12-21T11:28:00.000Z</v>
+      </c>
+      <c r="K72">
+        <v>3081712693000</v>
+      </c>
+      <c r="L72">
+        <v>188400600</v>
+      </c>
+      <c r="M72">
+        <v>436800</v>
+      </c>
+      <c r="N72">
+        <v>18138608000</v>
+      </c>
+      <c r="O72">
+        <v>-21023500</v>
+      </c>
+      <c r="P72">
+        <v>-164820005000</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>1671622200000</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>1600</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>17470000</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>1600</v>
+      </c>
+      <c r="I73">
+        <v>17470000</v>
+      </c>
+      <c r="J73" t="str">
+        <v>2022-12-21T11:30:00.000Z</v>
+      </c>
+      <c r="K73">
+        <v>3081730163000</v>
+      </c>
+      <c r="L73">
+        <v>188402200</v>
+      </c>
+      <c r="M73">
+        <v>1600</v>
+      </c>
+      <c r="N73">
+        <v>17470000</v>
+      </c>
+      <c r="O73">
+        <v>-21021900</v>
+      </c>
+      <c r="P73">
+        <v>-164802535000</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>1671627600000</v>
+      </c>
+      <c r="B74">
+        <v>8310200</v>
+      </c>
+      <c r="C74">
+        <v>4864000</v>
+      </c>
+      <c r="D74">
+        <v>828300</v>
+      </c>
+      <c r="E74">
+        <v>137131676000</v>
+      </c>
+      <c r="F74">
+        <v>83236655000</v>
+      </c>
+      <c r="G74">
+        <v>14200529000</v>
+      </c>
+      <c r="H74">
+        <v>14002500</v>
+      </c>
+      <c r="I74">
+        <v>234568860000</v>
+      </c>
+      <c r="J74" t="str">
+        <v>2022-12-21T13:00:00.000Z</v>
+      </c>
+      <c r="K74">
+        <v>3316299023000</v>
+      </c>
+      <c r="L74">
+        <v>202404700</v>
+      </c>
+      <c r="M74">
+        <v>-3446200</v>
+      </c>
+      <c r="N74">
+        <v>-53895021000</v>
+      </c>
+      <c r="O74">
+        <v>-24468100</v>
+      </c>
+      <c r="P74">
+        <v>-218697556000</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>1671627720000</v>
+      </c>
+      <c r="B75">
+        <v>3377400</v>
+      </c>
+      <c r="C75">
+        <v>1952600</v>
+      </c>
+      <c r="D75">
+        <v>78500</v>
+      </c>
+      <c r="E75">
+        <v>56929489000</v>
+      </c>
+      <c r="F75">
+        <v>34436969000</v>
+      </c>
+      <c r="G75">
+        <v>1240108000</v>
+      </c>
+      <c r="H75">
+        <v>5408500</v>
+      </c>
+      <c r="I75">
+        <v>92606566000</v>
+      </c>
+      <c r="J75" t="str">
+        <v>2022-12-21T13:02:00.000Z</v>
+      </c>
+      <c r="K75">
+        <v>3408905589000</v>
+      </c>
+      <c r="L75">
+        <v>207813200</v>
+      </c>
+      <c r="M75">
+        <v>-1424800</v>
+      </c>
+      <c r="N75">
+        <v>-22492520000</v>
+      </c>
+      <c r="O75">
+        <v>-25892900</v>
+      </c>
+      <c r="P75">
+        <v>-241190076000</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>1671627840000</v>
+      </c>
+      <c r="B76">
+        <v>5751200</v>
+      </c>
+      <c r="C76">
+        <v>1971400</v>
+      </c>
+      <c r="D76">
+        <v>114500</v>
+      </c>
+      <c r="E76">
+        <v>81465181000</v>
+      </c>
+      <c r="F76">
+        <v>31484296000</v>
+      </c>
+      <c r="G76">
+        <v>2122206000</v>
+      </c>
+      <c r="H76">
+        <v>7837100</v>
+      </c>
+      <c r="I76">
+        <v>115071683000</v>
+      </c>
+      <c r="J76" t="str">
+        <v>2022-12-21T13:04:00.000Z</v>
+      </c>
+      <c r="K76">
+        <v>3523977272000</v>
+      </c>
+      <c r="L76">
+        <v>215650300</v>
+      </c>
+      <c r="M76">
+        <v>-3779800</v>
+      </c>
+      <c r="N76">
+        <v>-49980885000</v>
+      </c>
+      <c r="O76">
+        <v>-29672700</v>
+      </c>
+      <c r="P76">
+        <v>-291170961000</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>1671627960000</v>
+      </c>
+      <c r="B77">
+        <v>7154800</v>
+      </c>
+      <c r="C77">
+        <v>1718500</v>
+      </c>
+      <c r="D77">
+        <v>8300</v>
+      </c>
+      <c r="E77">
+        <v>103698858000</v>
+      </c>
+      <c r="F77">
+        <v>29376497000</v>
+      </c>
+      <c r="G77">
+        <v>77207000</v>
+      </c>
+      <c r="H77">
+        <v>8881600</v>
+      </c>
+      <c r="I77">
+        <v>133152562000</v>
+      </c>
+      <c r="J77" t="str">
+        <v>2022-12-21T13:06:00.000Z</v>
+      </c>
+      <c r="K77">
+        <v>3657129834000</v>
+      </c>
+      <c r="L77">
+        <v>224531900</v>
+      </c>
+      <c r="M77">
+        <v>-5436300</v>
+      </c>
+      <c r="N77">
+        <v>-74322361000</v>
+      </c>
+      <c r="O77">
+        <v>-35109000</v>
+      </c>
+      <c r="P77">
+        <v>-365493322000</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>1671628080000</v>
+      </c>
+      <c r="B78">
+        <v>9214500</v>
+      </c>
+      <c r="C78">
+        <v>2313400</v>
+      </c>
+      <c r="D78">
+        <v>65300</v>
+      </c>
+      <c r="E78">
+        <v>133708261000</v>
+      </c>
+      <c r="F78">
+        <v>37420296000</v>
+      </c>
+      <c r="G78">
+        <v>1222719000</v>
+      </c>
+      <c r="H78">
+        <v>11593200</v>
+      </c>
+      <c r="I78">
+        <v>172351276000</v>
+      </c>
+      <c r="J78" t="str">
+        <v>2022-12-21T13:08:00.000Z</v>
+      </c>
+      <c r="K78">
+        <v>3829481110000</v>
+      </c>
+      <c r="L78">
+        <v>236125100</v>
+      </c>
+      <c r="M78">
+        <v>-6901100</v>
+      </c>
+      <c r="N78">
+        <v>-96287965000</v>
+      </c>
+      <c r="O78">
+        <v>-42010100</v>
+      </c>
+      <c r="P78">
+        <v>-461781287000</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>1671628200000</v>
+      </c>
+      <c r="B79">
+        <v>3628100</v>
+      </c>
+      <c r="C79">
+        <v>3050000</v>
+      </c>
+      <c r="D79">
+        <v>27300</v>
+      </c>
+      <c r="E79">
+        <v>56754587000</v>
+      </c>
+      <c r="F79">
+        <v>47973391000</v>
+      </c>
+      <c r="G79">
+        <v>546304000</v>
+      </c>
+      <c r="H79">
+        <v>6705400</v>
+      </c>
+      <c r="I79">
+        <v>105274282000</v>
+      </c>
+      <c r="J79" t="str">
+        <v>2022-12-21T13:10:00.000Z</v>
+      </c>
+      <c r="K79">
+        <v>3934755392000</v>
+      </c>
+      <c r="L79">
+        <v>242830500</v>
+      </c>
+      <c r="M79">
+        <v>-578100</v>
+      </c>
+      <c r="N79">
+        <v>-8781196000</v>
+      </c>
+      <c r="O79">
+        <v>-42588200</v>
+      </c>
+      <c r="P79">
+        <v>-470562483000</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>1671628320000</v>
+      </c>
+      <c r="B80">
+        <v>1806000</v>
+      </c>
+      <c r="C80">
+        <v>3920800</v>
+      </c>
+      <c r="D80">
+        <v>51700</v>
+      </c>
+      <c r="E80">
+        <v>27037482000</v>
+      </c>
+      <c r="F80">
+        <v>68820806000</v>
+      </c>
+      <c r="G80">
+        <v>541043000</v>
+      </c>
+      <c r="H80">
+        <v>5778500</v>
+      </c>
+      <c r="I80">
+        <v>96399331000</v>
+      </c>
+      <c r="J80" t="str">
+        <v>2022-12-21T13:12:00.000Z</v>
+      </c>
+      <c r="K80">
+        <v>4031154723000</v>
+      </c>
+      <c r="L80">
+        <v>248609000</v>
+      </c>
+      <c r="M80">
+        <v>2114800</v>
+      </c>
+      <c r="N80">
+        <v>41783324000</v>
+      </c>
+      <c r="O80">
+        <v>-40473400</v>
+      </c>
+      <c r="P80">
+        <v>-428779159000</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>1671628440000</v>
+      </c>
+      <c r="B81">
+        <v>1528900</v>
+      </c>
+      <c r="C81">
+        <v>2548800</v>
+      </c>
+      <c r="D81">
+        <v>2200</v>
+      </c>
+      <c r="E81">
+        <v>26803977000</v>
+      </c>
+      <c r="F81">
+        <v>43562297000</v>
+      </c>
+      <c r="G81">
+        <v>44488000</v>
+      </c>
+      <c r="H81">
+        <v>4079900</v>
+      </c>
+      <c r="I81">
+        <v>70410762000</v>
+      </c>
+      <c r="J81" t="str">
+        <v>2022-12-21T13:14:00.000Z</v>
+      </c>
+      <c r="K81">
+        <v>4101565485000</v>
+      </c>
+      <c r="L81">
+        <v>252688900</v>
+      </c>
+      <c r="M81">
+        <v>1019900</v>
+      </c>
+      <c r="N81">
+        <v>16758320000</v>
+      </c>
+      <c r="O81">
+        <v>-39453500</v>
+      </c>
+      <c r="P81">
+        <v>-412020839000</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>1671628560000</v>
+      </c>
+      <c r="B82">
+        <v>2283400</v>
+      </c>
+      <c r="C82">
+        <v>2224700</v>
+      </c>
+      <c r="D82">
+        <v>53300</v>
+      </c>
+      <c r="E82">
+        <v>34622230000</v>
+      </c>
+      <c r="F82">
+        <v>38466053000</v>
+      </c>
+      <c r="G82">
+        <v>952932000</v>
+      </c>
+      <c r="H82">
+        <v>4561400</v>
+      </c>
+      <c r="I82">
+        <v>74041215000</v>
+      </c>
+      <c r="J82" t="str">
+        <v>2022-12-21T13:16:00.000Z</v>
+      </c>
+      <c r="K82">
+        <v>4175606700000</v>
+      </c>
+      <c r="L82">
+        <v>257250300</v>
+      </c>
+      <c r="M82">
+        <v>-58700</v>
+      </c>
+      <c r="N82">
+        <v>3843823000</v>
+      </c>
+      <c r="O82">
+        <v>-39512200</v>
+      </c>
+      <c r="P82">
+        <v>-408177016000</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>1671628680000</v>
+      </c>
+      <c r="B83">
+        <v>1684000</v>
+      </c>
+      <c r="C83">
+        <v>2337000</v>
+      </c>
+      <c r="D83">
+        <v>8400</v>
+      </c>
+      <c r="E83">
+        <v>27223692000</v>
+      </c>
+      <c r="F83">
+        <v>36631791000</v>
+      </c>
+      <c r="G83">
+        <v>140190000</v>
+      </c>
+      <c r="H83">
+        <v>4029400</v>
+      </c>
+      <c r="I83">
+        <v>63995673000</v>
+      </c>
+      <c r="J83" t="str">
+        <v>2022-12-21T13:18:00.000Z</v>
+      </c>
+      <c r="K83">
+        <v>4239602373000</v>
+      </c>
+      <c r="L83">
+        <v>261279700</v>
+      </c>
+      <c r="M83">
+        <v>653000</v>
+      </c>
+      <c r="N83">
+        <v>9408099000</v>
+      </c>
+      <c r="O83">
+        <v>-38859200</v>
+      </c>
+      <c r="P83">
+        <v>-398768917000</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>1671628800000</v>
+      </c>
+      <c r="B84">
+        <v>1601600</v>
+      </c>
+      <c r="C84">
+        <v>2766200</v>
+      </c>
+      <c r="D84">
+        <v>8400</v>
+      </c>
+      <c r="E84">
+        <v>27149334000</v>
+      </c>
+      <c r="F84">
+        <v>49759264000</v>
+      </c>
+      <c r="G84">
+        <v>146316000</v>
+      </c>
+      <c r="H84">
+        <v>4376200</v>
+      </c>
+      <c r="I84">
+        <v>77054914000</v>
+      </c>
+      <c r="J84" t="str">
+        <v>2022-12-21T13:20:00.000Z</v>
+      </c>
+      <c r="K84">
+        <v>4316657287000</v>
+      </c>
+      <c r="L84">
+        <v>265655900</v>
+      </c>
+      <c r="M84">
+        <v>1164600</v>
+      </c>
+      <c r="N84">
+        <v>22609930000</v>
+      </c>
+      <c r="O84">
+        <v>-37694600</v>
+      </c>
+      <c r="P84">
+        <v>-376158987000</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>1671628920000</v>
+      </c>
+      <c r="B85">
+        <v>2779000</v>
+      </c>
+      <c r="C85">
+        <v>1900200</v>
+      </c>
+      <c r="D85">
+        <v>12800</v>
+      </c>
+      <c r="E85">
+        <v>36768370000</v>
+      </c>
+      <c r="F85">
+        <v>34512446000</v>
+      </c>
+      <c r="G85">
+        <v>169354000</v>
+      </c>
+      <c r="H85">
+        <v>4692000</v>
+      </c>
+      <c r="I85">
+        <v>71450170000</v>
+      </c>
+      <c r="J85" t="str">
+        <v>2022-12-21T13:22:00.000Z</v>
+      </c>
+      <c r="K85">
+        <v>4388107457000</v>
+      </c>
+      <c r="L85">
+        <v>270347900</v>
+      </c>
+      <c r="M85">
+        <v>-878800</v>
+      </c>
+      <c r="N85">
+        <v>-2255924000</v>
+      </c>
+      <c r="O85">
+        <v>-38573400</v>
+      </c>
+      <c r="P85">
+        <v>-378414911000</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>1671629040000</v>
+      </c>
+      <c r="B86">
+        <v>2301000</v>
+      </c>
+      <c r="C86">
+        <v>2191600</v>
+      </c>
+      <c r="D86">
+        <v>20500</v>
+      </c>
+      <c r="E86">
+        <v>34164460000</v>
+      </c>
+      <c r="F86">
+        <v>39196725000</v>
+      </c>
+      <c r="G86">
+        <v>370077000</v>
+      </c>
+      <c r="H86">
+        <v>4513100</v>
+      </c>
+      <c r="I86">
+        <v>73731262000</v>
+      </c>
+      <c r="J86" t="str">
+        <v>2022-12-21T13:24:00.000Z</v>
+      </c>
+      <c r="K86">
+        <v>4461838719000</v>
+      </c>
+      <c r="L86">
+        <v>274861000</v>
+      </c>
+      <c r="M86">
+        <v>-109400</v>
+      </c>
+      <c r="N86">
+        <v>5032265000</v>
+      </c>
+      <c r="O86">
+        <v>-38682800</v>
+      </c>
+      <c r="P86">
+        <v>-373382646000</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>1671629160000</v>
+      </c>
+      <c r="B87">
+        <v>2907500</v>
+      </c>
+      <c r="C87">
+        <v>2160400</v>
+      </c>
+      <c r="D87">
+        <v>5400</v>
+      </c>
+      <c r="E87">
+        <v>42981446000</v>
+      </c>
+      <c r="F87">
+        <v>39261214000</v>
+      </c>
+      <c r="G87">
+        <v>53418000</v>
+      </c>
+      <c r="H87">
+        <v>5073300</v>
+      </c>
+      <c r="I87">
+        <v>82296078000</v>
+      </c>
+      <c r="J87" t="str">
+        <v>2022-12-21T13:26:00.000Z</v>
+      </c>
+      <c r="K87">
+        <v>4544134797000</v>
+      </c>
+      <c r="L87">
+        <v>279934300</v>
+      </c>
+      <c r="M87">
+        <v>-747100</v>
+      </c>
+      <c r="N87">
+        <v>-3720232000</v>
+      </c>
+      <c r="O87">
+        <v>-39429900</v>
+      </c>
+      <c r="P87">
+        <v>-377102878000</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>1671629280000</v>
+      </c>
+      <c r="B88">
+        <v>2158100</v>
+      </c>
+      <c r="C88">
+        <v>2631600</v>
+      </c>
+      <c r="D88">
+        <v>36000</v>
+      </c>
+      <c r="E88">
+        <v>37500306000</v>
+      </c>
+      <c r="F88">
+        <v>49965150000</v>
+      </c>
+      <c r="G88">
+        <v>485939000</v>
+      </c>
+      <c r="H88">
+        <v>4825700</v>
+      </c>
+      <c r="I88">
+        <v>87951395000</v>
+      </c>
+      <c r="J88" t="str">
+        <v>2022-12-21T13:28:00.000Z</v>
+      </c>
+      <c r="K88">
+        <v>4632086192000</v>
+      </c>
+      <c r="L88">
+        <v>284760000</v>
+      </c>
+      <c r="M88">
+        <v>473500</v>
+      </c>
+      <c r="N88">
+        <v>12464844000</v>
+      </c>
+      <c r="O88">
+        <v>-38956400</v>
+      </c>
+      <c r="P88">
+        <v>-364638034000</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>1671629400000</v>
+      </c>
+      <c r="B89">
+        <v>2335200</v>
+      </c>
+      <c r="C89">
+        <v>2270000</v>
+      </c>
+      <c r="D89">
+        <v>60200</v>
+      </c>
+      <c r="E89">
+        <v>40753944000</v>
+      </c>
+      <c r="F89">
+        <v>39446805000</v>
+      </c>
+      <c r="G89">
+        <v>1206228000</v>
+      </c>
+      <c r="H89">
+        <v>4665400</v>
+      </c>
+      <c r="I89">
+        <v>81406977000</v>
+      </c>
+      <c r="J89" t="str">
+        <v>2022-12-21T13:30:00.000Z</v>
+      </c>
+      <c r="K89">
+        <v>4713493169000</v>
+      </c>
+      <c r="L89">
+        <v>289425400</v>
+      </c>
+      <c r="M89">
+        <v>-65200</v>
+      </c>
+      <c r="N89">
+        <v>-1307139000</v>
+      </c>
+      <c r="O89">
+        <v>-39021600</v>
+      </c>
+      <c r="P89">
+        <v>-365945173000</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>1671629520000</v>
+      </c>
+      <c r="B90">
+        <v>2262100</v>
+      </c>
+      <c r="C90">
+        <v>2164200</v>
+      </c>
+      <c r="D90">
+        <v>66700</v>
+      </c>
+      <c r="E90">
+        <v>34149491000</v>
+      </c>
+      <c r="F90">
+        <v>38962814000</v>
+      </c>
+      <c r="G90">
+        <v>558995000</v>
+      </c>
+      <c r="H90">
+        <v>4493000</v>
+      </c>
+      <c r="I90">
+        <v>73671300000</v>
+      </c>
+      <c r="J90" t="str">
+        <v>2022-12-21T13:32:00.000Z</v>
+      </c>
+      <c r="K90">
+        <v>4787164469000</v>
+      </c>
+      <c r="L90">
+        <v>293918400</v>
+      </c>
+      <c r="M90">
+        <v>-97900</v>
+      </c>
+      <c r="N90">
+        <v>4813323000</v>
+      </c>
+      <c r="O90">
+        <v>-39119500</v>
+      </c>
+      <c r="P90">
+        <v>-361131850000</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>1671629640000</v>
+      </c>
+      <c r="B91">
+        <v>7481200</v>
+      </c>
+      <c r="C91">
+        <v>1916900</v>
+      </c>
+      <c r="D91">
+        <v>64900</v>
+      </c>
+      <c r="E91">
+        <v>107203523000</v>
+      </c>
+      <c r="F91">
+        <v>34247791000</v>
+      </c>
+      <c r="G91">
+        <v>562176000</v>
+      </c>
+      <c r="H91">
+        <v>9463000</v>
+      </c>
+      <c r="I91">
+        <v>142013490000</v>
+      </c>
+      <c r="J91" t="str">
+        <v>2022-12-21T13:34:00.000Z</v>
+      </c>
+      <c r="K91">
+        <v>4929177959000</v>
+      </c>
+      <c r="L91">
+        <v>303381400</v>
+      </c>
+      <c r="M91">
+        <v>-5564300</v>
+      </c>
+      <c r="N91">
+        <v>-72955732000</v>
+      </c>
+      <c r="O91">
+        <v>-44683800</v>
+      </c>
+      <c r="P91">
+        <v>-434087582000</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>1671629760000</v>
+      </c>
+      <c r="B92">
+        <v>14887000</v>
+      </c>
+      <c r="C92">
+        <v>1588900</v>
+      </c>
+      <c r="D92">
+        <v>216600</v>
+      </c>
+      <c r="E92">
+        <v>184788065000</v>
+      </c>
+      <c r="F92">
+        <v>24731776000</v>
+      </c>
+      <c r="G92">
+        <v>3022476000</v>
+      </c>
+      <c r="H92">
+        <v>16692500</v>
+      </c>
+      <c r="I92">
+        <v>212542317000</v>
+      </c>
+      <c r="J92" t="str">
+        <v>2022-12-21T13:36:00.000Z</v>
+      </c>
+      <c r="K92">
+        <v>5141720276000</v>
+      </c>
+      <c r="L92">
+        <v>320073900</v>
+      </c>
+      <c r="M92">
+        <v>-13298100</v>
+      </c>
+      <c r="N92">
+        <v>-160056289000</v>
+      </c>
+      <c r="O92">
+        <v>-57981900</v>
+      </c>
+      <c r="P92">
+        <v>-594143871000</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>1671629880000</v>
+      </c>
+      <c r="B93">
+        <v>11968900</v>
+      </c>
+      <c r="C93">
+        <v>7337800</v>
+      </c>
+      <c r="D93">
+        <v>224100</v>
+      </c>
+      <c r="E93">
+        <v>154954237000</v>
+      </c>
+      <c r="F93">
+        <v>107837348000</v>
+      </c>
+      <c r="G93">
+        <v>3648111000</v>
+      </c>
+      <c r="H93">
+        <v>19530800</v>
+      </c>
+      <c r="I93">
+        <v>266439696000</v>
+      </c>
+      <c r="J93" t="str">
+        <v>2022-12-21T13:38:00.000Z</v>
+      </c>
+      <c r="K93">
+        <v>5408159972000</v>
+      </c>
+      <c r="L93">
+        <v>339604700</v>
+      </c>
+      <c r="M93">
+        <v>-4631100</v>
+      </c>
+      <c r="N93">
+        <v>-47116889000</v>
+      </c>
+      <c r="O93">
+        <v>-62613000</v>
+      </c>
+      <c r="P93">
+        <v>-641260760000</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>1671630000000</v>
+      </c>
+      <c r="B94">
+        <v>5835400</v>
+      </c>
+      <c r="C94">
+        <v>5156900</v>
+      </c>
+      <c r="D94">
+        <v>33800</v>
+      </c>
+      <c r="E94">
+        <v>69893489000</v>
+      </c>
+      <c r="F94">
+        <v>70597368000</v>
+      </c>
+      <c r="G94">
+        <v>569631000</v>
+      </c>
+      <c r="H94">
+        <v>11026100</v>
+      </c>
+      <c r="I94">
+        <v>141060488000</v>
+      </c>
+      <c r="J94" t="str">
+        <v>2022-12-21T13:40:00.000Z</v>
+      </c>
+      <c r="K94">
+        <v>5549220460000</v>
+      </c>
+      <c r="L94">
+        <v>350630800</v>
+      </c>
+      <c r="M94">
+        <v>-678500</v>
+      </c>
+      <c r="N94">
+        <v>703879000</v>
+      </c>
+      <c r="O94">
+        <v>-63291500</v>
+      </c>
+      <c r="P94">
+        <v>-640556881000</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>1671630120000</v>
+      </c>
+      <c r="B95">
+        <v>2965600</v>
+      </c>
+      <c r="C95">
+        <v>4171400</v>
+      </c>
+      <c r="D95">
+        <v>31800</v>
+      </c>
+      <c r="E95">
+        <v>40886614000</v>
+      </c>
+      <c r="F95">
+        <v>62030626000</v>
+      </c>
+      <c r="G95">
+        <v>409703000</v>
+      </c>
+      <c r="H95">
+        <v>7168800</v>
+      </c>
+      <c r="I95">
+        <v>103326943000</v>
+      </c>
+      <c r="J95" t="str">
+        <v>2022-12-21T13:42:00.000Z</v>
+      </c>
+      <c r="K95">
+        <v>5652547403000</v>
+      </c>
+      <c r="L95">
+        <v>357799600</v>
+      </c>
+      <c r="M95">
+        <v>1205800</v>
+      </c>
+      <c r="N95">
+        <v>21144012000</v>
+      </c>
+      <c r="O95">
+        <v>-62085700</v>
+      </c>
+      <c r="P95">
+        <v>-619412869000</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>1671630240000</v>
+      </c>
+      <c r="B96">
+        <v>3774100</v>
+      </c>
+      <c r="C96">
+        <v>2216800</v>
+      </c>
+      <c r="D96">
+        <v>17500</v>
+      </c>
+      <c r="E96">
+        <v>60762470000</v>
+      </c>
+      <c r="F96">
+        <v>34675887000</v>
+      </c>
+      <c r="G96">
+        <v>404549000</v>
+      </c>
+      <c r="H96">
+        <v>6008400</v>
+      </c>
+      <c r="I96">
+        <v>95842906000</v>
+      </c>
+      <c r="J96" t="str">
+        <v>2022-12-21T13:44:00.000Z</v>
+      </c>
+      <c r="K96">
+        <v>5748390309000</v>
+      </c>
+      <c r="L96">
+        <v>363808000</v>
+      </c>
+      <c r="M96">
+        <v>-1557300</v>
+      </c>
+      <c r="N96">
+        <v>-26086583000</v>
+      </c>
+      <c r="O96">
+        <v>-63643000</v>
+      </c>
+      <c r="P96">
+        <v>-645499452000</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>1671630360000</v>
+      </c>
+      <c r="B97">
+        <v>4274600</v>
+      </c>
+      <c r="C97">
+        <v>1676700</v>
+      </c>
+      <c r="D97">
+        <v>15300</v>
+      </c>
+      <c r="E97">
+        <v>62354149000</v>
+      </c>
+      <c r="F97">
+        <v>28361044000</v>
+      </c>
+      <c r="G97">
+        <v>253707000</v>
+      </c>
+      <c r="H97">
+        <v>5966600</v>
+      </c>
+      <c r="I97">
+        <v>90968900000</v>
+      </c>
+      <c r="J97" t="str">
+        <v>2022-12-21T13:46:00.000Z</v>
+      </c>
+      <c r="K97">
+        <v>5839359209000</v>
+      </c>
+      <c r="L97">
+        <v>369774600</v>
+      </c>
+      <c r="M97">
+        <v>-2597900</v>
+      </c>
+      <c r="N97">
+        <v>-33993105000</v>
+      </c>
+      <c r="O97">
+        <v>-66240900</v>
+      </c>
+      <c r="P97">
+        <v>-679492557000</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>1671630480000</v>
+      </c>
+      <c r="B98">
+        <v>7063900</v>
+      </c>
+      <c r="C98">
+        <v>2106700</v>
+      </c>
+      <c r="D98">
+        <v>26100</v>
+      </c>
+      <c r="E98">
+        <v>97615743000</v>
+      </c>
+      <c r="F98">
+        <v>32662235000</v>
+      </c>
+      <c r="G98">
+        <v>336717000</v>
+      </c>
+      <c r="H98">
+        <v>9196700</v>
+      </c>
+      <c r="I98">
+        <v>130614695000</v>
+      </c>
+      <c r="J98" t="str">
+        <v>2022-12-21T13:48:00.000Z</v>
+      </c>
+      <c r="K98">
+        <v>5969973904000</v>
+      </c>
+      <c r="L98">
+        <v>378971300</v>
+      </c>
+      <c r="M98">
+        <v>-4957200</v>
+      </c>
+      <c r="N98">
+        <v>-64953508000</v>
+      </c>
+      <c r="O98">
+        <v>-71198100</v>
+      </c>
+      <c r="P98">
+        <v>-744446065000</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>1671630600000</v>
+      </c>
+      <c r="B99">
+        <v>11377500</v>
+      </c>
+      <c r="C99">
+        <v>2823100</v>
+      </c>
+      <c r="D99">
+        <v>158200</v>
+      </c>
+      <c r="E99">
+        <v>173436025000</v>
+      </c>
+      <c r="F99">
+        <v>42363954000</v>
+      </c>
+      <c r="G99">
+        <v>2614932000</v>
+      </c>
+      <c r="H99">
+        <v>14358800</v>
+      </c>
+      <c r="I99">
+        <v>218414911000</v>
+      </c>
+      <c r="J99" t="str">
+        <v>2022-12-21T13:50:00.000Z</v>
+      </c>
+      <c r="K99">
+        <v>6188388815000</v>
+      </c>
+      <c r="L99">
+        <v>393330100</v>
+      </c>
+      <c r="M99">
+        <v>-8554400</v>
+      </c>
+      <c r="N99">
+        <v>-131072071000</v>
+      </c>
+      <c r="O99">
+        <v>-79752500</v>
+      </c>
+      <c r="P99">
+        <v>-875518136000</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>1671630720000</v>
+      </c>
+      <c r="B100">
+        <v>13640900</v>
+      </c>
+      <c r="C100">
+        <v>3012500</v>
+      </c>
+      <c r="D100">
+        <v>232200</v>
+      </c>
+      <c r="E100">
+        <v>221292662000</v>
+      </c>
+      <c r="F100">
+        <v>49222955000</v>
+      </c>
+      <c r="G100">
+        <v>5205310000</v>
+      </c>
+      <c r="H100">
+        <v>16885600</v>
+      </c>
+      <c r="I100">
+        <v>275720927000</v>
+      </c>
+      <c r="J100" t="str">
+        <v>2022-12-21T13:52:00.000Z</v>
+      </c>
+      <c r="K100">
+        <v>6464109742000</v>
+      </c>
+      <c r="L100">
+        <v>410215700</v>
+      </c>
+      <c r="M100">
+        <v>-10628400</v>
+      </c>
+      <c r="N100">
+        <v>-172069707000</v>
+      </c>
+      <c r="O100">
+        <v>-90380900</v>
+      </c>
+      <c r="P100">
+        <v>-1047587843000</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>1671630840000</v>
+      </c>
+      <c r="B101">
+        <v>10301100</v>
+      </c>
+      <c r="C101">
+        <v>3557000</v>
+      </c>
+      <c r="D101">
+        <v>81600</v>
+      </c>
+      <c r="E101">
+        <v>144064625000</v>
+      </c>
+      <c r="F101">
+        <v>59604011000</v>
+      </c>
+      <c r="G101">
+        <v>1507123000</v>
+      </c>
+      <c r="H101">
+        <v>13939700</v>
+      </c>
+      <c r="I101">
+        <v>205175759000</v>
+      </c>
+      <c r="J101" t="str">
+        <v>2022-12-21T13:54:00.000Z</v>
+      </c>
+      <c r="K101">
+        <v>6669285501000</v>
+      </c>
+      <c r="L101">
+        <v>424155400</v>
+      </c>
+      <c r="M101">
+        <v>-6744100</v>
+      </c>
+      <c r="N101">
+        <v>-84460614000</v>
+      </c>
+      <c r="O101">
+        <v>-97125000</v>
+      </c>
+      <c r="P101">
+        <v>-1132048457000</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102">
+        <v>1671630960000</v>
+      </c>
+      <c r="B102">
+        <v>4110900</v>
+      </c>
+      <c r="C102">
+        <v>4737300</v>
+      </c>
+      <c r="D102">
+        <v>22900</v>
+      </c>
+      <c r="E102">
+        <v>64734401000</v>
+      </c>
+      <c r="F102">
+        <v>75642156000</v>
+      </c>
+      <c r="G102">
+        <v>437689000</v>
+      </c>
+      <c r="H102">
+        <v>8871100</v>
+      </c>
+      <c r="I102">
+        <v>140814246000</v>
+      </c>
+      <c r="J102" t="str">
+        <v>2022-12-21T13:56:00.000Z</v>
+      </c>
+      <c r="K102">
+        <v>6810099747000</v>
+      </c>
+      <c r="L102">
+        <v>433026500</v>
+      </c>
+      <c r="M102">
+        <v>626400</v>
+      </c>
+      <c r="N102">
+        <v>10907755000</v>
+      </c>
+      <c r="O102">
+        <v>-96498600</v>
+      </c>
+      <c r="P102">
+        <v>-1121140702000</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103">
+        <v>1671631080000</v>
+      </c>
+      <c r="B103">
+        <v>1797500</v>
+      </c>
+      <c r="C103">
+        <v>5756600</v>
+      </c>
+      <c r="D103">
+        <v>121500</v>
+      </c>
+      <c r="E103">
+        <v>32395504000</v>
+      </c>
+      <c r="F103">
+        <v>95458024000</v>
+      </c>
+      <c r="G103">
+        <v>2688628000</v>
+      </c>
+      <c r="H103">
+        <v>7675600</v>
+      </c>
+      <c r="I103">
+        <v>130542156000</v>
+      </c>
+      <c r="J103" t="str">
+        <v>2022-12-21T13:58:00.000Z</v>
+      </c>
+      <c r="K103">
+        <v>6940641903000</v>
+      </c>
+      <c r="L103">
+        <v>440702100</v>
+      </c>
+      <c r="M103">
+        <v>3959100</v>
+      </c>
+      <c r="N103">
+        <v>63062520000</v>
+      </c>
+      <c r="O103">
+        <v>-92539500</v>
+      </c>
+      <c r="P103">
+        <v>-1058078182000</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104">
+        <v>1671631200000</v>
+      </c>
+      <c r="B104">
+        <v>1524700</v>
+      </c>
+      <c r="C104">
+        <v>4077000</v>
+      </c>
+      <c r="D104">
+        <v>35600</v>
+      </c>
+      <c r="E104">
+        <v>29421999000</v>
+      </c>
+      <c r="F104">
+        <v>62945210000</v>
+      </c>
+      <c r="G104">
+        <v>223629000</v>
+      </c>
+      <c r="H104">
+        <v>5637300</v>
+      </c>
+      <c r="I104">
+        <v>92590838000</v>
+      </c>
+      <c r="J104" t="str">
+        <v>2022-12-21T14:00:00.000Z</v>
+      </c>
+      <c r="K104">
+        <v>7033232741000</v>
+      </c>
+      <c r="L104">
+        <v>446339400</v>
+      </c>
+      <c r="M104">
+        <v>2552300</v>
+      </c>
+      <c r="N104">
+        <v>33523211000</v>
+      </c>
+      <c r="O104">
+        <v>-89987200</v>
+      </c>
+      <c r="P104">
+        <v>-1024554971000</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105">
+        <v>1671631320000</v>
+      </c>
+      <c r="B105">
+        <v>1494200</v>
+      </c>
+      <c r="C105">
+        <v>5436300</v>
+      </c>
+      <c r="D105">
+        <v>11800</v>
+      </c>
+      <c r="E105">
+        <v>23582831000</v>
+      </c>
+      <c r="F105">
+        <v>78890782000</v>
+      </c>
+      <c r="G105">
+        <v>248040000</v>
+      </c>
+      <c r="H105">
+        <v>6942300</v>
+      </c>
+      <c r="I105">
+        <v>102721653000</v>
+      </c>
+      <c r="J105" t="str">
+        <v>2022-12-21T14:02:00.000Z</v>
+      </c>
+      <c r="K105">
+        <v>7135954394000</v>
+      </c>
+      <c r="L105">
+        <v>453281700</v>
+      </c>
+      <c r="M105">
+        <v>3942100</v>
+      </c>
+      <c r="N105">
+        <v>55307951000</v>
+      </c>
+      <c r="O105">
+        <v>-86045100</v>
+      </c>
+      <c r="P105">
+        <v>-969247020000</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106">
+        <v>1671631440000</v>
+      </c>
+      <c r="B106">
+        <v>3435900</v>
+      </c>
+      <c r="C106">
+        <v>2804700</v>
+      </c>
+      <c r="D106">
+        <v>36100</v>
+      </c>
+      <c r="E106">
+        <v>54018932000</v>
+      </c>
+      <c r="F106">
+        <v>45977650000</v>
+      </c>
+      <c r="G106">
+        <v>487948000</v>
+      </c>
+      <c r="H106">
+        <v>6276700</v>
+      </c>
+      <c r="I106">
+        <v>100484530000</v>
+      </c>
+      <c r="J106" t="str">
+        <v>2022-12-21T14:04:00.000Z</v>
+      </c>
+      <c r="K106">
+        <v>7236438924000</v>
+      </c>
+      <c r="L106">
+        <v>459558400</v>
+      </c>
+      <c r="M106">
+        <v>-631200</v>
+      </c>
+      <c r="N106">
+        <v>-8041282000</v>
+      </c>
+      <c r="O106">
+        <v>-86676300</v>
+      </c>
+      <c r="P106">
+        <v>-977288302000</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107">
+        <v>1671631560000</v>
+      </c>
+      <c r="B107">
+        <v>7164000</v>
+      </c>
+      <c r="C107">
+        <v>2203600</v>
+      </c>
+      <c r="D107">
+        <v>37400</v>
+      </c>
+      <c r="E107">
+        <v>109292790000</v>
+      </c>
+      <c r="F107">
+        <v>33896116000</v>
+      </c>
+      <c r="G107">
+        <v>619651000</v>
+      </c>
+      <c r="H107">
+        <v>9405000</v>
+      </c>
+      <c r="I107">
+        <v>143808557000</v>
+      </c>
+      <c r="J107" t="str">
+        <v>2022-12-21T14:06:00.000Z</v>
+      </c>
+      <c r="K107">
+        <v>7380247481000</v>
+      </c>
+      <c r="L107">
+        <v>468963400</v>
+      </c>
+      <c r="M107">
+        <v>-4960400</v>
+      </c>
+      <c r="N107">
+        <v>-75396674000</v>
+      </c>
+      <c r="O107">
+        <v>-91636700</v>
+      </c>
+      <c r="P107">
+        <v>-1052684976000</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108">
+        <v>1671631680000</v>
+      </c>
+      <c r="B108">
+        <v>5592300</v>
+      </c>
+      <c r="C108">
+        <v>2031300</v>
+      </c>
+      <c r="D108">
+        <v>40400</v>
+      </c>
+      <c r="E108">
+        <v>90154903000</v>
+      </c>
+      <c r="F108">
+        <v>36539859000</v>
+      </c>
+      <c r="G108">
+        <v>640940000</v>
+      </c>
+      <c r="H108">
+        <v>7664000</v>
+      </c>
+      <c r="I108">
+        <v>127335702000</v>
+      </c>
+      <c r="J108" t="str">
+        <v>2022-12-21T14:08:00.000Z</v>
+      </c>
+      <c r="K108">
+        <v>7507583183000</v>
+      </c>
+      <c r="L108">
+        <v>476627400</v>
+      </c>
+      <c r="M108">
+        <v>-3561000</v>
+      </c>
+      <c r="N108">
+        <v>-53615044000</v>
+      </c>
+      <c r="O108">
+        <v>-95197700</v>
+      </c>
+      <c r="P108">
+        <v>-1106300020000</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109">
+        <v>1671631800000</v>
+      </c>
+      <c r="B109">
+        <v>7209700</v>
+      </c>
+      <c r="C109">
+        <v>2994200</v>
+      </c>
+      <c r="D109">
+        <v>68400</v>
+      </c>
+      <c r="E109">
+        <v>114715697000</v>
+      </c>
+      <c r="F109">
+        <v>48277695000</v>
+      </c>
+      <c r="G109">
+        <v>927371000</v>
+      </c>
+      <c r="H109">
+        <v>10272300</v>
+      </c>
+      <c r="I109">
+        <v>163920763000</v>
+      </c>
+      <c r="J109" t="str">
+        <v>2022-12-21T14:10:00.000Z</v>
+      </c>
+      <c r="K109">
+        <v>7671503946000</v>
+      </c>
+      <c r="L109">
+        <v>486899700</v>
+      </c>
+      <c r="M109">
+        <v>-4215500</v>
+      </c>
+      <c r="N109">
+        <v>-66438002000</v>
+      </c>
+      <c r="O109">
+        <v>-99413200</v>
+      </c>
+      <c r="P109">
+        <v>-1172738022000</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110">
+        <v>1671631920000</v>
+      </c>
+      <c r="B110">
+        <v>14541100</v>
+      </c>
+      <c r="C110">
+        <v>2880500</v>
+      </c>
+      <c r="D110">
+        <v>89500</v>
+      </c>
+      <c r="E110">
+        <v>226603870000</v>
+      </c>
+      <c r="F110">
+        <v>45875693000</v>
+      </c>
+      <c r="G110">
+        <v>1449248000</v>
+      </c>
+      <c r="H110">
+        <v>17511100</v>
+      </c>
+      <c r="I110">
+        <v>273928811000</v>
+      </c>
+      <c r="J110" t="str">
+        <v>2022-12-21T14:12:00.000Z</v>
+      </c>
+      <c r="K110">
+        <v>7945432757000</v>
+      </c>
+      <c r="L110">
+        <v>504410800</v>
+      </c>
+      <c r="M110">
+        <v>-11660600</v>
+      </c>
+      <c r="N110">
+        <v>-180728177000</v>
+      </c>
+      <c r="O110">
+        <v>-111073800</v>
+      </c>
+      <c r="P110">
+        <v>-1353466199000</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111">
+        <v>1671632040000</v>
+      </c>
+      <c r="B111">
+        <v>18666700</v>
+      </c>
+      <c r="C111">
+        <v>3275700</v>
+      </c>
+      <c r="D111">
+        <v>158300</v>
+      </c>
+      <c r="E111">
+        <v>301166335000</v>
+      </c>
+      <c r="F111">
+        <v>56985295000</v>
+      </c>
+      <c r="G111">
+        <v>2557308000</v>
+      </c>
+      <c r="H111">
+        <v>22100700</v>
+      </c>
+      <c r="I111">
+        <v>360708938000</v>
+      </c>
+      <c r="J111" t="str">
+        <v>2022-12-21T14:14:00.000Z</v>
+      </c>
+      <c r="K111">
+        <v>8306141695000</v>
+      </c>
+      <c r="L111">
+        <v>526511500</v>
+      </c>
+      <c r="M111">
+        <v>-15391000</v>
+      </c>
+      <c r="N111">
+        <v>-244181040000</v>
+      </c>
+      <c r="O111">
+        <v>-126464800</v>
+      </c>
+      <c r="P111">
+        <v>-1597647239000</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112">
+        <v>1671632160000</v>
+      </c>
+      <c r="B112">
+        <v>14146300</v>
+      </c>
+      <c r="C112">
+        <v>5855400</v>
+      </c>
+      <c r="D112">
+        <v>367400</v>
+      </c>
+      <c r="E112">
+        <v>222739409000</v>
+      </c>
+      <c r="F112">
+        <v>90551297000</v>
+      </c>
+      <c r="G112">
+        <v>5111814000</v>
+      </c>
+      <c r="H112">
+        <v>20369100</v>
+      </c>
+      <c r="I112">
+        <v>318402520000</v>
+      </c>
+      <c r="J112" t="str">
+        <v>2022-12-21T14:16:00.000Z</v>
+      </c>
+      <c r="K112">
+        <v>8624544215000</v>
+      </c>
+      <c r="L112">
+        <v>546880600</v>
+      </c>
+      <c r="M112">
+        <v>-8290900</v>
+      </c>
+      <c r="N112">
+        <v>-132188112000</v>
+      </c>
+      <c r="O112">
+        <v>-134755700</v>
+      </c>
+      <c r="P112">
+        <v>-1729835351000</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113">
+        <v>1671632280000</v>
+      </c>
+      <c r="B113">
+        <v>12174700</v>
+      </c>
+      <c r="C113">
+        <v>5878200</v>
+      </c>
+      <c r="D113">
+        <v>102500</v>
+      </c>
+      <c r="E113">
+        <v>187102865000</v>
+      </c>
+      <c r="F113">
+        <v>100914759000</v>
+      </c>
+      <c r="G113">
+        <v>1534457000</v>
+      </c>
+      <c r="H113">
+        <v>18155400</v>
+      </c>
+      <c r="I113">
+        <v>289552081000</v>
+      </c>
+      <c r="J113" t="str">
+        <v>2022-12-21T14:18:00.000Z</v>
+      </c>
+      <c r="K113">
+        <v>8914096296000</v>
+      </c>
+      <c r="L113">
+        <v>565036000</v>
+      </c>
+      <c r="M113">
+        <v>-6296500</v>
+      </c>
+      <c r="N113">
+        <v>-86188106000</v>
+      </c>
+      <c r="O113">
+        <v>-141052200</v>
+      </c>
+      <c r="P113">
+        <v>-1816023457000</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114">
+        <v>1671632400000</v>
+      </c>
+      <c r="B114">
+        <v>3649600</v>
+      </c>
+      <c r="C114">
+        <v>10060500</v>
+      </c>
+      <c r="D114">
+        <v>97300</v>
+      </c>
+      <c r="E114">
+        <v>59010914000</v>
+      </c>
+      <c r="F114">
+        <v>168139165000</v>
+      </c>
+      <c r="G114">
+        <v>1831099000</v>
+      </c>
+      <c r="H114">
+        <v>13807400</v>
+      </c>
+      <c r="I114">
+        <v>228981178000</v>
+      </c>
+      <c r="J114" t="str">
+        <v>2022-12-21T14:20:00.000Z</v>
+      </c>
+      <c r="K114">
+        <v>9143077474000</v>
+      </c>
+      <c r="L114">
+        <v>578843400</v>
+      </c>
+      <c r="M114">
+        <v>6410900</v>
+      </c>
+      <c r="N114">
+        <v>109128251000</v>
+      </c>
+      <c r="O114">
+        <v>-134641300</v>
+      </c>
+      <c r="P114">
+        <v>-1706895206000</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115">
+        <v>1671632520000</v>
+      </c>
+      <c r="B115">
+        <v>3230300</v>
+      </c>
+      <c r="C115">
+        <v>8301800</v>
+      </c>
+      <c r="D115">
+        <v>160400</v>
+      </c>
+      <c r="E115">
+        <v>53032392000</v>
+      </c>
+      <c r="F115">
+        <v>126743308000</v>
+      </c>
+      <c r="G115">
+        <v>2623282000</v>
+      </c>
+      <c r="H115">
+        <v>11692500</v>
+      </c>
+      <c r="I115">
+        <v>182398982000</v>
+      </c>
+      <c r="J115" t="str">
+        <v>2022-12-21T14:22:00.000Z</v>
+      </c>
+      <c r="K115">
+        <v>9325476456000</v>
+      </c>
+      <c r="L115">
+        <v>590535900</v>
+      </c>
+      <c r="M115">
+        <v>5071500</v>
+      </c>
+      <c r="N115">
+        <v>73710916000</v>
+      </c>
+      <c r="O115">
+        <v>-129569800</v>
+      </c>
+      <c r="P115">
+        <v>-1633184290000</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116">
+        <v>1671632640000</v>
+      </c>
+      <c r="B116">
+        <v>2241200</v>
+      </c>
+      <c r="C116">
+        <v>7943400</v>
+      </c>
+      <c r="D116">
+        <v>47200</v>
+      </c>
+      <c r="E116">
+        <v>37668102000</v>
+      </c>
+      <c r="F116">
+        <v>109946881000</v>
+      </c>
+      <c r="G116">
+        <v>564343000</v>
+      </c>
+      <c r="H116">
+        <v>10231800</v>
+      </c>
+      <c r="I116">
+        <v>148179326000</v>
+      </c>
+      <c r="J116" t="str">
+        <v>2022-12-21T14:24:00.000Z</v>
+      </c>
+      <c r="K116">
+        <v>9473655782000</v>
+      </c>
+      <c r="L116">
+        <v>600767700</v>
+      </c>
+      <c r="M116">
+        <v>5702200</v>
+      </c>
+      <c r="N116">
+        <v>72278779000</v>
+      </c>
+      <c r="O116">
+        <v>-123867600</v>
+      </c>
+      <c r="P116">
+        <v>-1560905511000</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117">
+        <v>1671632760000</v>
+      </c>
+      <c r="B117">
+        <v>3369700</v>
+      </c>
+      <c r="C117">
+        <v>10743100</v>
+      </c>
+      <c r="D117">
+        <v>82200</v>
+      </c>
+      <c r="E117">
+        <v>44869408000</v>
+      </c>
+      <c r="F117">
+        <v>171780464000</v>
+      </c>
+      <c r="G117">
+        <v>1241229000</v>
+      </c>
+      <c r="H117">
+        <v>14195000</v>
+      </c>
+      <c r="I117">
+        <v>217891101000</v>
+      </c>
+      <c r="J117" t="str">
+        <v>2022-12-21T14:26:00.000Z</v>
+      </c>
+      <c r="K117">
+        <v>9691546883000</v>
+      </c>
+      <c r="L117">
+        <v>614962700</v>
+      </c>
+      <c r="M117">
+        <v>7373400</v>
+      </c>
+      <c r="N117">
+        <v>126911056000</v>
+      </c>
+      <c r="O117">
+        <v>-116494200</v>
+      </c>
+      <c r="P117">
+        <v>-1433994455000</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118">
+        <v>1671632880000</v>
+      </c>
+      <c r="B118">
+        <v>3482700</v>
+      </c>
+      <c r="C118">
+        <v>9946700</v>
+      </c>
+      <c r="D118">
+        <v>95600</v>
+      </c>
+      <c r="E118">
+        <v>53173457000</v>
+      </c>
+      <c r="F118">
+        <v>128929374000</v>
+      </c>
+      <c r="G118">
+        <v>1565137000</v>
+      </c>
+      <c r="H118">
+        <v>13525000</v>
+      </c>
+      <c r="I118">
+        <v>183667968000</v>
+      </c>
+      <c r="J118" t="str">
+        <v>2022-12-21T14:28:00.000Z</v>
+      </c>
+      <c r="K118">
+        <v>9875214851000</v>
+      </c>
+      <c r="L118">
+        <v>628487700</v>
+      </c>
+      <c r="M118">
+        <v>6464000</v>
+      </c>
+      <c r="N118">
+        <v>75755917000</v>
+      </c>
+      <c r="O118">
+        <v>-110030200</v>
+      </c>
+      <c r="P118">
+        <v>-1358238538000</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119">
+        <v>1671633000000</v>
+      </c>
+      <c r="B119">
+        <v>11400</v>
+      </c>
+      <c r="C119">
+        <v>11800</v>
+      </c>
+      <c r="D119">
+        <v>2000</v>
+      </c>
+      <c r="E119">
+        <v>326226000</v>
+      </c>
+      <c r="F119">
+        <v>133275000</v>
+      </c>
+      <c r="G119">
+        <v>20000000</v>
+      </c>
+      <c r="H119">
+        <v>25200</v>
+      </c>
+      <c r="I119">
+        <v>479501000</v>
+      </c>
+      <c r="J119" t="str">
+        <v>2022-12-21T14:30:00.000Z</v>
+      </c>
+      <c r="K119">
+        <v>9875694352000</v>
+      </c>
+      <c r="L119">
+        <v>628512900</v>
+      </c>
+      <c r="M119">
+        <v>400</v>
+      </c>
+      <c r="N119">
+        <v>-192951000</v>
+      </c>
+      <c r="O119">
+        <v>-110029800</v>
+      </c>
+      <c r="P119">
+        <v>-1358431489000</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120">
+        <v>1671633480000</v>
+      </c>
+      <c r="B120">
+        <v>0</v>
+      </c>
+      <c r="C120">
         <v>100</v>
       </c>
-      <c r="D54">
+      <c r="D120">
+        <v>100</v>
+      </c>
+      <c r="E120">
         <v>0</v>
       </c>
-      <c r="E54">
+      <c r="F120">
+        <v>1000000</v>
+      </c>
+      <c r="G120">
+        <v>1000000</v>
+      </c>
+      <c r="H120">
+        <v>200</v>
+      </c>
+      <c r="I120">
+        <v>2000000</v>
+      </c>
+      <c r="J120" t="str">
+        <v>2022-12-21T14:38:00.000Z</v>
+      </c>
+      <c r="K120">
+        <v>9875696352000</v>
+      </c>
+      <c r="L120">
+        <v>628513100</v>
+      </c>
+      <c r="M120">
+        <v>100</v>
+      </c>
+      <c r="N120">
+        <v>1000000</v>
+      </c>
+      <c r="O120">
+        <v>-110029700</v>
+      </c>
+      <c r="P120">
+        <v>-1358430489000</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121">
+        <v>1671633840000</v>
+      </c>
+      <c r="B121">
+        <v>5817900</v>
+      </c>
+      <c r="C121">
+        <v>9016100</v>
+      </c>
+      <c r="D121">
+        <v>23259200</v>
+      </c>
+      <c r="E121">
+        <v>130766965000</v>
+      </c>
+      <c r="F121">
+        <v>181447291000</v>
+      </c>
+      <c r="G121">
+        <v>441832085000</v>
+      </c>
+      <c r="H121">
+        <v>38093200</v>
+      </c>
+      <c r="I121">
+        <v>754046341000</v>
+      </c>
+      <c r="J121" t="str">
+        <v>2022-12-21T14:44:00.000Z</v>
+      </c>
+      <c r="K121">
+        <v>10629742693000</v>
+      </c>
+      <c r="L121">
+        <v>666606300</v>
+      </c>
+      <c r="M121">
+        <v>3198200</v>
+      </c>
+      <c r="N121">
+        <v>50680326000</v>
+      </c>
+      <c r="O121">
+        <v>-106831500</v>
+      </c>
+      <c r="P121">
+        <v>-1307750163000</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122">
+        <v>1671634080000</v>
+      </c>
+      <c r="B122">
         <v>0</v>
       </c>
-      <c r="F54">
+      <c r="C122">
+        <v>500</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>5050000</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122">
+        <v>500</v>
+      </c>
+      <c r="I122">
+        <v>5050000</v>
+      </c>
+      <c r="J122" t="str">
+        <v>2022-12-21T14:48:00.000Z</v>
+      </c>
+      <c r="K122">
+        <v>10629747743000</v>
+      </c>
+      <c r="L122">
+        <v>666606800</v>
+      </c>
+      <c r="M122">
+        <v>500</v>
+      </c>
+      <c r="N122">
+        <v>5050000</v>
+      </c>
+      <c r="O122">
+        <v>-106831000</v>
+      </c>
+      <c r="P122">
+        <v>-1307745113000</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123">
+        <v>1671634680000</v>
+      </c>
+      <c r="B123">
+        <v>0</v>
+      </c>
+      <c r="C123">
+        <v>100</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
         <v>1010000</v>
       </c>
-      <c r="G54">
+      <c r="G123">
         <v>0</v>
       </c>
-      <c r="H54">
+      <c r="H123">
         <v>100</v>
       </c>
-      <c r="I54">
+      <c r="I123">
         <v>1010000</v>
       </c>
-      <c r="J54" t="str">
-        <v>2022-12-21T14:55:00.000Z</v>
-      </c>
-      <c r="K54">
+      <c r="J123" t="str">
+        <v>2022-12-21T14:58:00.000Z</v>
+      </c>
+      <c r="K123">
         <v>10629748753000</v>
       </c>
-      <c r="L54">
+      <c r="L123">
         <v>666606900</v>
       </c>
-      <c r="M54">
+      <c r="M123">
         <v>100</v>
       </c>
-      <c r="N54">
+      <c r="N123">
         <v>1010000</v>
       </c>
-      <c r="O54">
+      <c r="O123">
         <v>-106830900</v>
       </c>
-      <c r="P54">
+      <c r="P123">
         <v>-1307744103000</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P54"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:P123"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/name/vnindex/20221221/VNINDEX_HOSE_5p_20221221.xlsx
+++ b/name/vnindex/20221221/VNINDEX_HOSE_5p_20221221.xlsx
@@ -616,25 +616,25 @@
         <v>1802000</v>
       </c>
       <c r="E5">
-        <v>68942592000</v>
+        <v>45051606900</v>
       </c>
       <c r="F5">
-        <v>56569606000</v>
+        <v>49642939600</v>
       </c>
       <c r="G5">
-        <v>25937389000</v>
+        <v>24393834100</v>
       </c>
       <c r="H5">
         <v>10665000</v>
       </c>
       <c r="I5">
-        <v>151449587000</v>
+        <v>119088380600</v>
       </c>
       <c r="J5" t="str">
         <v>2022-12-21T09:14:00.000Z</v>
       </c>
       <c r="K5">
-        <v>151480527000</v>
+        <v>119119320600</v>
       </c>
       <c r="L5">
         <v>10668000</v>
@@ -643,13 +643,13 @@
         <v>-1018400</v>
       </c>
       <c r="N5">
-        <v>-12372986000</v>
+        <v>4591332700</v>
       </c>
       <c r="O5">
         <v>-1018800</v>
       </c>
       <c r="P5">
-        <v>-12377066000</v>
+        <v>4587252700</v>
       </c>
     </row>
     <row r="6">
@@ -666,10 +666,10 @@
         <v>29900</v>
       </c>
       <c r="E6">
-        <v>32410038000</v>
+        <v>29489161800</v>
       </c>
       <c r="F6">
-        <v>42221344000</v>
+        <v>34756915900</v>
       </c>
       <c r="G6">
         <v>492176000</v>
@@ -678,13 +678,13 @@
         <v>4428500</v>
       </c>
       <c r="I6">
-        <v>75123558000</v>
+        <v>64738253700</v>
       </c>
       <c r="J6" t="str">
         <v>2022-12-21T09:16:00.000Z</v>
       </c>
       <c r="K6">
-        <v>226604085000</v>
+        <v>183857574300</v>
       </c>
       <c r="L6">
         <v>15096500</v>
@@ -693,13 +693,13 @@
         <v>169000</v>
       </c>
       <c r="N6">
-        <v>9811306000</v>
+        <v>5267754100</v>
       </c>
       <c r="O6">
         <v>-849800</v>
       </c>
       <c r="P6">
-        <v>-2565760000</v>
+        <v>9855006800</v>
       </c>
     </row>
     <row r="7">
@@ -716,10 +716,10 @@
         <v>13300</v>
       </c>
       <c r="E7">
-        <v>50060435000</v>
+        <v>44736164600</v>
       </c>
       <c r="F7">
-        <v>31264740000</v>
+        <v>29062244700</v>
       </c>
       <c r="G7">
         <v>217587000</v>
@@ -728,13 +728,13 @@
         <v>4962300</v>
       </c>
       <c r="I7">
-        <v>81542762000</v>
+        <v>74015996300</v>
       </c>
       <c r="J7" t="str">
         <v>2022-12-21T09:18:00.000Z</v>
       </c>
       <c r="K7">
-        <v>308146847000</v>
+        <v>257873570600</v>
       </c>
       <c r="L7">
         <v>20058800</v>
@@ -743,13 +743,13 @@
         <v>-1493000</v>
       </c>
       <c r="N7">
-        <v>-18795695000</v>
+        <v>-15673919900</v>
       </c>
       <c r="O7">
         <v>-2342800</v>
       </c>
       <c r="P7">
-        <v>-21361455000</v>
+        <v>-5818913100</v>
       </c>
     </row>
     <row r="8">
@@ -766,10 +766,10 @@
         <v>16700</v>
       </c>
       <c r="E8">
-        <v>51575311000</v>
+        <v>48214874800</v>
       </c>
       <c r="F8">
-        <v>58407102000</v>
+        <v>56977133400</v>
       </c>
       <c r="G8">
         <v>142055000</v>
@@ -778,13 +778,13 @@
         <v>6314100</v>
       </c>
       <c r="I8">
-        <v>110124468000</v>
+        <v>105334063200</v>
       </c>
       <c r="J8" t="str">
         <v>2022-12-21T09:20:00.000Z</v>
       </c>
       <c r="K8">
-        <v>418271315000</v>
+        <v>363207633800</v>
       </c>
       <c r="L8">
         <v>26372900</v>
@@ -793,13 +793,13 @@
         <v>-159200</v>
       </c>
       <c r="N8">
-        <v>6831791000</v>
+        <v>8762258600</v>
       </c>
       <c r="O8">
         <v>-2502000</v>
       </c>
       <c r="P8">
-        <v>-14529664000</v>
+        <v>2943345500</v>
       </c>
     </row>
     <row r="9">
@@ -816,10 +816,10 @@
         <v>51000</v>
       </c>
       <c r="E9">
-        <v>40052523000</v>
+        <v>38731545300</v>
       </c>
       <c r="F9">
-        <v>30724780000</v>
+        <v>25994714800</v>
       </c>
       <c r="G9">
         <v>824091000</v>
@@ -828,13 +828,13 @@
         <v>4511100</v>
       </c>
       <c r="I9">
-        <v>71601394000</v>
+        <v>65550351100</v>
       </c>
       <c r="J9" t="str">
         <v>2022-12-21T09:22:00.000Z</v>
       </c>
       <c r="K9">
-        <v>489872709000</v>
+        <v>428757984900</v>
       </c>
       <c r="L9">
         <v>30884000</v>
@@ -843,13 +843,13 @@
         <v>-1002900</v>
       </c>
       <c r="N9">
-        <v>-9327743000</v>
+        <v>-12736830500</v>
       </c>
       <c r="O9">
         <v>-3504900</v>
       </c>
       <c r="P9">
-        <v>-23857407000</v>
+        <v>-9793485000</v>
       </c>
     </row>
     <row r="10">
@@ -866,25 +866,25 @@
         <v>22300</v>
       </c>
       <c r="E10">
-        <v>38521992000</v>
+        <v>36176040300</v>
       </c>
       <c r="F10">
-        <v>43180367000</v>
+        <v>39850899800</v>
       </c>
       <c r="G10">
-        <v>843143000</v>
+        <v>494192300</v>
       </c>
       <c r="H10">
         <v>4798100</v>
       </c>
       <c r="I10">
-        <v>82545502000</v>
+        <v>76521132400</v>
       </c>
       <c r="J10" t="str">
         <v>2022-12-21T09:24:00.000Z</v>
       </c>
       <c r="K10">
-        <v>572418211000</v>
+        <v>505279117300</v>
       </c>
       <c r="L10">
         <v>35682100</v>
@@ -893,13 +893,13 @@
         <v>-372800</v>
       </c>
       <c r="N10">
-        <v>4658375000</v>
+        <v>3674859500</v>
       </c>
       <c r="O10">
         <v>-3877700</v>
       </c>
       <c r="P10">
-        <v>-19199032000</v>
+        <v>-6118625500</v>
       </c>
     </row>
     <row r="11">
@@ -916,10 +916,10 @@
         <v>16200</v>
       </c>
       <c r="E11">
-        <v>22265146000</v>
+        <v>20992819600</v>
       </c>
       <c r="F11">
-        <v>41566586000</v>
+        <v>36745811600</v>
       </c>
       <c r="G11">
         <v>240836000</v>
@@ -928,13 +928,13 @@
         <v>3572100</v>
       </c>
       <c r="I11">
-        <v>64072568000</v>
+        <v>57979467200</v>
       </c>
       <c r="J11" t="str">
         <v>2022-12-21T09:26:00.000Z</v>
       </c>
       <c r="K11">
-        <v>636490779000</v>
+        <v>563258584500</v>
       </c>
       <c r="L11">
         <v>39254200</v>
@@ -943,13 +943,13 @@
         <v>779500</v>
       </c>
       <c r="N11">
-        <v>19301440000</v>
+        <v>15752992000</v>
       </c>
       <c r="O11">
         <v>-3098200</v>
       </c>
       <c r="P11">
-        <v>102408000</v>
+        <v>9634366500</v>
       </c>
     </row>
     <row r="12">
@@ -966,10 +966,10 @@
         <v>2300</v>
       </c>
       <c r="E12">
-        <v>20741475000</v>
+        <v>19634782800</v>
       </c>
       <c r="F12">
-        <v>19527063000</v>
+        <v>18699591300</v>
       </c>
       <c r="G12">
         <v>57857000</v>
@@ -978,13 +978,13 @@
         <v>2651200</v>
       </c>
       <c r="I12">
-        <v>40326395000</v>
+        <v>38392231100</v>
       </c>
       <c r="J12" t="str">
         <v>2022-12-21T09:28:00.000Z</v>
       </c>
       <c r="K12">
-        <v>676817174000</v>
+        <v>601650815600</v>
       </c>
       <c r="L12">
         <v>41905400</v>
@@ -993,13 +993,13 @@
         <v>-169500</v>
       </c>
       <c r="N12">
-        <v>-1214412000</v>
+        <v>-935191500</v>
       </c>
       <c r="O12">
         <v>-3267700</v>
       </c>
       <c r="P12">
-        <v>-1112004000</v>
+        <v>8699175000</v>
       </c>
     </row>
     <row r="13">
@@ -1016,25 +1016,25 @@
         <v>18200</v>
       </c>
       <c r="E13">
-        <v>25978945000</v>
+        <v>25837486600</v>
       </c>
       <c r="F13">
-        <v>15692173000</v>
+        <v>14345720800</v>
       </c>
       <c r="G13">
-        <v>666802000</v>
+        <v>130239100</v>
       </c>
       <c r="H13">
         <v>2729100</v>
       </c>
       <c r="I13">
-        <v>42337920000</v>
+        <v>40313446500</v>
       </c>
       <c r="J13" t="str">
         <v>2022-12-21T09:30:00.000Z</v>
       </c>
       <c r="K13">
-        <v>719155094000</v>
+        <v>641964262100</v>
       </c>
       <c r="L13">
         <v>44634500</v>
@@ -1043,13 +1043,13 @@
         <v>-690700</v>
       </c>
       <c r="N13">
-        <v>-10286772000</v>
+        <v>-11491765800</v>
       </c>
       <c r="O13">
         <v>-3958400</v>
       </c>
       <c r="P13">
-        <v>-11398776000</v>
+        <v>-2792590800</v>
       </c>
     </row>
     <row r="14">
@@ -1066,10 +1066,10 @@
         <v>14900</v>
       </c>
       <c r="E14">
-        <v>37563807000</v>
+        <v>36680990700</v>
       </c>
       <c r="F14">
-        <v>14841354000</v>
+        <v>14759436000</v>
       </c>
       <c r="G14">
         <v>299448000</v>
@@ -1078,13 +1078,13 @@
         <v>3549200</v>
       </c>
       <c r="I14">
-        <v>52704609000</v>
+        <v>51739874700</v>
       </c>
       <c r="J14" t="str">
         <v>2022-12-21T09:32:00.000Z</v>
       </c>
       <c r="K14">
-        <v>771859703000</v>
+        <v>693704136800</v>
       </c>
       <c r="L14">
         <v>48183700</v>
@@ -1093,13 +1093,13 @@
         <v>-1556500</v>
       </c>
       <c r="N14">
-        <v>-22722453000</v>
+        <v>-21921554700</v>
       </c>
       <c r="O14">
         <v>-5514900</v>
       </c>
       <c r="P14">
-        <v>-34121229000</v>
+        <v>-24714145500</v>
       </c>
     </row>
     <row r="15">
@@ -1116,10 +1116,10 @@
         <v>18300</v>
       </c>
       <c r="E15">
-        <v>67176395000</v>
+        <v>63422652500</v>
       </c>
       <c r="F15">
-        <v>23217680000</v>
+        <v>22838060000</v>
       </c>
       <c r="G15">
         <v>192868000</v>
@@ -1128,13 +1128,13 @@
         <v>5795900</v>
       </c>
       <c r="I15">
-        <v>90586943000</v>
+        <v>86453580500</v>
       </c>
       <c r="J15" t="str">
         <v>2022-12-21T09:34:00.000Z</v>
       </c>
       <c r="K15">
-        <v>862446646000</v>
+        <v>780157717300</v>
       </c>
       <c r="L15">
         <v>53979600</v>
@@ -1143,13 +1143,13 @@
         <v>-2948000</v>
       </c>
       <c r="N15">
-        <v>-43958715000</v>
+        <v>-40584592500</v>
       </c>
       <c r="O15">
         <v>-8462900</v>
       </c>
       <c r="P15">
-        <v>-78079944000</v>
+        <v>-65298738000</v>
       </c>
     </row>
     <row r="16">
@@ -1166,10 +1166,10 @@
         <v>19800</v>
       </c>
       <c r="E16">
-        <v>62730379000</v>
+        <v>52808410900</v>
       </c>
       <c r="F16">
-        <v>11703126000</v>
+        <v>10642987200</v>
       </c>
       <c r="G16">
         <v>299484000</v>
@@ -1178,13 +1178,13 @@
         <v>4827700</v>
       </c>
       <c r="I16">
-        <v>74732989000</v>
+        <v>63750882100</v>
       </c>
       <c r="J16" t="str">
         <v>2022-12-21T09:36:00.000Z</v>
       </c>
       <c r="K16">
-        <v>937179635000</v>
+        <v>843908599400</v>
       </c>
       <c r="L16">
         <v>58807300</v>
@@ -1193,13 +1193,13 @@
         <v>-3198900</v>
       </c>
       <c r="N16">
-        <v>-51027253000</v>
+        <v>-42165423700</v>
       </c>
       <c r="O16">
         <v>-11661800</v>
       </c>
       <c r="P16">
-        <v>-129107197000</v>
+        <v>-107464161700</v>
       </c>
     </row>
     <row r="17">
@@ -1216,25 +1216,25 @@
         <v>73800</v>
       </c>
       <c r="E17">
-        <v>50309335000</v>
+        <v>39075380200</v>
       </c>
       <c r="F17">
-        <v>35836375000</v>
+        <v>35384127700</v>
       </c>
       <c r="G17">
-        <v>1337479000</v>
+        <v>1335680800</v>
       </c>
       <c r="H17">
         <v>4932800</v>
       </c>
       <c r="I17">
-        <v>87483189000</v>
+        <v>75795188700</v>
       </c>
       <c r="J17" t="str">
         <v>2022-12-21T09:38:00.000Z</v>
       </c>
       <c r="K17">
-        <v>1024662824000</v>
+        <v>919703788100</v>
       </c>
       <c r="L17">
         <v>63740100</v>
@@ -1243,13 +1243,13 @@
         <v>-1840200</v>
       </c>
       <c r="N17">
-        <v>-14472960000</v>
+        <v>-3691252500</v>
       </c>
       <c r="O17">
         <v>-13502000</v>
       </c>
       <c r="P17">
-        <v>-143580157000</v>
+        <v>-111155414200</v>
       </c>
     </row>
     <row r="18">
@@ -1266,25 +1266,25 @@
         <v>37100</v>
       </c>
       <c r="E18">
-        <v>29497785000</v>
+        <v>29275407600</v>
       </c>
       <c r="F18">
-        <v>28675999000</v>
+        <v>26861515300</v>
       </c>
       <c r="G18">
-        <v>519869000</v>
+        <v>515673200</v>
       </c>
       <c r="H18">
         <v>3643900</v>
       </c>
       <c r="I18">
-        <v>58693653000</v>
+        <v>56652596100</v>
       </c>
       <c r="J18" t="str">
         <v>2022-12-21T09:40:00.000Z</v>
       </c>
       <c r="K18">
-        <v>1083356477000</v>
+        <v>976356384200</v>
       </c>
       <c r="L18">
         <v>67384000</v>
@@ -1293,13 +1293,13 @@
         <v>-474200</v>
       </c>
       <c r="N18">
-        <v>-821786000</v>
+        <v>-2413892300</v>
       </c>
       <c r="O18">
         <v>-13976200</v>
       </c>
       <c r="P18">
-        <v>-144401943000</v>
+        <v>-113569306500</v>
       </c>
     </row>
     <row r="19">
@@ -1316,10 +1316,10 @@
         <v>11800</v>
       </c>
       <c r="E19">
-        <v>19393362000</v>
+        <v>18341814600</v>
       </c>
       <c r="F19">
-        <v>30131280000</v>
+        <v>27281532600</v>
       </c>
       <c r="G19">
         <v>109825000</v>
@@ -1328,13 +1328,13 @@
         <v>3147300</v>
       </c>
       <c r="I19">
-        <v>49634467000</v>
+        <v>45733172200</v>
       </c>
       <c r="J19" t="str">
         <v>2022-12-21T09:42:00.000Z</v>
       </c>
       <c r="K19">
-        <v>1132990944000</v>
+        <v>1022089556400</v>
       </c>
       <c r="L19">
         <v>70531300</v>
@@ -1343,13 +1343,13 @@
         <v>718700</v>
       </c>
       <c r="N19">
-        <v>10737918000</v>
+        <v>8939718000</v>
       </c>
       <c r="O19">
         <v>-13257500</v>
       </c>
       <c r="P19">
-        <v>-133664025000</v>
+        <v>-104629588500</v>
       </c>
     </row>
     <row r="20">
@@ -1366,10 +1366,10 @@
         <v>10100</v>
       </c>
       <c r="E20">
-        <v>14778929000</v>
+        <v>14136671900</v>
       </c>
       <c r="F20">
-        <v>23097166000</v>
+        <v>22506057700</v>
       </c>
       <c r="G20">
         <v>439550000</v>
@@ -1378,13 +1378,13 @@
         <v>2151900</v>
       </c>
       <c r="I20">
-        <v>38315645000</v>
+        <v>37082279600</v>
       </c>
       <c r="J20" t="str">
         <v>2022-12-21T09:44:00.000Z</v>
       </c>
       <c r="K20">
-        <v>1171306589000</v>
+        <v>1059171836000</v>
       </c>
       <c r="L20">
         <v>72683200</v>
@@ -1393,13 +1393,13 @@
         <v>307800</v>
       </c>
       <c r="N20">
-        <v>8318237000</v>
+        <v>8369385800</v>
       </c>
       <c r="O20">
         <v>-12949700</v>
       </c>
       <c r="P20">
-        <v>-125345788000</v>
+        <v>-96260202700</v>
       </c>
     </row>
     <row r="21">
@@ -1416,10 +1416,10 @@
         <v>13800</v>
       </c>
       <c r="E21">
-        <v>17010797000</v>
+        <v>16554353900</v>
       </c>
       <c r="F21">
-        <v>16169916000</v>
+        <v>15242344500</v>
       </c>
       <c r="G21">
         <v>182499000</v>
@@ -1428,13 +1428,13 @@
         <v>2274500</v>
       </c>
       <c r="I21">
-        <v>33363212000</v>
+        <v>31979197400</v>
       </c>
       <c r="J21" t="str">
         <v>2022-12-21T09:46:00.000Z</v>
       </c>
       <c r="K21">
-        <v>1204669801000</v>
+        <v>1091151033400</v>
       </c>
       <c r="L21">
         <v>74957700</v>
@@ -1443,13 +1443,13 @@
         <v>-95500</v>
       </c>
       <c r="N21">
-        <v>-840881000</v>
+        <v>-1312009400</v>
       </c>
       <c r="O21">
         <v>-13045200</v>
       </c>
       <c r="P21">
-        <v>-126186669000</v>
+        <v>-97572212100</v>
       </c>
     </row>
     <row r="22">
@@ -1466,10 +1466,10 @@
         <v>15000</v>
       </c>
       <c r="E22">
-        <v>14335483000</v>
+        <v>14189928700</v>
       </c>
       <c r="F22">
-        <v>17825123000</v>
+        <v>17227421300</v>
       </c>
       <c r="G22">
         <v>186517000</v>
@@ -1478,13 +1478,13 @@
         <v>1930600</v>
       </c>
       <c r="I22">
-        <v>32347123000</v>
+        <v>31603867000</v>
       </c>
       <c r="J22" t="str">
         <v>2022-12-21T09:48:00.000Z</v>
       </c>
       <c r="K22">
-        <v>1237016924000</v>
+        <v>1122754900400</v>
       </c>
       <c r="L22">
         <v>76888300</v>
@@ -1493,13 +1493,13 @@
         <v>-25600</v>
       </c>
       <c r="N22">
-        <v>3489640000</v>
+        <v>3037492600</v>
       </c>
       <c r="O22">
         <v>-13070800</v>
       </c>
       <c r="P22">
-        <v>-122697029000</v>
+        <v>-94534719500</v>
       </c>
     </row>
     <row r="23">
@@ -1516,10 +1516,10 @@
         <v>35300</v>
       </c>
       <c r="E23">
-        <v>15641184000</v>
+        <v>15618806400</v>
       </c>
       <c r="F23">
-        <v>13869813000</v>
+        <v>13496386800</v>
       </c>
       <c r="G23">
         <v>170074000</v>
@@ -1528,13 +1528,13 @@
         <v>1818800</v>
       </c>
       <c r="I23">
-        <v>29681071000</v>
+        <v>29285267200</v>
       </c>
       <c r="J23" t="str">
         <v>2022-12-21T09:50:00.000Z</v>
       </c>
       <c r="K23">
-        <v>1266697995000</v>
+        <v>1152040167600</v>
       </c>
       <c r="L23">
         <v>78707100</v>
@@ -1543,13 +1543,13 @@
         <v>-274300</v>
       </c>
       <c r="N23">
-        <v>-1771371000</v>
+        <v>-2122419600</v>
       </c>
       <c r="O23">
         <v>-13345100</v>
       </c>
       <c r="P23">
-        <v>-124468400000</v>
+        <v>-96657139100</v>
       </c>
     </row>
     <row r="24">
@@ -1566,25 +1566,25 @@
         <v>8900</v>
       </c>
       <c r="E24">
-        <v>9582540000</v>
+        <v>9539882700</v>
       </c>
       <c r="F24">
-        <v>16955275000</v>
+        <v>16366364500</v>
       </c>
       <c r="G24">
-        <v>187961000</v>
+        <v>185463500</v>
       </c>
       <c r="H24">
         <v>1645400</v>
       </c>
       <c r="I24">
-        <v>26725776000</v>
+        <v>26091710700</v>
       </c>
       <c r="J24" t="str">
         <v>2022-12-21T09:52:00.000Z</v>
       </c>
       <c r="K24">
-        <v>1293423771000</v>
+        <v>1178131878300</v>
       </c>
       <c r="L24">
         <v>80352500</v>
@@ -1593,13 +1593,13 @@
         <v>576900</v>
       </c>
       <c r="N24">
-        <v>7372735000</v>
+        <v>6826481800</v>
       </c>
       <c r="O24">
         <v>-12768200</v>
       </c>
       <c r="P24">
-        <v>-117095665000</v>
+        <v>-89830657300</v>
       </c>
     </row>
     <row r="25">
@@ -1616,10 +1616,10 @@
         <v>15600</v>
       </c>
       <c r="E25">
-        <v>11209080000</v>
+        <v>11108380800</v>
       </c>
       <c r="F25">
-        <v>25966599000</v>
+        <v>24731735100</v>
       </c>
       <c r="G25">
         <v>274140000</v>
@@ -1628,13 +1628,13 @@
         <v>2282700</v>
       </c>
       <c r="I25">
-        <v>37449819000</v>
+        <v>36114255900</v>
       </c>
       <c r="J25" t="str">
         <v>2022-12-21T09:54:00.000Z</v>
       </c>
       <c r="K25">
-        <v>1330873590000</v>
+        <v>1214246134200</v>
       </c>
       <c r="L25">
         <v>82635200</v>
@@ -1643,13 +1643,13 @@
         <v>944300</v>
       </c>
       <c r="N25">
-        <v>14757519000</v>
+        <v>13623354300</v>
       </c>
       <c r="O25">
         <v>-11823900</v>
       </c>
       <c r="P25">
-        <v>-102338146000</v>
+        <v>-76207303000</v>
       </c>
     </row>
     <row r="26">
@@ -1666,10 +1666,10 @@
         <v>200</v>
       </c>
       <c r="E26">
-        <v>11659893000</v>
+        <v>10777875900</v>
       </c>
       <c r="F26">
-        <v>30081421000</v>
+        <v>26652353500</v>
       </c>
       <c r="G26">
         <v>5070000</v>
@@ -1678,13 +1678,13 @@
         <v>2635500</v>
       </c>
       <c r="I26">
-        <v>41746384000</v>
+        <v>37435299400</v>
       </c>
       <c r="J26" t="str">
         <v>2022-12-21T09:56:00.000Z</v>
       </c>
       <c r="K26">
-        <v>1372619974000</v>
+        <v>1251681433600</v>
       </c>
       <c r="L26">
         <v>85270700</v>
@@ -1693,13 +1693,13 @@
         <v>1175500</v>
       </c>
       <c r="N26">
-        <v>18421528000</v>
+        <v>15874477600</v>
       </c>
       <c r="O26">
         <v>-10648400</v>
       </c>
       <c r="P26">
-        <v>-83916618000</v>
+        <v>-60332825400</v>
       </c>
     </row>
     <row r="27">
@@ -1716,10 +1716,10 @@
         <v>39000</v>
       </c>
       <c r="E27">
-        <v>13679720000</v>
+        <v>13519979900</v>
       </c>
       <c r="F27">
-        <v>17719608000</v>
+        <v>17579947800</v>
       </c>
       <c r="G27">
         <v>767365000</v>
@@ -1728,13 +1728,13 @@
         <v>2178000</v>
       </c>
       <c r="I27">
-        <v>32166693000</v>
+        <v>31867292700</v>
       </c>
       <c r="J27" t="str">
         <v>2022-12-21T09:58:00.000Z</v>
       </c>
       <c r="K27">
-        <v>1404786667000</v>
+        <v>1283548726300</v>
       </c>
       <c r="L27">
         <v>87448700</v>
@@ -1743,13 +1743,13 @@
         <v>197600</v>
       </c>
       <c r="N27">
-        <v>4039888000</v>
+        <v>4059967900</v>
       </c>
       <c r="O27">
         <v>-10450800</v>
       </c>
       <c r="P27">
-        <v>-79876730000</v>
+        <v>-56272857500</v>
       </c>
     </row>
     <row r="28">
@@ -1766,10 +1766,10 @@
         <v>2100</v>
       </c>
       <c r="E28">
-        <v>15919300000</v>
+        <v>15850069300</v>
       </c>
       <c r="F28">
-        <v>17935228000</v>
+        <v>15760105300</v>
       </c>
       <c r="G28">
         <v>39089000</v>
@@ -1778,13 +1778,13 @@
         <v>2339200</v>
       </c>
       <c r="I28">
-        <v>33893617000</v>
+        <v>31649263600</v>
       </c>
       <c r="J28" t="str">
         <v>2022-12-21T10:00:00.000Z</v>
       </c>
       <c r="K28">
-        <v>1438680284000</v>
+        <v>1315197989900</v>
       </c>
       <c r="L28">
         <v>89787900</v>
@@ -1793,13 +1793,13 @@
         <v>192100</v>
       </c>
       <c r="N28">
-        <v>2015928000</v>
+        <v>-89964000</v>
       </c>
       <c r="O28">
         <v>-10258700</v>
       </c>
       <c r="P28">
-        <v>-77860802000</v>
+        <v>-56362821500</v>
       </c>
     </row>
     <row r="29">
@@ -1816,25 +1816,25 @@
         <v>82900</v>
       </c>
       <c r="E29">
-        <v>27841216000</v>
+        <v>27305752000</v>
       </c>
       <c r="F29">
-        <v>10464634000</v>
+        <v>9785014300</v>
       </c>
       <c r="G29">
-        <v>2583491000</v>
+        <v>1075200800</v>
       </c>
       <c r="H29">
         <v>2623600</v>
       </c>
       <c r="I29">
-        <v>40889341000</v>
+        <v>38165967100</v>
       </c>
       <c r="J29" t="str">
         <v>2022-12-21T10:02:00.000Z</v>
       </c>
       <c r="K29">
-        <v>1479569625000</v>
+        <v>1353363957000</v>
       </c>
       <c r="L29">
         <v>92411500</v>
@@ -1843,13 +1843,13 @@
         <v>-1211700</v>
       </c>
       <c r="N29">
-        <v>-17376582000</v>
+        <v>-17520737700</v>
       </c>
       <c r="O29">
         <v>-11470400</v>
       </c>
       <c r="P29">
-        <v>-95237384000</v>
+        <v>-73883559200</v>
       </c>
     </row>
     <row r="30">
@@ -1866,10 +1866,10 @@
         <v>57800</v>
       </c>
       <c r="E30">
-        <v>20979006000</v>
+        <v>20735749500</v>
       </c>
       <c r="F30">
-        <v>5523630000</v>
+        <v>5358795000</v>
       </c>
       <c r="G30">
         <v>965069000</v>
@@ -1878,13 +1878,13 @@
         <v>1912100</v>
       </c>
       <c r="I30">
-        <v>27467705000</v>
+        <v>27059613500</v>
       </c>
       <c r="J30" t="str">
         <v>2022-12-21T10:04:00.000Z</v>
       </c>
       <c r="K30">
-        <v>1507037330000</v>
+        <v>1380423570500</v>
       </c>
       <c r="L30">
         <v>94323600</v>
@@ -1893,13 +1893,13 @@
         <v>-1004100</v>
       </c>
       <c r="N30">
-        <v>-15455376000</v>
+        <v>-15376954500</v>
       </c>
       <c r="O30">
         <v>-12474500</v>
       </c>
       <c r="P30">
-        <v>-110692760000</v>
+        <v>-89260513700</v>
       </c>
     </row>
     <row r="31">
@@ -1916,10 +1916,10 @@
         <v>5200</v>
       </c>
       <c r="E31">
-        <v>35491624000</v>
+        <v>34893123100</v>
       </c>
       <c r="F31">
-        <v>9424240000</v>
+        <v>8943920800</v>
       </c>
       <c r="G31">
         <v>190391000</v>
@@ -1928,13 +1928,13 @@
         <v>2811500</v>
       </c>
       <c r="I31">
-        <v>45106255000</v>
+        <v>44027434900</v>
       </c>
       <c r="J31" t="str">
         <v>2022-12-21T10:06:00.000Z</v>
       </c>
       <c r="K31">
-        <v>1552143585000</v>
+        <v>1424451005400</v>
       </c>
       <c r="L31">
         <v>97135100</v>
@@ -1943,13 +1943,13 @@
         <v>-1689700</v>
       </c>
       <c r="N31">
-        <v>-26067384000</v>
+        <v>-25949202300</v>
       </c>
       <c r="O31">
         <v>-14164200</v>
       </c>
       <c r="P31">
-        <v>-136760144000</v>
+        <v>-115209716000</v>
       </c>
     </row>
     <row r="32">
@@ -1966,10 +1966,10 @@
         <v>3900</v>
       </c>
       <c r="E32">
-        <v>34896584000</v>
+        <v>28896290300</v>
       </c>
       <c r="F32">
-        <v>11042004000</v>
+        <v>9697749600</v>
       </c>
       <c r="G32">
         <v>34929000</v>
@@ -1978,13 +1978,13 @@
         <v>2764700</v>
       </c>
       <c r="I32">
-        <v>45973517000</v>
+        <v>38628968900</v>
       </c>
       <c r="J32" t="str">
         <v>2022-12-21T10:08:00.000Z</v>
       </c>
       <c r="K32">
-        <v>1598117102000</v>
+        <v>1463079974300</v>
       </c>
       <c r="L32">
         <v>99899800</v>
@@ -1993,13 +1993,13 @@
         <v>-1237200</v>
       </c>
       <c r="N32">
-        <v>-23854580000</v>
+        <v>-19198540700</v>
       </c>
       <c r="O32">
         <v>-15401400</v>
       </c>
       <c r="P32">
-        <v>-160614724000</v>
+        <v>-134408256700</v>
       </c>
     </row>
     <row r="33">
@@ -2016,10 +2016,10 @@
         <v>7600</v>
       </c>
       <c r="E33">
-        <v>34264366000</v>
+        <v>32672059900</v>
       </c>
       <c r="F33">
-        <v>8275272000</v>
+        <v>7497051000</v>
       </c>
       <c r="G33">
         <v>258656000</v>
@@ -2028,13 +2028,13 @@
         <v>2790800</v>
       </c>
       <c r="I33">
-        <v>42798294000</v>
+        <v>40427766900</v>
       </c>
       <c r="J33" t="str">
         <v>2022-12-21T10:10:00.000Z</v>
       </c>
       <c r="K33">
-        <v>1640915396000</v>
+        <v>1503507741200</v>
       </c>
       <c r="L33">
         <v>102690600</v>
@@ -2043,13 +2043,13 @@
         <v>-1646600</v>
       </c>
       <c r="N33">
-        <v>-25989094000</v>
+        <v>-25175008900</v>
       </c>
       <c r="O33">
         <v>-17048000</v>
       </c>
       <c r="P33">
-        <v>-186603818000</v>
+        <v>-159583265600</v>
       </c>
     </row>
     <row r="34">
@@ -2066,10 +2066,10 @@
         <v>8800</v>
       </c>
       <c r="E34">
-        <v>21764637000</v>
+        <v>19770932700</v>
       </c>
       <c r="F34">
-        <v>7711123000</v>
+        <v>6687048100</v>
       </c>
       <c r="G34">
         <v>48511000</v>
@@ -2078,13 +2078,13 @@
         <v>1925100</v>
       </c>
       <c r="I34">
-        <v>29524271000</v>
+        <v>26506491800</v>
       </c>
       <c r="J34" t="str">
         <v>2022-12-21T10:12:00.000Z</v>
       </c>
       <c r="K34">
-        <v>1670439667000</v>
+        <v>1530014233000</v>
       </c>
       <c r="L34">
         <v>104615700</v>
@@ -2093,13 +2093,13 @@
         <v>-919900</v>
       </c>
       <c r="N34">
-        <v>-14053514000</v>
+        <v>-13083884600</v>
       </c>
       <c r="O34">
         <v>-17967900</v>
       </c>
       <c r="P34">
-        <v>-200657332000</v>
+        <v>-172667150200</v>
       </c>
     </row>
     <row r="35">
@@ -2116,10 +2116,10 @@
         <v>29400</v>
       </c>
       <c r="E35">
-        <v>31587888000</v>
+        <v>29376201900</v>
       </c>
       <c r="F35">
-        <v>11065088000</v>
+        <v>10092561500</v>
       </c>
       <c r="G35">
         <v>787485000</v>
@@ -2128,13 +2128,13 @@
         <v>2541900</v>
       </c>
       <c r="I35">
-        <v>43440461000</v>
+        <v>40256248400</v>
       </c>
       <c r="J35" t="str">
         <v>2022-12-21T10:14:00.000Z</v>
       </c>
       <c r="K35">
-        <v>1713880128000</v>
+        <v>1570270481400</v>
       </c>
       <c r="L35">
         <v>107157600</v>
@@ -2143,13 +2143,13 @@
         <v>-1229500</v>
       </c>
       <c r="N35">
-        <v>-20522800000</v>
+        <v>-19283640400</v>
       </c>
       <c r="O35">
         <v>-19197400</v>
       </c>
       <c r="P35">
-        <v>-221180132000</v>
+        <v>-191950790600</v>
       </c>
     </row>
     <row r="36">
@@ -2166,10 +2166,10 @@
         <v>8500</v>
       </c>
       <c r="E36">
-        <v>32353661000</v>
+        <v>28228490300</v>
       </c>
       <c r="F36">
-        <v>7820616000</v>
+        <v>6601036800</v>
       </c>
       <c r="G36">
         <v>107694000</v>
@@ -2178,13 +2178,13 @@
         <v>2674400</v>
       </c>
       <c r="I36">
-        <v>40281971000</v>
+        <v>34937221100</v>
       </c>
       <c r="J36" t="str">
         <v>2022-12-21T10:16:00.000Z</v>
       </c>
       <c r="K36">
-        <v>1754162099000</v>
+        <v>1605207702500</v>
       </c>
       <c r="L36">
         <v>109832000</v>
@@ -2193,13 +2193,13 @@
         <v>-1759900</v>
       </c>
       <c r="N36">
-        <v>-24533045000</v>
+        <v>-21627453500</v>
       </c>
       <c r="O36">
         <v>-20957300</v>
       </c>
       <c r="P36">
-        <v>-245713177000</v>
+        <v>-213578244100</v>
       </c>
     </row>
     <row r="37">
@@ -2216,25 +2216,25 @@
         <v>25900</v>
       </c>
       <c r="E37">
-        <v>54046395000</v>
+        <v>47608039800</v>
       </c>
       <c r="F37">
-        <v>12679597000</v>
+        <v>10613964700</v>
       </c>
       <c r="G37">
-        <v>372162000</v>
+        <v>236098200</v>
       </c>
       <c r="H37">
         <v>4067900</v>
       </c>
       <c r="I37">
-        <v>67098154000</v>
+        <v>58458102700</v>
       </c>
       <c r="J37" t="str">
         <v>2022-12-21T10:18:00.000Z</v>
       </c>
       <c r="K37">
-        <v>1821260253000</v>
+        <v>1663665805200</v>
       </c>
       <c r="L37">
         <v>113899900</v>
@@ -2243,13 +2243,13 @@
         <v>-2699200</v>
       </c>
       <c r="N37">
-        <v>-41366798000</v>
+        <v>-36994075100</v>
       </c>
       <c r="O37">
         <v>-23656500</v>
       </c>
       <c r="P37">
-        <v>-287079975000</v>
+        <v>-250572319200</v>
       </c>
     </row>
     <row r="38">
@@ -2266,10 +2266,10 @@
         <v>23200</v>
       </c>
       <c r="E38">
-        <v>28081917000</v>
+        <v>25303398300</v>
       </c>
       <c r="F38">
-        <v>17257409000</v>
+        <v>16528938200</v>
       </c>
       <c r="G38">
         <v>485136000</v>
@@ -2278,13 +2278,13 @@
         <v>3072800</v>
       </c>
       <c r="I38">
-        <v>45824462000</v>
+        <v>42317472500</v>
       </c>
       <c r="J38" t="str">
         <v>2022-12-21T10:20:00.000Z</v>
       </c>
       <c r="K38">
-        <v>1867084715000</v>
+        <v>1705983277700</v>
       </c>
       <c r="L38">
         <v>116972700</v>
@@ -2293,13 +2293,13 @@
         <v>-914200</v>
       </c>
       <c r="N38">
-        <v>-10824508000</v>
+        <v>-8774460100</v>
       </c>
       <c r="O38">
         <v>-24570700</v>
       </c>
       <c r="P38">
-        <v>-297904483000</v>
+        <v>-259346779300</v>
       </c>
     </row>
     <row r="39">
@@ -2316,25 +2316,25 @@
         <v>34600</v>
       </c>
       <c r="E39">
-        <v>23411589000</v>
+        <v>19387816800</v>
       </c>
       <c r="F39">
-        <v>25000772000</v>
+        <v>23204769800</v>
       </c>
       <c r="G39">
-        <v>483012000</v>
+        <v>458436600</v>
       </c>
       <c r="H39">
         <v>3180500</v>
       </c>
       <c r="I39">
-        <v>48895373000</v>
+        <v>43051023200</v>
       </c>
       <c r="J39" t="str">
         <v>2022-12-21T10:22:00.000Z</v>
       </c>
       <c r="K39">
-        <v>1915980088000</v>
+        <v>1749034300900</v>
       </c>
       <c r="L39">
         <v>120153200</v>
@@ -2343,13 +2343,13 @@
         <v>97700</v>
       </c>
       <c r="N39">
-        <v>1589183000</v>
+        <v>3816953000</v>
       </c>
       <c r="O39">
         <v>-24473000</v>
       </c>
       <c r="P39">
-        <v>-296315300000</v>
+        <v>-255529826300</v>
       </c>
     </row>
     <row r="40">
@@ -2366,10 +2366,10 @@
         <v>13700</v>
       </c>
       <c r="E40">
-        <v>13917630000</v>
+        <v>12860887800</v>
       </c>
       <c r="F40">
-        <v>14571348000</v>
+        <v>12633088200</v>
       </c>
       <c r="G40">
         <v>205298000</v>
@@ -2378,13 +2378,13 @@
         <v>1986100</v>
       </c>
       <c r="I40">
-        <v>28694276000</v>
+        <v>25699274000</v>
       </c>
       <c r="J40" t="str">
         <v>2022-12-21T10:24:00.000Z</v>
       </c>
       <c r="K40">
-        <v>1944674364000</v>
+        <v>1774733574900</v>
       </c>
       <c r="L40">
         <v>122139300</v>
@@ -2393,13 +2393,13 @@
         <v>46600</v>
       </c>
       <c r="N40">
-        <v>653718000</v>
+        <v>-227799600</v>
       </c>
       <c r="O40">
         <v>-24426400</v>
       </c>
       <c r="P40">
-        <v>-295661582000</v>
+        <v>-255757625900</v>
       </c>
     </row>
     <row r="41">
@@ -2416,10 +2416,10 @@
         <v>22900</v>
       </c>
       <c r="E41">
-        <v>17854239000</v>
+        <v>17187106800</v>
       </c>
       <c r="F41">
-        <v>11688495000</v>
+        <v>8410576200</v>
       </c>
       <c r="G41">
         <v>717545000</v>
@@ -2428,13 +2428,13 @@
         <v>2090800</v>
       </c>
       <c r="I41">
-        <v>30260279000</v>
+        <v>26315228000</v>
       </c>
       <c r="J41" t="str">
         <v>2022-12-21T10:26:00.000Z</v>
       </c>
       <c r="K41">
-        <v>1974934643000</v>
+        <v>1801048802900</v>
       </c>
       <c r="L41">
         <v>124230100</v>
@@ -2443,13 +2443,13 @@
         <v>-513700</v>
       </c>
       <c r="N41">
-        <v>-6165744000</v>
+        <v>-8776530600</v>
       </c>
       <c r="O41">
         <v>-24940100</v>
       </c>
       <c r="P41">
-        <v>-301827326000</v>
+        <v>-264534156500</v>
       </c>
     </row>
     <row r="42">
@@ -2466,10 +2466,10 @@
         <v>300</v>
       </c>
       <c r="E42">
-        <v>20083634000</v>
+        <v>16744676300</v>
       </c>
       <c r="F42">
-        <v>6440506000</v>
+        <v>6151395400</v>
       </c>
       <c r="G42">
         <v>4035000</v>
@@ -2478,13 +2478,13 @@
         <v>1699000</v>
       </c>
       <c r="I42">
-        <v>26528175000</v>
+        <v>22900106700</v>
       </c>
       <c r="J42" t="str">
         <v>2022-12-21T10:28:00.000Z</v>
       </c>
       <c r="K42">
-        <v>2001462818000</v>
+        <v>1823948909600</v>
       </c>
       <c r="L42">
         <v>125929100</v>
@@ -2493,13 +2493,13 @@
         <v>-880100</v>
       </c>
       <c r="N42">
-        <v>-13643128000</v>
+        <v>-10593280900</v>
       </c>
       <c r="O42">
         <v>-25820200</v>
       </c>
       <c r="P42">
-        <v>-315470454000</v>
+        <v>-275127437400</v>
       </c>
     </row>
     <row r="43">
@@ -2516,10 +2516,10 @@
         <v>19100</v>
       </c>
       <c r="E43">
-        <v>18007588000</v>
+        <v>15105093400</v>
       </c>
       <c r="F43">
-        <v>11640328000</v>
+        <v>10542127300</v>
       </c>
       <c r="G43">
         <v>161700000</v>
@@ -2528,13 +2528,13 @@
         <v>1864600</v>
       </c>
       <c r="I43">
-        <v>29809616000</v>
+        <v>25808920700</v>
       </c>
       <c r="J43" t="str">
         <v>2022-12-21T10:30:00.000Z</v>
       </c>
       <c r="K43">
-        <v>2031272434000</v>
+        <v>1849757830300</v>
       </c>
       <c r="L43">
         <v>127793700</v>
@@ -2543,13 +2543,13 @@
         <v>-375700</v>
       </c>
       <c r="N43">
-        <v>-6367260000</v>
+        <v>-4562966100</v>
       </c>
       <c r="O43">
         <v>-26195900</v>
       </c>
       <c r="P43">
-        <v>-321837714000</v>
+        <v>-279690403500</v>
       </c>
     </row>
     <row r="44">
@@ -2566,10 +2566,10 @@
         <v>4600</v>
       </c>
       <c r="E44">
-        <v>13049146000</v>
+        <v>12329466400</v>
       </c>
       <c r="F44">
-        <v>17143291000</v>
+        <v>14967069400</v>
       </c>
       <c r="G44">
         <v>65175000</v>
@@ -2578,13 +2578,13 @@
         <v>1936600</v>
       </c>
       <c r="I44">
-        <v>30257612000</v>
+        <v>27361710800</v>
       </c>
       <c r="J44" t="str">
         <v>2022-12-21T10:32:00.000Z</v>
       </c>
       <c r="K44">
-        <v>2061530046000</v>
+        <v>1877119541100</v>
       </c>
       <c r="L44">
         <v>129730300</v>
@@ -2593,13 +2593,13 @@
         <v>138600</v>
       </c>
       <c r="N44">
-        <v>4094145000</v>
+        <v>2637603000</v>
       </c>
       <c r="O44">
         <v>-26057300</v>
       </c>
       <c r="P44">
-        <v>-317743569000</v>
+        <v>-277052800500</v>
       </c>
     </row>
     <row r="45">
@@ -2616,10 +2616,10 @@
         <v>2700</v>
       </c>
       <c r="E45">
-        <v>8437792000</v>
+        <v>7779251200</v>
       </c>
       <c r="F45">
-        <v>15929564000</v>
+        <v>15340253900</v>
       </c>
       <c r="G45">
         <v>58475000</v>
@@ -2628,13 +2628,13 @@
         <v>1504500</v>
       </c>
       <c r="I45">
-        <v>24425831000</v>
+        <v>23177980100</v>
       </c>
       <c r="J45" t="str">
         <v>2022-12-21T10:34:00.000Z</v>
       </c>
       <c r="K45">
-        <v>2085955877000</v>
+        <v>1900297521200</v>
       </c>
       <c r="L45">
         <v>131234800</v>
@@ -2643,13 +2643,13 @@
         <v>432000</v>
       </c>
       <c r="N45">
-        <v>7491772000</v>
+        <v>7561002700</v>
       </c>
       <c r="O45">
         <v>-25625300</v>
       </c>
       <c r="P45">
-        <v>-310251797000</v>
+        <v>-269491797800</v>
       </c>
     </row>
     <row r="46">
@@ -2666,25 +2666,25 @@
         <v>3000</v>
       </c>
       <c r="E46">
-        <v>16504484000</v>
+        <v>16290098600</v>
       </c>
       <c r="F46">
-        <v>27695312000</v>
+        <v>25207702100</v>
       </c>
       <c r="G46">
-        <v>117570000</v>
+        <v>70617000</v>
       </c>
       <c r="H46">
         <v>2587200</v>
       </c>
       <c r="I46">
-        <v>44317366000</v>
+        <v>41568417700</v>
       </c>
       <c r="J46" t="str">
         <v>2022-12-21T10:36:00.000Z</v>
       </c>
       <c r="K46">
-        <v>2130273243000</v>
+        <v>1941865938900</v>
       </c>
       <c r="L46">
         <v>133822000</v>
@@ -2693,13 +2693,13 @@
         <v>463200</v>
       </c>
       <c r="N46">
-        <v>11190828000</v>
+        <v>8917603500</v>
       </c>
       <c r="O46">
         <v>-25162100</v>
       </c>
       <c r="P46">
-        <v>-299060969000</v>
+        <v>-260574194300</v>
       </c>
     </row>
     <row r="47">
@@ -2716,25 +2716,25 @@
         <v>10900</v>
       </c>
       <c r="E47">
-        <v>25172543000</v>
+        <v>24723492500</v>
       </c>
       <c r="F47">
-        <v>22670346000</v>
+        <v>21480836700</v>
       </c>
       <c r="G47">
-        <v>45396000</v>
+        <v>20820600</v>
       </c>
       <c r="H47">
         <v>3125600</v>
       </c>
       <c r="I47">
-        <v>47888285000</v>
+        <v>46225149800</v>
       </c>
       <c r="J47" t="str">
         <v>2022-12-21T10:38:00.000Z</v>
       </c>
       <c r="K47">
-        <v>2178161528000</v>
+        <v>1988091088700</v>
       </c>
       <c r="L47">
         <v>136947600</v>
@@ -2743,13 +2743,13 @@
         <v>-266100</v>
       </c>
       <c r="N47">
-        <v>-2502197000</v>
+        <v>-3242655800</v>
       </c>
       <c r="O47">
         <v>-25428200</v>
       </c>
       <c r="P47">
-        <v>-301563166000</v>
+        <v>-263816850100</v>
       </c>
     </row>
     <row r="48">
@@ -2766,10 +2766,10 @@
         <v>55500</v>
       </c>
       <c r="E48">
-        <v>12625191000</v>
+        <v>12440775600</v>
       </c>
       <c r="F48">
-        <v>24743055000</v>
+        <v>23911787100</v>
       </c>
       <c r="G48">
         <v>864128000</v>
@@ -2778,13 +2778,13 @@
         <v>2300700</v>
       </c>
       <c r="I48">
-        <v>38232374000</v>
+        <v>37216690700</v>
       </c>
       <c r="J48" t="str">
         <v>2022-12-21T10:40:00.000Z</v>
       </c>
       <c r="K48">
-        <v>2216393902000</v>
+        <v>2025307779400</v>
       </c>
       <c r="L48">
         <v>139248300</v>
@@ -2793,13 +2793,13 @@
         <v>690200</v>
       </c>
       <c r="N48">
-        <v>12117864000</v>
+        <v>11471011500</v>
       </c>
       <c r="O48">
         <v>-24738000</v>
       </c>
       <c r="P48">
-        <v>-289445302000</v>
+        <v>-252345838600</v>
       </c>
     </row>
     <row r="49">
@@ -2816,10 +2816,10 @@
         <v>24000</v>
       </c>
       <c r="E49">
-        <v>8739496000</v>
+        <v>8428807000</v>
       </c>
       <c r="F49">
-        <v>36088139000</v>
+        <v>35917909400</v>
       </c>
       <c r="G49">
         <v>453278000</v>
@@ -2828,13 +2828,13 @@
         <v>2761900</v>
       </c>
       <c r="I49">
-        <v>45280913000</v>
+        <v>44799994400</v>
       </c>
       <c r="J49" t="str">
         <v>2022-12-21T10:42:00.000Z</v>
       </c>
       <c r="K49">
-        <v>2261674815000</v>
+        <v>2070107773800</v>
       </c>
       <c r="L49">
         <v>142010200</v>
@@ -2843,13 +2843,13 @@
         <v>1453100</v>
       </c>
       <c r="N49">
-        <v>27348643000</v>
+        <v>27489102400</v>
       </c>
       <c r="O49">
         <v>-23284900</v>
       </c>
       <c r="P49">
-        <v>-262096659000</v>
+        <v>-224856736200</v>
       </c>
     </row>
     <row r="50">
@@ -2866,25 +2866,25 @@
         <v>18000</v>
       </c>
       <c r="E50">
-        <v>11805580000</v>
+        <v>11674611100</v>
       </c>
       <c r="F50">
-        <v>61920493000</v>
+        <v>59809106500</v>
       </c>
       <c r="G50">
-        <v>389086000</v>
+        <v>388286800</v>
       </c>
       <c r="H50">
         <v>4160400</v>
       </c>
       <c r="I50">
-        <v>74115159000</v>
+        <v>71872004400</v>
       </c>
       <c r="J50" t="str">
         <v>2022-12-21T10:44:00.000Z</v>
       </c>
       <c r="K50">
-        <v>2335789974000</v>
+        <v>2141979778200</v>
       </c>
       <c r="L50">
         <v>146170600</v>
@@ -2893,13 +2893,13 @@
         <v>2545800</v>
       </c>
       <c r="N50">
-        <v>50114913000</v>
+        <v>48134495400</v>
       </c>
       <c r="O50">
         <v>-20739100</v>
       </c>
       <c r="P50">
-        <v>-211981746000</v>
+        <v>-176722240800</v>
       </c>
     </row>
     <row r="51">
@@ -2916,25 +2916,25 @@
         <v>39600</v>
       </c>
       <c r="E51">
-        <v>12882702000</v>
+        <v>12850334400</v>
       </c>
       <c r="F51">
-        <v>40382477000</v>
+        <v>38447214200</v>
       </c>
       <c r="G51">
-        <v>844313000</v>
+        <v>841316000</v>
       </c>
       <c r="H51">
         <v>3065200</v>
       </c>
       <c r="I51">
-        <v>54109492000</v>
+        <v>52138864600</v>
       </c>
       <c r="J51" t="str">
         <v>2022-12-21T10:46:00.000Z</v>
       </c>
       <c r="K51">
-        <v>2389899466000</v>
+        <v>2194118642800</v>
       </c>
       <c r="L51">
         <v>149235800</v>
@@ -2943,13 +2943,13 @@
         <v>1347600</v>
       </c>
       <c r="N51">
-        <v>27499775000</v>
+        <v>25596879800</v>
       </c>
       <c r="O51">
         <v>-19391500</v>
       </c>
       <c r="P51">
-        <v>-184481971000</v>
+        <v>-151125361000</v>
       </c>
     </row>
     <row r="52">
@@ -2966,25 +2966,25 @@
         <v>62000</v>
       </c>
       <c r="E52">
-        <v>23833627000</v>
+        <v>23453907100</v>
       </c>
       <c r="F52">
-        <v>30333036000</v>
+        <v>29514954900</v>
       </c>
       <c r="G52">
-        <v>972764000</v>
+        <v>949787000</v>
       </c>
       <c r="H52">
         <v>3087800</v>
       </c>
       <c r="I52">
-        <v>55139427000</v>
+        <v>53918649000</v>
       </c>
       <c r="J52" t="str">
         <v>2022-12-21T10:48:00.000Z</v>
       </c>
       <c r="K52">
-        <v>2445038893000</v>
+        <v>2248037291800</v>
       </c>
       <c r="L52">
         <v>152323600</v>
@@ -2993,13 +2993,13 @@
         <v>370400</v>
       </c>
       <c r="N52">
-        <v>6499409000</v>
+        <v>6061047800</v>
       </c>
       <c r="O52">
         <v>-19021100</v>
       </c>
       <c r="P52">
-        <v>-177982562000</v>
+        <v>-145064313200</v>
       </c>
     </row>
     <row r="53">
@@ -3016,25 +3016,25 @@
         <v>40300</v>
       </c>
       <c r="E53">
-        <v>28241319000</v>
+        <v>26926035600</v>
       </c>
       <c r="F53">
-        <v>9521910000</v>
+        <v>8956575900</v>
       </c>
       <c r="G53">
-        <v>1386842000</v>
+        <v>427802000</v>
       </c>
       <c r="H53">
         <v>2185900</v>
       </c>
       <c r="I53">
-        <v>39150071000</v>
+        <v>36310413500</v>
       </c>
       <c r="J53" t="str">
         <v>2022-12-21T10:50:00.000Z</v>
       </c>
       <c r="K53">
-        <v>2484188964000</v>
+        <v>2284347705300</v>
       </c>
       <c r="L53">
         <v>154509500</v>
@@ -3043,13 +3043,13 @@
         <v>-1062800</v>
       </c>
       <c r="N53">
-        <v>-18719409000</v>
+        <v>-17969459700</v>
       </c>
       <c r="O53">
         <v>-20083900</v>
       </c>
       <c r="P53">
-        <v>-196701971000</v>
+        <v>-163033772900</v>
       </c>
     </row>
     <row r="54">
@@ -3066,25 +3066,25 @@
         <v>6500</v>
       </c>
       <c r="E54">
-        <v>23396192000</v>
+        <v>22525463600</v>
       </c>
       <c r="F54">
-        <v>6717013000</v>
+        <v>5864366500</v>
       </c>
       <c r="G54">
-        <v>73708000</v>
+        <v>56725000</v>
       </c>
       <c r="H54">
         <v>1882700</v>
       </c>
       <c r="I54">
-        <v>30186913000</v>
+        <v>28446555100</v>
       </c>
       <c r="J54" t="str">
         <v>2022-12-21T10:52:00.000Z</v>
       </c>
       <c r="K54">
-        <v>2514375877000</v>
+        <v>2312794260400</v>
       </c>
       <c r="L54">
         <v>156392200</v>
@@ -3093,13 +3093,13 @@
         <v>-1075000</v>
       </c>
       <c r="N54">
-        <v>-16679179000</v>
+        <v>-16661097100</v>
       </c>
       <c r="O54">
         <v>-21158900</v>
       </c>
       <c r="P54">
-        <v>-213381150000</v>
+        <v>-179694870000</v>
       </c>
     </row>
     <row r="55">
@@ -3116,10 +3116,10 @@
         <v>8700</v>
       </c>
       <c r="E55">
-        <v>14085815000</v>
+        <v>13922978000</v>
       </c>
       <c r="F55">
-        <v>8414046000</v>
+        <v>7003557900</v>
       </c>
       <c r="G55">
         <v>154745000</v>
@@ -3128,13 +3128,13 @@
         <v>1408100</v>
       </c>
       <c r="I55">
-        <v>22654606000</v>
+        <v>21081280900</v>
       </c>
       <c r="J55" t="str">
         <v>2022-12-21T10:54:00.000Z</v>
       </c>
       <c r="K55">
-        <v>2537030483000</v>
+        <v>2333875541300</v>
       </c>
       <c r="L55">
         <v>157800300</v>
@@ -3143,13 +3143,13 @@
         <v>-416000</v>
       </c>
       <c r="N55">
-        <v>-5671769000</v>
+        <v>-6919420100</v>
       </c>
       <c r="O55">
         <v>-21574900</v>
       </c>
       <c r="P55">
-        <v>-219052919000</v>
+        <v>-186614290100</v>
       </c>
     </row>
     <row r="56">
@@ -3166,10 +3166,10 @@
         <v>11200</v>
       </c>
       <c r="E56">
-        <v>16044871000</v>
+        <v>14993023900</v>
       </c>
       <c r="F56">
-        <v>10604396000</v>
+        <v>9112189700</v>
       </c>
       <c r="G56">
         <v>133794000</v>
@@ -3178,13 +3178,13 @@
         <v>1530900</v>
       </c>
       <c r="I56">
-        <v>26783061000</v>
+        <v>24239007600</v>
       </c>
       <c r="J56" t="str">
         <v>2022-12-21T10:56:00.000Z</v>
       </c>
       <c r="K56">
-        <v>2563813544000</v>
+        <v>2358114548900</v>
       </c>
       <c r="L56">
         <v>159331200</v>
@@ -3193,13 +3193,13 @@
         <v>-588900</v>
       </c>
       <c r="N56">
-        <v>-5440475000</v>
+        <v>-5880834200</v>
       </c>
       <c r="O56">
         <v>-22163800</v>
       </c>
       <c r="P56">
-        <v>-224493394000</v>
+        <v>-192495124300</v>
       </c>
     </row>
     <row r="57">
@@ -3216,10 +3216,10 @@
         <v>4500</v>
       </c>
       <c r="E57">
-        <v>7128152000</v>
+        <v>6372508400</v>
       </c>
       <c r="F57">
-        <v>13216181000</v>
+        <v>10118981300</v>
       </c>
       <c r="G57">
         <v>47021000</v>
@@ -3228,13 +3228,13 @@
         <v>1129900</v>
       </c>
       <c r="I57">
-        <v>20391354000</v>
+        <v>16538510700</v>
       </c>
       <c r="J57" t="str">
         <v>2022-12-21T10:58:00.000Z</v>
       </c>
       <c r="K57">
-        <v>2584204898000</v>
+        <v>2374653059600</v>
       </c>
       <c r="L57">
         <v>160461100</v>
@@ -3243,13 +3243,13 @@
         <v>210200</v>
       </c>
       <c r="N57">
-        <v>6088029000</v>
+        <v>3746472900</v>
       </c>
       <c r="O57">
         <v>-21953600</v>
       </c>
       <c r="P57">
-        <v>-218405365000</v>
+        <v>-188748651400</v>
       </c>
     </row>
     <row r="58">
@@ -3266,10 +3266,10 @@
         <v>5300</v>
       </c>
       <c r="E58">
-        <v>9956826000</v>
+        <v>9617965200</v>
       </c>
       <c r="F58">
-        <v>9243403000</v>
+        <v>8948897800</v>
       </c>
       <c r="G58">
         <v>78870000</v>
@@ -3278,13 +3278,13 @@
         <v>1103500</v>
       </c>
       <c r="I58">
-        <v>19279099000</v>
+        <v>18645733000</v>
       </c>
       <c r="J58" t="str">
         <v>2022-12-21T11:00:00.000Z</v>
       </c>
       <c r="K58">
-        <v>2603483997000</v>
+        <v>2393298792600</v>
       </c>
       <c r="L58">
         <v>161564600</v>
@@ -3293,13 +3293,13 @@
         <v>-196000</v>
       </c>
       <c r="N58">
-        <v>-713423000</v>
+        <v>-669067400</v>
       </c>
       <c r="O58">
         <v>-22149600</v>
       </c>
       <c r="P58">
-        <v>-219118788000</v>
+        <v>-189417718800</v>
       </c>
     </row>
     <row r="59">
@@ -3316,25 +3316,25 @@
         <v>14600</v>
       </c>
       <c r="E59">
-        <v>8910834000</v>
+        <v>8476768500</v>
       </c>
       <c r="F59">
-        <v>14816529000</v>
+        <v>14739006600</v>
       </c>
       <c r="G59">
-        <v>298395000</v>
+        <v>193500000</v>
       </c>
       <c r="H59">
         <v>1261000</v>
       </c>
       <c r="I59">
-        <v>24025758000</v>
+        <v>23409275100</v>
       </c>
       <c r="J59" t="str">
         <v>2022-12-21T11:02:00.000Z</v>
       </c>
       <c r="K59">
-        <v>2627509755000</v>
+        <v>2416708067700</v>
       </c>
       <c r="L59">
         <v>162825600</v>
@@ -3343,13 +3343,13 @@
         <v>184200</v>
       </c>
       <c r="N59">
-        <v>5905695000</v>
+        <v>6262238100</v>
       </c>
       <c r="O59">
         <v>-21965400</v>
       </c>
       <c r="P59">
-        <v>-213213093000</v>
+        <v>-183155480700</v>
       </c>
     </row>
     <row r="60">
@@ -3366,10 +3366,10 @@
         <v>1400</v>
       </c>
       <c r="E60">
-        <v>5908627000</v>
+        <v>5785250500</v>
       </c>
       <c r="F60">
-        <v>22720168000</v>
+        <v>19065726100</v>
       </c>
       <c r="G60">
         <v>107660000.00000001</v>
@@ -3378,13 +3378,13 @@
         <v>1431500</v>
       </c>
       <c r="I60">
-        <v>28736455000</v>
+        <v>24958636600</v>
       </c>
       <c r="J60" t="str">
         <v>2022-12-21T11:04:00.000Z</v>
       </c>
       <c r="K60">
-        <v>2656246210000</v>
+        <v>2441666704300</v>
       </c>
       <c r="L60">
         <v>164257100</v>
@@ -3393,13 +3393,13 @@
         <v>688700</v>
       </c>
       <c r="N60">
-        <v>16811541000</v>
+        <v>13280475600</v>
       </c>
       <c r="O60">
         <v>-21276700</v>
       </c>
       <c r="P60">
-        <v>-196401552000</v>
+        <v>-169875005100</v>
       </c>
     </row>
     <row r="61">
@@ -3416,10 +3416,10 @@
         <v>4500</v>
       </c>
       <c r="E61">
-        <v>11410972000</v>
+        <v>11115967300</v>
       </c>
       <c r="F61">
-        <v>19988513000</v>
+        <v>18967135400</v>
       </c>
       <c r="G61">
         <v>161636000</v>
@@ -3428,13 +3428,13 @@
         <v>1847000</v>
       </c>
       <c r="I61">
-        <v>31561121000</v>
+        <v>30244738700</v>
       </c>
       <c r="J61" t="str">
         <v>2022-12-21T11:06:00.000Z</v>
       </c>
       <c r="K61">
-        <v>2687807331000</v>
+        <v>2471911443000</v>
       </c>
       <c r="L61">
         <v>166104100</v>
@@ -3443,13 +3443,13 @@
         <v>445900</v>
       </c>
       <c r="N61">
-        <v>8577541000</v>
+        <v>7851168100</v>
       </c>
       <c r="O61">
         <v>-20830800</v>
       </c>
       <c r="P61">
-        <v>-187824011000</v>
+        <v>-162023837000</v>
       </c>
     </row>
     <row r="62">
@@ -3466,10 +3466,10 @@
         <v>59200</v>
       </c>
       <c r="E62">
-        <v>11803048000</v>
+        <v>11252798800</v>
       </c>
       <c r="F62">
-        <v>18455738000</v>
+        <v>17007188000</v>
       </c>
       <c r="G62">
         <v>1057980000</v>
@@ -3478,13 +3478,13 @@
         <v>1999000</v>
       </c>
       <c r="I62">
-        <v>31316766000</v>
+        <v>29317966800</v>
       </c>
       <c r="J62" t="str">
         <v>2022-12-21T11:08:00.000Z</v>
       </c>
       <c r="K62">
-        <v>2719124097000</v>
+        <v>2501229409800</v>
       </c>
       <c r="L62">
         <v>168103100</v>
@@ -3493,13 +3493,13 @@
         <v>304600</v>
       </c>
       <c r="N62">
-        <v>6652690000</v>
+        <v>5754389200</v>
       </c>
       <c r="O62">
         <v>-20526200</v>
       </c>
       <c r="P62">
-        <v>-181171321000</v>
+        <v>-156269447800</v>
       </c>
     </row>
     <row r="63">
@@ -3516,10 +3516,10 @@
         <v>2200</v>
       </c>
       <c r="E63">
-        <v>12013576000</v>
+        <v>11497192900</v>
       </c>
       <c r="F63">
-        <v>15483443000</v>
+        <v>14037190700</v>
       </c>
       <c r="G63">
         <v>91718000</v>
@@ -3528,13 +3528,13 @@
         <v>1502000</v>
       </c>
       <c r="I63">
-        <v>27588737000</v>
+        <v>25626101600</v>
       </c>
       <c r="J63" t="str">
         <v>2022-12-21T11:10:00.000Z</v>
       </c>
       <c r="K63">
-        <v>2746712834000</v>
+        <v>2526855511400</v>
       </c>
       <c r="L63">
         <v>169605100</v>
@@ -3543,13 +3543,13 @@
         <v>282000</v>
       </c>
       <c r="N63">
-        <v>3469867000</v>
+        <v>2539997800</v>
       </c>
       <c r="O63">
         <v>-20244200</v>
       </c>
       <c r="P63">
-        <v>-177701454000</v>
+        <v>-153729450000</v>
       </c>
     </row>
     <row r="64">
@@ -3566,10 +3566,10 @@
         <v>7800</v>
       </c>
       <c r="E64">
-        <v>16237735000</v>
+        <v>15190683100</v>
       </c>
       <c r="F64">
-        <v>13104800000</v>
+        <v>12453152300</v>
       </c>
       <c r="G64">
         <v>333130000</v>
@@ -3578,13 +3578,13 @@
         <v>1582000</v>
       </c>
       <c r="I64">
-        <v>29675665000</v>
+        <v>27976965400</v>
       </c>
       <c r="J64" t="str">
         <v>2022-12-21T11:12:00.000Z</v>
       </c>
       <c r="K64">
-        <v>2776388499000</v>
+        <v>2554832476800</v>
       </c>
       <c r="L64">
         <v>171187100</v>
@@ -3593,13 +3593,13 @@
         <v>-121600</v>
       </c>
       <c r="N64">
-        <v>-3132935000</v>
+        <v>-2737530800</v>
       </c>
       <c r="O64">
         <v>-20365800</v>
       </c>
       <c r="P64">
-        <v>-180834389000</v>
+        <v>-156466980800</v>
       </c>
     </row>
     <row r="65">
@@ -3616,25 +3616,25 @@
         <v>12300</v>
       </c>
       <c r="E65">
-        <v>26095139000</v>
+        <v>23536600100</v>
       </c>
       <c r="F65">
-        <v>15676339000</v>
+        <v>13390427200</v>
       </c>
       <c r="G65">
-        <v>149225000</v>
+        <v>133340900</v>
       </c>
       <c r="H65">
         <v>2101200</v>
       </c>
       <c r="I65">
-        <v>41920703000</v>
+        <v>37060368200</v>
       </c>
       <c r="J65" t="str">
         <v>2022-12-21T11:14:00.000Z</v>
       </c>
       <c r="K65">
-        <v>2818309202000</v>
+        <v>2591892845000</v>
       </c>
       <c r="L65">
         <v>173288300</v>
@@ -3643,13 +3643,13 @@
         <v>-595900</v>
       </c>
       <c r="N65">
-        <v>-10418800000</v>
+        <v>-10146172900</v>
       </c>
       <c r="O65">
         <v>-20961700</v>
       </c>
       <c r="P65">
-        <v>-191253189000</v>
+        <v>-166613153700</v>
       </c>
     </row>
     <row r="66">
@@ -3666,10 +3666,10 @@
         <v>0</v>
       </c>
       <c r="E66">
-        <v>14142038000</v>
+        <v>11712569900</v>
       </c>
       <c r="F66">
-        <v>11570019000</v>
+        <v>11025064500</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -3678,13 +3678,13 @@
         <v>1426100</v>
       </c>
       <c r="I66">
-        <v>25712057000</v>
+        <v>22737634400</v>
       </c>
       <c r="J66" t="str">
         <v>2022-12-21T11:16:00.000Z</v>
       </c>
       <c r="K66">
-        <v>2844021259000</v>
+        <v>2614630479400</v>
       </c>
       <c r="L66">
         <v>174714400</v>
@@ -3693,13 +3693,13 @@
         <v>-173500</v>
       </c>
       <c r="N66">
-        <v>-2572019000</v>
+        <v>-687505400</v>
       </c>
       <c r="O66">
         <v>-21135200</v>
       </c>
       <c r="P66">
-        <v>-193825208000</v>
+        <v>-167300659100</v>
       </c>
     </row>
     <row r="67">
@@ -3716,10 +3716,10 @@
         <v>200</v>
       </c>
       <c r="E67">
-        <v>10394416000</v>
+        <v>10027283500</v>
       </c>
       <c r="F67">
-        <v>14433554000</v>
+        <v>13080908000</v>
       </c>
       <c r="G67">
         <v>1738000</v>
@@ -3728,13 +3728,13 @@
         <v>1439200</v>
       </c>
       <c r="I67">
-        <v>24829708000</v>
+        <v>23109929500</v>
       </c>
       <c r="J67" t="str">
         <v>2022-12-21T11:18:00.000Z</v>
       </c>
       <c r="K67">
-        <v>2868850967000</v>
+        <v>2637740408900</v>
       </c>
       <c r="L67">
         <v>176153600</v>
@@ -3743,13 +3743,13 @@
         <v>123800</v>
       </c>
       <c r="N67">
-        <v>4039138000</v>
+        <v>3053624500</v>
       </c>
       <c r="O67">
         <v>-21011400</v>
       </c>
       <c r="P67">
-        <v>-189786070000</v>
+        <v>-164247034600</v>
       </c>
     </row>
     <row r="68">
@@ -3766,10 +3766,10 @@
         <v>6600</v>
       </c>
       <c r="E68">
-        <v>27559234000</v>
+        <v>27071722000</v>
       </c>
       <c r="F68">
-        <v>16867238000</v>
+        <v>15333373400</v>
       </c>
       <c r="G68">
         <v>102105000</v>
@@ -3778,13 +3778,13 @@
         <v>2919800</v>
       </c>
       <c r="I68">
-        <v>44528577000</v>
+        <v>42507200400</v>
       </c>
       <c r="J68" t="str">
         <v>2022-12-21T11:20:00.000Z</v>
       </c>
       <c r="K68">
-        <v>2913379544000</v>
+        <v>2680247609300</v>
       </c>
       <c r="L68">
         <v>179073400</v>
@@ -3793,13 +3793,13 @@
         <v>-867800</v>
       </c>
       <c r="N68">
-        <v>-10691996000</v>
+        <v>-11738348600</v>
       </c>
       <c r="O68">
         <v>-21879200</v>
       </c>
       <c r="P68">
-        <v>-200478066000</v>
+        <v>-175985383200</v>
       </c>
     </row>
     <row r="69">
@@ -3816,10 +3816,10 @@
         <v>6100</v>
       </c>
       <c r="E69">
-        <v>12919519000</v>
+        <v>12611127700</v>
       </c>
       <c r="F69">
-        <v>14612033000</v>
+        <v>13990854800</v>
       </c>
       <c r="G69">
         <v>137270000</v>
@@ -3828,13 +3828,13 @@
         <v>1618400</v>
       </c>
       <c r="I69">
-        <v>27668822000</v>
+        <v>26739252500</v>
       </c>
       <c r="J69" t="str">
         <v>2022-12-21T11:22:00.000Z</v>
       </c>
       <c r="K69">
-        <v>2941048366000</v>
+        <v>2706986861800</v>
       </c>
       <c r="L69">
         <v>180691800</v>
@@ -3843,13 +3843,13 @@
         <v>-28500</v>
       </c>
       <c r="N69">
-        <v>1692514000</v>
+        <v>1379727100</v>
       </c>
       <c r="O69">
         <v>-21907700</v>
       </c>
       <c r="P69">
-        <v>-198785552000</v>
+        <v>-174605656100</v>
       </c>
     </row>
     <row r="70">
@@ -3866,10 +3866,10 @@
         <v>11800</v>
       </c>
       <c r="E70">
-        <v>14515242000</v>
+        <v>14114942700</v>
       </c>
       <c r="F70">
-        <v>10091664000</v>
+        <v>9782873100</v>
       </c>
       <c r="G70">
         <v>410581000</v>
@@ -3878,13 +3878,13 @@
         <v>1534700</v>
       </c>
       <c r="I70">
-        <v>25017487000</v>
+        <v>24308396800</v>
       </c>
       <c r="J70" t="str">
         <v>2022-12-21T11:24:00.000Z</v>
       </c>
       <c r="K70">
-        <v>2966065853000</v>
+        <v>2731295258600</v>
       </c>
       <c r="L70">
         <v>182226500</v>
@@ -3893,13 +3893,13 @@
         <v>-341900</v>
       </c>
       <c r="N70">
-        <v>-4423578000</v>
+        <v>-4332069600</v>
       </c>
       <c r="O70">
         <v>-22249600</v>
       </c>
       <c r="P70">
-        <v>-203209130000</v>
+        <v>-178937725700</v>
       </c>
     </row>
     <row r="71">
@@ -3916,25 +3916,25 @@
         <v>5600</v>
       </c>
       <c r="E71">
-        <v>15097368000</v>
+        <v>14592873000</v>
       </c>
       <c r="F71">
-        <v>35347885000</v>
+        <v>31392044800</v>
       </c>
       <c r="G71">
-        <v>532019000</v>
+        <v>4547000</v>
       </c>
       <c r="H71">
         <v>2721100</v>
       </c>
       <c r="I71">
-        <v>50977272000</v>
+        <v>45989464800</v>
       </c>
       <c r="J71" t="str">
         <v>2022-12-21T11:26:00.000Z</v>
       </c>
       <c r="K71">
-        <v>3017043125000</v>
+        <v>2777284723400</v>
       </c>
       <c r="L71">
         <v>184947600</v>
@@ -3943,13 +3943,13 @@
         <v>789300</v>
       </c>
       <c r="N71">
-        <v>20250517000</v>
+        <v>16799171800</v>
       </c>
       <c r="O71">
         <v>-21460300</v>
       </c>
       <c r="P71">
-        <v>-182958613000</v>
+        <v>-162138553900</v>
       </c>
     </row>
     <row r="72">
@@ -3966,10 +3966,10 @@
         <v>31600</v>
       </c>
       <c r="E72">
-        <v>23005174000</v>
+        <v>21435545200</v>
       </c>
       <c r="F72">
-        <v>41143782000</v>
+        <v>20717828400</v>
       </c>
       <c r="G72">
         <v>520612000</v>
@@ -3978,13 +3978,13 @@
         <v>3453000</v>
       </c>
       <c r="I72">
-        <v>64669568000</v>
+        <v>42673985600</v>
       </c>
       <c r="J72" t="str">
         <v>2022-12-21T11:28:00.000Z</v>
       </c>
       <c r="K72">
-        <v>3081712693000</v>
+        <v>2819958709000</v>
       </c>
       <c r="L72">
         <v>188400600</v>
@@ -3993,13 +3993,13 @@
         <v>436800</v>
       </c>
       <c r="N72">
-        <v>18138608000</v>
+        <v>-717716800</v>
       </c>
       <c r="O72">
         <v>-21023500</v>
       </c>
       <c r="P72">
-        <v>-164820005000</v>
+        <v>-162856270700</v>
       </c>
     </row>
     <row r="73">
@@ -4034,7 +4034,7 @@
         <v>2022-12-21T11:30:00.000Z</v>
       </c>
       <c r="K73">
-        <v>3081730163000</v>
+        <v>2819976179000</v>
       </c>
       <c r="L73">
         <v>188402200</v>
@@ -4049,7 +4049,7 @@
         <v>-21021900</v>
       </c>
       <c r="P73">
-        <v>-164802535000</v>
+        <v>-162838800700</v>
       </c>
     </row>
     <row r="74">
@@ -4066,25 +4066,25 @@
         <v>828300</v>
       </c>
       <c r="E74">
-        <v>137131676000</v>
+        <v>123181939700</v>
       </c>
       <c r="F74">
-        <v>83236655000</v>
+        <v>81132561200</v>
       </c>
       <c r="G74">
-        <v>14200529000</v>
+        <v>14176453100</v>
       </c>
       <c r="H74">
         <v>14002500</v>
       </c>
       <c r="I74">
-        <v>234568860000</v>
+        <v>218490954000</v>
       </c>
       <c r="J74" t="str">
         <v>2022-12-21T13:00:00.000Z</v>
       </c>
       <c r="K74">
-        <v>3316299023000</v>
+        <v>3038467133000</v>
       </c>
       <c r="L74">
         <v>202404700</v>
@@ -4093,13 +4093,13 @@
         <v>-3446200</v>
       </c>
       <c r="N74">
-        <v>-53895021000</v>
+        <v>-42049378500</v>
       </c>
       <c r="O74">
         <v>-24468100</v>
       </c>
       <c r="P74">
-        <v>-218697556000</v>
+        <v>-204888179200</v>
       </c>
     </row>
     <row r="75">
@@ -4116,10 +4116,10 @@
         <v>78500</v>
       </c>
       <c r="E75">
-        <v>56929489000</v>
+        <v>52388035000</v>
       </c>
       <c r="F75">
-        <v>34436969000</v>
+        <v>33042165200</v>
       </c>
       <c r="G75">
         <v>1240108000</v>
@@ -4128,13 +4128,13 @@
         <v>5408500</v>
       </c>
       <c r="I75">
-        <v>92606566000</v>
+        <v>86670308200</v>
       </c>
       <c r="J75" t="str">
         <v>2022-12-21T13:02:00.000Z</v>
       </c>
       <c r="K75">
-        <v>3408905589000</v>
+        <v>3125137441200</v>
       </c>
       <c r="L75">
         <v>207813200</v>
@@ -4143,13 +4143,13 @@
         <v>-1424800</v>
       </c>
       <c r="N75">
-        <v>-22492520000</v>
+        <v>-19345869800</v>
       </c>
       <c r="O75">
         <v>-25892900</v>
       </c>
       <c r="P75">
-        <v>-241190076000</v>
+        <v>-224234049000</v>
       </c>
     </row>
     <row r="76">
@@ -4166,10 +4166,10 @@
         <v>114500</v>
       </c>
       <c r="E76">
-        <v>81465181000</v>
+        <v>79062186400</v>
       </c>
       <c r="F76">
-        <v>31484296000</v>
+        <v>27581602600</v>
       </c>
       <c r="G76">
         <v>2122206000</v>
@@ -4178,13 +4178,13 @@
         <v>7837100</v>
       </c>
       <c r="I76">
-        <v>115071683000</v>
+        <v>108765995000</v>
       </c>
       <c r="J76" t="str">
         <v>2022-12-21T13:04:00.000Z</v>
       </c>
       <c r="K76">
-        <v>3523977272000</v>
+        <v>3233903436200</v>
       </c>
       <c r="L76">
         <v>215650300</v>
@@ -4193,13 +4193,13 @@
         <v>-3779800</v>
       </c>
       <c r="N76">
-        <v>-49980885000</v>
+        <v>-51480583800</v>
       </c>
       <c r="O76">
         <v>-29672700</v>
       </c>
       <c r="P76">
-        <v>-291170961000</v>
+        <v>-275714632800</v>
       </c>
     </row>
     <row r="77">
@@ -4216,10 +4216,10 @@
         <v>8300</v>
       </c>
       <c r="E77">
-        <v>103698858000</v>
+        <v>98783378400</v>
       </c>
       <c r="F77">
-        <v>29376497000</v>
+        <v>28737336800</v>
       </c>
       <c r="G77">
         <v>77207000</v>
@@ -4228,13 +4228,13 @@
         <v>8881600</v>
       </c>
       <c r="I77">
-        <v>133152562000</v>
+        <v>127597922200</v>
       </c>
       <c r="J77" t="str">
         <v>2022-12-21T13:06:00.000Z</v>
       </c>
       <c r="K77">
-        <v>3657129834000</v>
+        <v>3361501358400</v>
       </c>
       <c r="L77">
         <v>224531900</v>
@@ -4243,13 +4243,13 @@
         <v>-5436300</v>
       </c>
       <c r="N77">
-        <v>-74322361000</v>
+        <v>-70046041600</v>
       </c>
       <c r="O77">
         <v>-35109000</v>
       </c>
       <c r="P77">
-        <v>-365493322000</v>
+        <v>-345760674400</v>
       </c>
     </row>
     <row r="78">
@@ -4266,25 +4266,25 @@
         <v>65300</v>
       </c>
       <c r="E78">
-        <v>133708261000</v>
+        <v>120474008500</v>
       </c>
       <c r="F78">
-        <v>37420296000</v>
+        <v>36571445700</v>
       </c>
       <c r="G78">
-        <v>1222719000</v>
+        <v>1018323600</v>
       </c>
       <c r="H78">
         <v>11593200</v>
       </c>
       <c r="I78">
-        <v>172351276000</v>
+        <v>158063777800</v>
       </c>
       <c r="J78" t="str">
         <v>2022-12-21T13:08:00.000Z</v>
       </c>
       <c r="K78">
-        <v>3829481110000</v>
+        <v>3519565136200</v>
       </c>
       <c r="L78">
         <v>236125100</v>
@@ -4293,13 +4293,13 @@
         <v>-6901100</v>
       </c>
       <c r="N78">
-        <v>-96287965000</v>
+        <v>-83902562800</v>
       </c>
       <c r="O78">
         <v>-42010100</v>
       </c>
       <c r="P78">
-        <v>-461781287000</v>
+        <v>-429663237200</v>
       </c>
     </row>
     <row r="79">
@@ -4316,25 +4316,25 @@
         <v>27300</v>
       </c>
       <c r="E79">
-        <v>56754587000</v>
+        <v>51900446000</v>
       </c>
       <c r="F79">
-        <v>47973391000</v>
+        <v>45852114400</v>
       </c>
       <c r="G79">
-        <v>546304000</v>
+        <v>532817500</v>
       </c>
       <c r="H79">
         <v>6705400</v>
       </c>
       <c r="I79">
-        <v>105274282000</v>
+        <v>98285377900</v>
       </c>
       <c r="J79" t="str">
         <v>2022-12-21T13:10:00.000Z</v>
       </c>
       <c r="K79">
-        <v>3934755392000</v>
+        <v>3617850514100</v>
       </c>
       <c r="L79">
         <v>242830500</v>
@@ -4343,13 +4343,13 @@
         <v>-578100</v>
       </c>
       <c r="N79">
-        <v>-8781196000</v>
+        <v>-6048331600</v>
       </c>
       <c r="O79">
         <v>-42588200</v>
       </c>
       <c r="P79">
-        <v>-470562483000</v>
+        <v>-435711568800</v>
       </c>
     </row>
     <row r="80">
@@ -4366,10 +4366,10 @@
         <v>51700</v>
       </c>
       <c r="E80">
-        <v>27037482000</v>
+        <v>25586734200</v>
       </c>
       <c r="F80">
-        <v>68820806000</v>
+        <v>65146084400</v>
       </c>
       <c r="G80">
         <v>541043000</v>
@@ -4378,13 +4378,13 @@
         <v>5778500</v>
       </c>
       <c r="I80">
-        <v>96399331000</v>
+        <v>91273861600</v>
       </c>
       <c r="J80" t="str">
         <v>2022-12-21T13:12:00.000Z</v>
       </c>
       <c r="K80">
-        <v>4031154723000</v>
+        <v>3709124375700</v>
       </c>
       <c r="L80">
         <v>248609000</v>
@@ -4393,13 +4393,13 @@
         <v>2114800</v>
       </c>
       <c r="N80">
-        <v>41783324000</v>
+        <v>39559350200</v>
       </c>
       <c r="O80">
         <v>-40473400</v>
       </c>
       <c r="P80">
-        <v>-428779159000</v>
+        <v>-396152218600</v>
       </c>
     </row>
     <row r="81">
@@ -4416,10 +4416,10 @@
         <v>2200</v>
       </c>
       <c r="E81">
-        <v>26803977000</v>
+        <v>25354028400</v>
       </c>
       <c r="F81">
-        <v>43562297000</v>
+        <v>38037127700</v>
       </c>
       <c r="G81">
         <v>44488000</v>
@@ -4428,13 +4428,13 @@
         <v>4079900</v>
       </c>
       <c r="I81">
-        <v>70410762000</v>
+        <v>63435644100</v>
       </c>
       <c r="J81" t="str">
         <v>2022-12-21T13:14:00.000Z</v>
       </c>
       <c r="K81">
-        <v>4101565485000</v>
+        <v>3772560019800</v>
       </c>
       <c r="L81">
         <v>252688900</v>
@@ -4443,13 +4443,13 @@
         <v>1019900</v>
       </c>
       <c r="N81">
-        <v>16758320000</v>
+        <v>12683099300</v>
       </c>
       <c r="O81">
         <v>-39453500</v>
       </c>
       <c r="P81">
-        <v>-412020839000</v>
+        <v>-383469119300</v>
       </c>
     </row>
     <row r="82">
@@ -4466,10 +4466,10 @@
         <v>53300</v>
       </c>
       <c r="E82">
-        <v>34622230000</v>
+        <v>30357598900</v>
       </c>
       <c r="F82">
-        <v>38466053000</v>
+        <v>30790036700</v>
       </c>
       <c r="G82">
         <v>952932000</v>
@@ -4478,13 +4478,13 @@
         <v>4561400</v>
       </c>
       <c r="I82">
-        <v>74041215000</v>
+        <v>62100567600</v>
       </c>
       <c r="J82" t="str">
         <v>2022-12-21T13:16:00.000Z</v>
       </c>
       <c r="K82">
-        <v>4175606700000</v>
+        <v>3834660587400</v>
       </c>
       <c r="L82">
         <v>257250300</v>
@@ -4493,13 +4493,13 @@
         <v>-58700</v>
       </c>
       <c r="N82">
-        <v>3843823000</v>
+        <v>432437800</v>
       </c>
       <c r="O82">
         <v>-39512200</v>
       </c>
       <c r="P82">
-        <v>-408177016000</v>
+        <v>-383036681500</v>
       </c>
     </row>
     <row r="83">
@@ -4516,10 +4516,10 @@
         <v>8400</v>
       </c>
       <c r="E83">
-        <v>27223692000</v>
+        <v>25259258400</v>
       </c>
       <c r="F83">
-        <v>36631791000</v>
+        <v>35172651600</v>
       </c>
       <c r="G83">
         <v>140190000</v>
@@ -4528,13 +4528,13 @@
         <v>4029400</v>
       </c>
       <c r="I83">
-        <v>63995673000</v>
+        <v>60572100000</v>
       </c>
       <c r="J83" t="str">
         <v>2022-12-21T13:18:00.000Z</v>
       </c>
       <c r="K83">
-        <v>4239602373000</v>
+        <v>3895232687400</v>
       </c>
       <c r="L83">
         <v>261279700</v>
@@ -4543,13 +4543,13 @@
         <v>653000</v>
       </c>
       <c r="N83">
-        <v>9408099000</v>
+        <v>9913393200</v>
       </c>
       <c r="O83">
         <v>-38859200</v>
       </c>
       <c r="P83">
-        <v>-398768917000</v>
+        <v>-373123288300</v>
       </c>
     </row>
     <row r="84">
@@ -4566,10 +4566,10 @@
         <v>8400</v>
       </c>
       <c r="E84">
-        <v>27149334000</v>
+        <v>25606278600</v>
       </c>
       <c r="F84">
-        <v>49759264000</v>
+        <v>47195630200</v>
       </c>
       <c r="G84">
         <v>146316000</v>
@@ -4578,13 +4578,13 @@
         <v>4376200</v>
       </c>
       <c r="I84">
-        <v>77054914000</v>
+        <v>72948224800</v>
       </c>
       <c r="J84" t="str">
         <v>2022-12-21T13:20:00.000Z</v>
       </c>
       <c r="K84">
-        <v>4316657287000</v>
+        <v>3968180912200</v>
       </c>
       <c r="L84">
         <v>265655900</v>
@@ -4593,13 +4593,13 @@
         <v>1164600</v>
       </c>
       <c r="N84">
-        <v>22609930000</v>
+        <v>21589351600</v>
       </c>
       <c r="O84">
         <v>-37694600</v>
       </c>
       <c r="P84">
-        <v>-376158987000</v>
+        <v>-351533936700</v>
       </c>
     </row>
     <row r="85">
@@ -4616,10 +4616,10 @@
         <v>12800</v>
       </c>
       <c r="E85">
-        <v>36768370000</v>
+        <v>31125618400</v>
       </c>
       <c r="F85">
-        <v>34512446000</v>
+        <v>31147414400</v>
       </c>
       <c r="G85">
         <v>169354000</v>
@@ -4628,13 +4628,13 @@
         <v>4692000</v>
       </c>
       <c r="I85">
-        <v>71450170000</v>
+        <v>62442386800</v>
       </c>
       <c r="J85" t="str">
         <v>2022-12-21T13:22:00.000Z</v>
       </c>
       <c r="K85">
-        <v>4388107457000</v>
+        <v>4030623299000</v>
       </c>
       <c r="L85">
         <v>270347900</v>
@@ -4643,13 +4643,13 @@
         <v>-878800</v>
       </c>
       <c r="N85">
-        <v>-2255924000</v>
+        <v>21796000</v>
       </c>
       <c r="O85">
         <v>-38573400</v>
       </c>
       <c r="P85">
-        <v>-378414911000</v>
+        <v>-351512140700</v>
       </c>
     </row>
     <row r="86">
@@ -4666,25 +4666,25 @@
         <v>20500</v>
       </c>
       <c r="E86">
-        <v>34164460000</v>
+        <v>32094631900</v>
       </c>
       <c r="F86">
-        <v>39196725000</v>
+        <v>36240684000</v>
       </c>
       <c r="G86">
-        <v>370077000</v>
+        <v>331116000</v>
       </c>
       <c r="H86">
         <v>4513100</v>
       </c>
       <c r="I86">
-        <v>73731262000</v>
+        <v>68666431900</v>
       </c>
       <c r="J86" t="str">
         <v>2022-12-21T13:24:00.000Z</v>
       </c>
       <c r="K86">
-        <v>4461838719000</v>
+        <v>4099289730900</v>
       </c>
       <c r="L86">
         <v>274861000</v>
@@ -4693,13 +4693,13 @@
         <v>-109400</v>
       </c>
       <c r="N86">
-        <v>5032265000</v>
+        <v>4146052100</v>
       </c>
       <c r="O86">
         <v>-38682800</v>
       </c>
       <c r="P86">
-        <v>-373382646000</v>
+        <v>-347366088600</v>
       </c>
     </row>
     <row r="87">
@@ -4716,10 +4716,10 @@
         <v>5400</v>
       </c>
       <c r="E87">
-        <v>42981446000</v>
+        <v>40718211500</v>
       </c>
       <c r="F87">
-        <v>39261214000</v>
+        <v>37010866600</v>
       </c>
       <c r="G87">
         <v>53418000</v>
@@ -4728,13 +4728,13 @@
         <v>5073300</v>
       </c>
       <c r="I87">
-        <v>82296078000</v>
+        <v>77782496100</v>
       </c>
       <c r="J87" t="str">
         <v>2022-12-21T13:26:00.000Z</v>
       </c>
       <c r="K87">
-        <v>4544134797000</v>
+        <v>4177072227000</v>
       </c>
       <c r="L87">
         <v>279934300</v>
@@ -4743,13 +4743,13 @@
         <v>-747100</v>
       </c>
       <c r="N87">
-        <v>-3720232000</v>
+        <v>-3707344900</v>
       </c>
       <c r="O87">
         <v>-39429900</v>
       </c>
       <c r="P87">
-        <v>-377102878000</v>
+        <v>-351073433500</v>
       </c>
     </row>
     <row r="88">
@@ -4766,25 +4766,25 @@
         <v>36000</v>
       </c>
       <c r="E88">
-        <v>37500306000</v>
+        <v>30218894700</v>
       </c>
       <c r="F88">
-        <v>49965150000</v>
+        <v>41972250900</v>
       </c>
       <c r="G88">
-        <v>485939000</v>
+        <v>435589400</v>
       </c>
       <c r="H88">
         <v>4825700</v>
       </c>
       <c r="I88">
-        <v>87951395000</v>
+        <v>72626735000</v>
       </c>
       <c r="J88" t="str">
         <v>2022-12-21T13:28:00.000Z</v>
       </c>
       <c r="K88">
-        <v>4632086192000</v>
+        <v>4249698962000</v>
       </c>
       <c r="L88">
         <v>284760000</v>
@@ -4793,13 +4793,13 @@
         <v>473500</v>
       </c>
       <c r="N88">
-        <v>12464844000</v>
+        <v>11753356200</v>
       </c>
       <c r="O88">
         <v>-38956400</v>
       </c>
       <c r="P88">
-        <v>-364638034000</v>
+        <v>-339320077300</v>
       </c>
     </row>
     <row r="89">
@@ -4816,25 +4816,25 @@
         <v>60200</v>
       </c>
       <c r="E89">
-        <v>40753944000</v>
+        <v>39111987600</v>
       </c>
       <c r="F89">
-        <v>39446805000</v>
+        <v>34454002800</v>
       </c>
       <c r="G89">
-        <v>1206228000</v>
+        <v>1149085200</v>
       </c>
       <c r="H89">
         <v>4665400</v>
       </c>
       <c r="I89">
-        <v>81406977000</v>
+        <v>74715075600</v>
       </c>
       <c r="J89" t="str">
         <v>2022-12-21T13:30:00.000Z</v>
       </c>
       <c r="K89">
-        <v>4713493169000</v>
+        <v>4324414037600</v>
       </c>
       <c r="L89">
         <v>289425400</v>
@@ -4843,13 +4843,13 @@
         <v>-65200</v>
       </c>
       <c r="N89">
-        <v>-1307139000</v>
+        <v>-4657984800</v>
       </c>
       <c r="O89">
         <v>-39021600</v>
       </c>
       <c r="P89">
-        <v>-365945173000</v>
+        <v>-343978062100</v>
       </c>
     </row>
     <row r="90">
@@ -4866,25 +4866,25 @@
         <v>66700</v>
       </c>
       <c r="E90">
-        <v>34149491000</v>
+        <v>32931710000</v>
       </c>
       <c r="F90">
-        <v>38962814000</v>
+        <v>31027057700</v>
       </c>
       <c r="G90">
-        <v>558995000</v>
+        <v>496457600</v>
       </c>
       <c r="H90">
         <v>4493000</v>
       </c>
       <c r="I90">
-        <v>73671300000</v>
+        <v>64455225300</v>
       </c>
       <c r="J90" t="str">
         <v>2022-12-21T13:32:00.000Z</v>
       </c>
       <c r="K90">
-        <v>4787164469000</v>
+        <v>4388869262900</v>
       </c>
       <c r="L90">
         <v>293918400</v>
@@ -4893,13 +4893,13 @@
         <v>-97900</v>
       </c>
       <c r="N90">
-        <v>4813323000</v>
+        <v>-1904652300</v>
       </c>
       <c r="O90">
         <v>-39119500</v>
       </c>
       <c r="P90">
-        <v>-361131850000</v>
+        <v>-345882714400</v>
       </c>
     </row>
     <row r="91">
@@ -4916,25 +4916,25 @@
         <v>64900</v>
       </c>
       <c r="E91">
-        <v>107203523000</v>
+        <v>99761672300</v>
       </c>
       <c r="F91">
-        <v>34247791000</v>
+        <v>31648992400</v>
       </c>
       <c r="G91">
-        <v>562176000</v>
+        <v>526212000</v>
       </c>
       <c r="H91">
         <v>9463000</v>
       </c>
       <c r="I91">
-        <v>142013490000</v>
+        <v>131936876700</v>
       </c>
       <c r="J91" t="str">
         <v>2022-12-21T13:34:00.000Z</v>
       </c>
       <c r="K91">
-        <v>4929177959000</v>
+        <v>4520806139600</v>
       </c>
       <c r="L91">
         <v>303381400</v>
@@ -4943,13 +4943,13 @@
         <v>-5564300</v>
       </c>
       <c r="N91">
-        <v>-72955732000</v>
+        <v>-68112679900</v>
       </c>
       <c r="O91">
         <v>-44683800</v>
       </c>
       <c r="P91">
-        <v>-434087582000</v>
+        <v>-413995394300</v>
       </c>
     </row>
     <row r="92">
@@ -4966,25 +4966,25 @@
         <v>216600</v>
       </c>
       <c r="E92">
-        <v>184788065000</v>
+        <v>175193768900</v>
       </c>
       <c r="F92">
-        <v>24731776000</v>
+        <v>22627981900</v>
       </c>
       <c r="G92">
-        <v>3022476000</v>
+        <v>2973225300</v>
       </c>
       <c r="H92">
         <v>16692500</v>
       </c>
       <c r="I92">
-        <v>212542317000</v>
+        <v>200794976100</v>
       </c>
       <c r="J92" t="str">
         <v>2022-12-21T13:36:00.000Z</v>
       </c>
       <c r="K92">
-        <v>5141720276000</v>
+        <v>4721601115700</v>
       </c>
       <c r="L92">
         <v>320073900</v>
@@ -4993,13 +4993,13 @@
         <v>-13298100</v>
       </c>
       <c r="N92">
-        <v>-160056289000</v>
+        <v>-152565787000</v>
       </c>
       <c r="O92">
         <v>-57981900</v>
       </c>
       <c r="P92">
-        <v>-594143871000</v>
+        <v>-566561181300</v>
       </c>
     </row>
     <row r="93">
@@ -5016,25 +5016,25 @@
         <v>224100</v>
       </c>
       <c r="E93">
-        <v>154954237000</v>
+        <v>136745064400</v>
       </c>
       <c r="F93">
-        <v>107837348000</v>
+        <v>104904883400</v>
       </c>
       <c r="G93">
-        <v>3648111000</v>
+        <v>3610548600</v>
       </c>
       <c r="H93">
         <v>19530800</v>
       </c>
       <c r="I93">
-        <v>266439696000</v>
+        <v>245260496400</v>
       </c>
       <c r="J93" t="str">
         <v>2022-12-21T13:38:00.000Z</v>
       </c>
       <c r="K93">
-        <v>5408159972000</v>
+        <v>4966861612100</v>
       </c>
       <c r="L93">
         <v>339604700</v>
@@ -5043,13 +5043,13 @@
         <v>-4631100</v>
       </c>
       <c r="N93">
-        <v>-47116889000</v>
+        <v>-31840181000</v>
       </c>
       <c r="O93">
         <v>-62613000</v>
       </c>
       <c r="P93">
-        <v>-641260760000</v>
+        <v>-598401362300</v>
       </c>
     </row>
     <row r="94">
@@ -5066,25 +5066,25 @@
         <v>33800</v>
       </c>
       <c r="E94">
-        <v>69893489000</v>
+        <v>66546739100</v>
       </c>
       <c r="F94">
-        <v>70597368000</v>
+        <v>68803963200</v>
       </c>
       <c r="G94">
-        <v>569631000</v>
+        <v>519081600</v>
       </c>
       <c r="H94">
         <v>11026100</v>
       </c>
       <c r="I94">
-        <v>141060488000</v>
+        <v>135869783900</v>
       </c>
       <c r="J94" t="str">
         <v>2022-12-21T13:40:00.000Z</v>
       </c>
       <c r="K94">
-        <v>5549220460000</v>
+        <v>5102731396000</v>
       </c>
       <c r="L94">
         <v>350630800</v>
@@ -5093,13 +5093,13 @@
         <v>-678500</v>
       </c>
       <c r="N94">
-        <v>703879000</v>
+        <v>2257224100</v>
       </c>
       <c r="O94">
         <v>-63291500</v>
       </c>
       <c r="P94">
-        <v>-640556881000</v>
+        <v>-596144138200</v>
       </c>
     </row>
     <row r="95">
@@ -5116,10 +5116,10 @@
         <v>31800</v>
       </c>
       <c r="E95">
-        <v>40886614000</v>
+        <v>37937466100</v>
       </c>
       <c r="F95">
-        <v>62030626000</v>
+        <v>59271088300</v>
       </c>
       <c r="G95">
         <v>409703000</v>
@@ -5128,13 +5128,13 @@
         <v>7168800</v>
       </c>
       <c r="I95">
-        <v>103326943000</v>
+        <v>97618257400</v>
       </c>
       <c r="J95" t="str">
         <v>2022-12-21T13:42:00.000Z</v>
       </c>
       <c r="K95">
-        <v>5652547403000</v>
+        <v>5200349653400</v>
       </c>
       <c r="L95">
         <v>357799600</v>
@@ -5143,13 +5143,13 @@
         <v>1205800</v>
       </c>
       <c r="N95">
-        <v>21144012000</v>
+        <v>21333622200</v>
       </c>
       <c r="O95">
         <v>-62085700</v>
       </c>
       <c r="P95">
-        <v>-619412869000</v>
+        <v>-574810516000</v>
       </c>
     </row>
     <row r="96">
@@ -5166,25 +5166,25 @@
         <v>17500</v>
       </c>
       <c r="E96">
-        <v>60762470000</v>
+        <v>58327807100</v>
       </c>
       <c r="F96">
-        <v>34675887000</v>
+        <v>31687678200</v>
       </c>
       <c r="G96">
-        <v>404549000</v>
+        <v>299054600</v>
       </c>
       <c r="H96">
         <v>6008400</v>
       </c>
       <c r="I96">
-        <v>95842906000</v>
+        <v>90314539900</v>
       </c>
       <c r="J96" t="str">
         <v>2022-12-21T13:44:00.000Z</v>
       </c>
       <c r="K96">
-        <v>5748390309000</v>
+        <v>5290664193300</v>
       </c>
       <c r="L96">
         <v>363808000</v>
@@ -5193,13 +5193,13 @@
         <v>-1557300</v>
       </c>
       <c r="N96">
-        <v>-26086583000</v>
+        <v>-26640128900</v>
       </c>
       <c r="O96">
         <v>-63643000</v>
       </c>
       <c r="P96">
-        <v>-645499452000</v>
+        <v>-601450644900</v>
       </c>
     </row>
     <row r="97">
@@ -5216,10 +5216,10 @@
         <v>15300</v>
       </c>
       <c r="E97">
-        <v>62354149000</v>
+        <v>59203103200</v>
       </c>
       <c r="F97">
-        <v>28361044000</v>
+        <v>24807800800</v>
       </c>
       <c r="G97">
         <v>253707000</v>
@@ -5228,13 +5228,13 @@
         <v>5966600</v>
       </c>
       <c r="I97">
-        <v>90968900000</v>
+        <v>84264611000</v>
       </c>
       <c r="J97" t="str">
         <v>2022-12-21T13:46:00.000Z</v>
       </c>
       <c r="K97">
-        <v>5839359209000</v>
+        <v>5374928804300</v>
       </c>
       <c r="L97">
         <v>369774600</v>
@@ -5243,13 +5243,13 @@
         <v>-2597900</v>
       </c>
       <c r="N97">
-        <v>-33993105000</v>
+        <v>-34395302400</v>
       </c>
       <c r="O97">
         <v>-66240900</v>
       </c>
       <c r="P97">
-        <v>-679492557000</v>
+        <v>-635845947300</v>
       </c>
     </row>
     <row r="98">
@@ -5266,25 +5266,25 @@
         <v>26100</v>
       </c>
       <c r="E98">
-        <v>97615743000</v>
+        <v>92619044700</v>
       </c>
       <c r="F98">
-        <v>32662235000</v>
+        <v>30856542500</v>
       </c>
       <c r="G98">
-        <v>336717000</v>
+        <v>280373400</v>
       </c>
       <c r="H98">
         <v>9196700</v>
       </c>
       <c r="I98">
-        <v>130614695000</v>
+        <v>123755960600</v>
       </c>
       <c r="J98" t="str">
         <v>2022-12-21T13:48:00.000Z</v>
       </c>
       <c r="K98">
-        <v>5969973904000</v>
+        <v>5498684764900</v>
       </c>
       <c r="L98">
         <v>378971300</v>
@@ -5293,13 +5293,13 @@
         <v>-4957200</v>
       </c>
       <c r="N98">
-        <v>-64953508000</v>
+        <v>-61762502200</v>
       </c>
       <c r="O98">
         <v>-71198100</v>
       </c>
       <c r="P98">
-        <v>-744446065000</v>
+        <v>-697608449500</v>
       </c>
     </row>
     <row r="99">
@@ -5316,25 +5316,25 @@
         <v>158200</v>
       </c>
       <c r="E99">
-        <v>173436025000</v>
+        <v>147715371400</v>
       </c>
       <c r="F99">
-        <v>42363954000</v>
+        <v>38022100200</v>
       </c>
       <c r="G99">
-        <v>2614932000</v>
+        <v>2556090900</v>
       </c>
       <c r="H99">
         <v>14358800</v>
       </c>
       <c r="I99">
-        <v>218414911000</v>
+        <v>188293562500</v>
       </c>
       <c r="J99" t="str">
         <v>2022-12-21T13:50:00.000Z</v>
       </c>
       <c r="K99">
-        <v>6188388815000</v>
+        <v>5686978327400</v>
       </c>
       <c r="L99">
         <v>393330100</v>
@@ -5343,13 +5343,13 @@
         <v>-8554400</v>
       </c>
       <c r="N99">
-        <v>-131072071000</v>
+        <v>-109693271200</v>
       </c>
       <c r="O99">
         <v>-79752500</v>
       </c>
       <c r="P99">
-        <v>-875518136000</v>
+        <v>-807301720700</v>
       </c>
     </row>
     <row r="100">
@@ -5366,25 +5366,25 @@
         <v>232200</v>
       </c>
       <c r="E100">
-        <v>221292662000</v>
+        <v>193685496800</v>
       </c>
       <c r="F100">
-        <v>49222955000</v>
+        <v>46177203800</v>
       </c>
       <c r="G100">
-        <v>5205310000</v>
+        <v>5034980500</v>
       </c>
       <c r="H100">
         <v>16885600</v>
       </c>
       <c r="I100">
-        <v>275720927000</v>
+        <v>244897681100</v>
       </c>
       <c r="J100" t="str">
         <v>2022-12-21T13:52:00.000Z</v>
       </c>
       <c r="K100">
-        <v>6464109742000</v>
+        <v>5931876008500</v>
       </c>
       <c r="L100">
         <v>410215700</v>
@@ -5393,13 +5393,13 @@
         <v>-10628400</v>
       </c>
       <c r="N100">
-        <v>-172069707000</v>
+        <v>-147508293000</v>
       </c>
       <c r="O100">
         <v>-90380900</v>
       </c>
       <c r="P100">
-        <v>-1047587843000</v>
+        <v>-954810013700</v>
       </c>
     </row>
     <row r="101">
@@ -5416,25 +5416,25 @@
         <v>81600</v>
       </c>
       <c r="E101">
-        <v>144064625000</v>
+        <v>136752644300</v>
       </c>
       <c r="F101">
-        <v>59604011000</v>
+        <v>56914603100</v>
       </c>
       <c r="G101">
-        <v>1507123000</v>
+        <v>1506124000</v>
       </c>
       <c r="H101">
         <v>13939700</v>
       </c>
       <c r="I101">
-        <v>205175759000</v>
+        <v>195173371400</v>
       </c>
       <c r="J101" t="str">
         <v>2022-12-21T13:54:00.000Z</v>
       </c>
       <c r="K101">
-        <v>6669285501000</v>
+        <v>6127049379900</v>
       </c>
       <c r="L101">
         <v>424155400</v>
@@ -5443,13 +5443,13 @@
         <v>-6744100</v>
       </c>
       <c r="N101">
-        <v>-84460614000</v>
+        <v>-79838041200</v>
       </c>
       <c r="O101">
         <v>-97125000</v>
       </c>
       <c r="P101">
-        <v>-1132048457000</v>
+        <v>-1034648054900</v>
       </c>
     </row>
     <row r="102">
@@ -5466,10 +5466,10 @@
         <v>22900</v>
       </c>
       <c r="E102">
-        <v>64734401000</v>
+        <v>59408732000</v>
       </c>
       <c r="F102">
-        <v>75642156000</v>
+        <v>71588114100</v>
       </c>
       <c r="G102">
         <v>437689000</v>
@@ -5478,13 +5478,13 @@
         <v>8871100</v>
       </c>
       <c r="I102">
-        <v>140814246000</v>
+        <v>131434535100</v>
       </c>
       <c r="J102" t="str">
         <v>2022-12-21T13:56:00.000Z</v>
       </c>
       <c r="K102">
-        <v>6810099747000</v>
+        <v>6258483915000</v>
       </c>
       <c r="L102">
         <v>433026500</v>
@@ -5493,13 +5493,13 @@
         <v>626400</v>
       </c>
       <c r="N102">
-        <v>10907755000</v>
+        <v>12179382100</v>
       </c>
       <c r="O102">
         <v>-96498600</v>
       </c>
       <c r="P102">
-        <v>-1121140702000</v>
+        <v>-1022468672800</v>
       </c>
     </row>
     <row r="103">
@@ -5516,10 +5516,10 @@
         <v>121500</v>
       </c>
       <c r="E103">
-        <v>32395504000</v>
+        <v>31175924800</v>
       </c>
       <c r="F103">
-        <v>95458024000</v>
+        <v>86003787700</v>
       </c>
       <c r="G103">
         <v>2688628000</v>
@@ -5528,13 +5528,13 @@
         <v>7675600</v>
       </c>
       <c r="I103">
-        <v>130542156000</v>
+        <v>119868340500</v>
       </c>
       <c r="J103" t="str">
         <v>2022-12-21T13:58:00.000Z</v>
       </c>
       <c r="K103">
-        <v>6940641903000</v>
+        <v>6378352255500</v>
       </c>
       <c r="L103">
         <v>440702100</v>
@@ -5543,13 +5543,13 @@
         <v>3959100</v>
       </c>
       <c r="N103">
-        <v>63062520000</v>
+        <v>54827862900</v>
       </c>
       <c r="O103">
         <v>-92539500</v>
       </c>
       <c r="P103">
-        <v>-1058078182000</v>
+        <v>-967640809900</v>
       </c>
     </row>
     <row r="104">
@@ -5566,25 +5566,25 @@
         <v>35600</v>
       </c>
       <c r="E104">
-        <v>29421999000</v>
+        <v>26602920900</v>
       </c>
       <c r="F104">
-        <v>62945210000</v>
+        <v>59043515600</v>
       </c>
       <c r="G104">
-        <v>223629000</v>
+        <v>222530100</v>
       </c>
       <c r="H104">
         <v>5637300</v>
       </c>
       <c r="I104">
-        <v>92590838000</v>
+        <v>85868966600</v>
       </c>
       <c r="J104" t="str">
         <v>2022-12-21T14:00:00.000Z</v>
       </c>
       <c r="K104">
-        <v>7033232741000</v>
+        <v>6464221222100</v>
       </c>
       <c r="L104">
         <v>446339400</v>
@@ -5593,13 +5593,13 @@
         <v>2552300</v>
       </c>
       <c r="N104">
-        <v>33523211000</v>
+        <v>32440594700</v>
       </c>
       <c r="O104">
         <v>-89987200</v>
       </c>
       <c r="P104">
-        <v>-1024554971000</v>
+        <v>-935200215200</v>
       </c>
     </row>
     <row r="105">
@@ -5616,25 +5616,25 @@
         <v>11800</v>
       </c>
       <c r="E105">
-        <v>23582831000</v>
+        <v>21849366200</v>
       </c>
       <c r="F105">
-        <v>78890782000</v>
+        <v>69146635900</v>
       </c>
       <c r="G105">
-        <v>248040000</v>
+        <v>188100000</v>
       </c>
       <c r="H105">
         <v>6942300</v>
       </c>
       <c r="I105">
-        <v>102721653000</v>
+        <v>91184102100</v>
       </c>
       <c r="J105" t="str">
         <v>2022-12-21T14:02:00.000Z</v>
       </c>
       <c r="K105">
-        <v>7135954394000</v>
+        <v>6555405324200</v>
       </c>
       <c r="L105">
         <v>453281700</v>
@@ -5643,13 +5643,13 @@
         <v>3942100</v>
       </c>
       <c r="N105">
-        <v>55307951000</v>
+        <v>47297269700</v>
       </c>
       <c r="O105">
         <v>-86045100</v>
       </c>
       <c r="P105">
-        <v>-969247020000</v>
+        <v>-887902945500</v>
       </c>
     </row>
     <row r="106">
@@ -5666,10 +5666,10 @@
         <v>36100</v>
       </c>
       <c r="E106">
-        <v>54018932000</v>
+        <v>47856101000</v>
       </c>
       <c r="F106">
-        <v>45977650000</v>
+        <v>37406529700</v>
       </c>
       <c r="G106">
         <v>487948000</v>
@@ -5678,13 +5678,13 @@
         <v>6276700</v>
       </c>
       <c r="I106">
-        <v>100484530000</v>
+        <v>85750578700</v>
       </c>
       <c r="J106" t="str">
         <v>2022-12-21T14:04:00.000Z</v>
       </c>
       <c r="K106">
-        <v>7236438924000</v>
+        <v>6641155902900</v>
       </c>
       <c r="L106">
         <v>459558400</v>
@@ -5693,13 +5693,13 @@
         <v>-631200</v>
       </c>
       <c r="N106">
-        <v>-8041282000</v>
+        <v>-10449571300</v>
       </c>
       <c r="O106">
         <v>-86676300</v>
       </c>
       <c r="P106">
-        <v>-977288302000</v>
+        <v>-898352516800</v>
       </c>
     </row>
     <row r="107">
@@ -5716,25 +5716,25 @@
         <v>37400</v>
       </c>
       <c r="E107">
-        <v>109292790000</v>
+        <v>101020670400</v>
       </c>
       <c r="F107">
-        <v>33896116000</v>
+        <v>30916898200</v>
       </c>
       <c r="G107">
-        <v>619651000</v>
+        <v>518752000</v>
       </c>
       <c r="H107">
         <v>9405000</v>
       </c>
       <c r="I107">
-        <v>143808557000</v>
+        <v>132456320600</v>
       </c>
       <c r="J107" t="str">
         <v>2022-12-21T14:06:00.000Z</v>
       </c>
       <c r="K107">
-        <v>7380247481000</v>
+        <v>6773612223500</v>
       </c>
       <c r="L107">
         <v>468963400</v>
@@ -5743,13 +5743,13 @@
         <v>-4960400</v>
       </c>
       <c r="N107">
-        <v>-75396674000</v>
+        <v>-70103772200</v>
       </c>
       <c r="O107">
         <v>-91636700</v>
       </c>
       <c r="P107">
-        <v>-1052684976000</v>
+        <v>-968456289000</v>
       </c>
     </row>
     <row r="108">
@@ -5766,25 +5766,25 @@
         <v>40400</v>
       </c>
       <c r="E108">
-        <v>90154903000</v>
+        <v>84191472400</v>
       </c>
       <c r="F108">
-        <v>36539859000</v>
+        <v>34226974200</v>
       </c>
       <c r="G108">
-        <v>640940000</v>
+        <v>609871100</v>
       </c>
       <c r="H108">
         <v>7664000</v>
       </c>
       <c r="I108">
-        <v>127335702000</v>
+        <v>119028317700</v>
       </c>
       <c r="J108" t="str">
         <v>2022-12-21T14:08:00.000Z</v>
       </c>
       <c r="K108">
-        <v>7507583183000</v>
+        <v>6892640541200</v>
       </c>
       <c r="L108">
         <v>476627400</v>
@@ -5793,13 +5793,13 @@
         <v>-3561000</v>
       </c>
       <c r="N108">
-        <v>-53615044000</v>
+        <v>-49964498200</v>
       </c>
       <c r="O108">
         <v>-95197700</v>
       </c>
       <c r="P108">
-        <v>-1106300020000</v>
+        <v>-1018420787200</v>
       </c>
     </row>
     <row r="109">
@@ -5816,25 +5816,25 @@
         <v>68400</v>
       </c>
       <c r="E109">
-        <v>114715697000</v>
+        <v>110996420000</v>
       </c>
       <c r="F109">
-        <v>48277695000</v>
+        <v>46451722800</v>
       </c>
       <c r="G109">
-        <v>927371000</v>
+        <v>920078300</v>
       </c>
       <c r="H109">
         <v>10272300</v>
       </c>
       <c r="I109">
-        <v>163920763000</v>
+        <v>158368221100</v>
       </c>
       <c r="J109" t="str">
         <v>2022-12-21T14:10:00.000Z</v>
       </c>
       <c r="K109">
-        <v>7671503946000</v>
+        <v>7051008762300</v>
       </c>
       <c r="L109">
         <v>486899700</v>
@@ -5843,13 +5843,13 @@
         <v>-4215500</v>
       </c>
       <c r="N109">
-        <v>-66438002000</v>
+        <v>-64544697200</v>
       </c>
       <c r="O109">
         <v>-99413200</v>
       </c>
       <c r="P109">
-        <v>-1172738022000</v>
+        <v>-1082965484400</v>
       </c>
     </row>
     <row r="110">
@@ -5866,25 +5866,25 @@
         <v>89500</v>
       </c>
       <c r="E110">
-        <v>226603870000</v>
+        <v>211961626900</v>
       </c>
       <c r="F110">
-        <v>45875693000</v>
+        <v>43951119500</v>
       </c>
       <c r="G110">
-        <v>1449248000</v>
+        <v>1439857400</v>
       </c>
       <c r="H110">
         <v>17511100</v>
       </c>
       <c r="I110">
-        <v>273928811000</v>
+        <v>257352603800</v>
       </c>
       <c r="J110" t="str">
         <v>2022-12-21T14:12:00.000Z</v>
       </c>
       <c r="K110">
-        <v>7945432757000</v>
+        <v>7308361366100</v>
       </c>
       <c r="L110">
         <v>504410800</v>
@@ -5893,13 +5893,13 @@
         <v>-11660600</v>
       </c>
       <c r="N110">
-        <v>-180728177000</v>
+        <v>-168010507400</v>
       </c>
       <c r="O110">
         <v>-111073800</v>
       </c>
       <c r="P110">
-        <v>-1353466199000</v>
+        <v>-1250975991800</v>
       </c>
     </row>
     <row r="111">
@@ -5916,25 +5916,25 @@
         <v>158300</v>
       </c>
       <c r="E111">
-        <v>301166335000</v>
+        <v>276890035600</v>
       </c>
       <c r="F111">
-        <v>56985295000</v>
+        <v>51517368400</v>
       </c>
       <c r="G111">
-        <v>2557308000</v>
+        <v>2554311000</v>
       </c>
       <c r="H111">
         <v>22100700</v>
       </c>
       <c r="I111">
-        <v>360708938000</v>
+        <v>330961715000</v>
       </c>
       <c r="J111" t="str">
         <v>2022-12-21T14:14:00.000Z</v>
       </c>
       <c r="K111">
-        <v>8306141695000</v>
+        <v>7639323081100</v>
       </c>
       <c r="L111">
         <v>526511500</v>
@@ -5943,13 +5943,13 @@
         <v>-15391000</v>
       </c>
       <c r="N111">
-        <v>-244181040000</v>
+        <v>-225372667200</v>
       </c>
       <c r="O111">
         <v>-126464800</v>
       </c>
       <c r="P111">
-        <v>-1597647239000</v>
+        <v>-1476348659000</v>
       </c>
     </row>
     <row r="112">
@@ -5966,25 +5966,25 @@
         <v>367400</v>
       </c>
       <c r="E112">
-        <v>222739409000</v>
+        <v>192554923700</v>
       </c>
       <c r="F112">
-        <v>90551297000</v>
+        <v>85207246400</v>
       </c>
       <c r="G112">
-        <v>5111814000</v>
+        <v>5109915900</v>
       </c>
       <c r="H112">
         <v>20369100</v>
       </c>
       <c r="I112">
-        <v>318402520000</v>
+        <v>282872086000</v>
       </c>
       <c r="J112" t="str">
         <v>2022-12-21T14:16:00.000Z</v>
       </c>
       <c r="K112">
-        <v>8624544215000</v>
+        <v>7922195167100</v>
       </c>
       <c r="L112">
         <v>546880600</v>
@@ -5993,13 +5993,13 @@
         <v>-8290900</v>
       </c>
       <c r="N112">
-        <v>-132188112000</v>
+        <v>-107347677300</v>
       </c>
       <c r="O112">
         <v>-134755700</v>
       </c>
       <c r="P112">
-        <v>-1729835351000</v>
+        <v>-1583696336300</v>
       </c>
     </row>
     <row r="113">
@@ -6016,25 +6016,25 @@
         <v>102500</v>
       </c>
       <c r="E113">
-        <v>187102865000</v>
+        <v>175569110300</v>
       </c>
       <c r="F113">
-        <v>100914759000</v>
+        <v>96013165500</v>
       </c>
       <c r="G113">
-        <v>1534457000</v>
+        <v>1314277400</v>
       </c>
       <c r="H113">
         <v>18155400</v>
       </c>
       <c r="I113">
-        <v>289552081000</v>
+        <v>272896553200</v>
       </c>
       <c r="J113" t="str">
         <v>2022-12-21T14:18:00.000Z</v>
       </c>
       <c r="K113">
-        <v>8914096296000</v>
+        <v>8195091720300</v>
       </c>
       <c r="L113">
         <v>565036000</v>
@@ -6043,13 +6043,13 @@
         <v>-6296500</v>
       </c>
       <c r="N113">
-        <v>-86188106000</v>
+        <v>-79555944800</v>
       </c>
       <c r="O113">
         <v>-141052200</v>
       </c>
       <c r="P113">
-        <v>-1816023457000</v>
+        <v>-1663252281100</v>
       </c>
     </row>
     <row r="114">
@@ -6066,10 +6066,10 @@
         <v>97300</v>
       </c>
       <c r="E114">
-        <v>59010914000</v>
+        <v>55543984400</v>
       </c>
       <c r="F114">
-        <v>168139165000</v>
+        <v>156815000500</v>
       </c>
       <c r="G114">
         <v>1831099000</v>
@@ -6078,13 +6078,13 @@
         <v>13807400</v>
       </c>
       <c r="I114">
-        <v>228981178000</v>
+        <v>214190083900</v>
       </c>
       <c r="J114" t="str">
         <v>2022-12-21T14:20:00.000Z</v>
       </c>
       <c r="K114">
-        <v>9143077474000</v>
+        <v>8409281804200</v>
       </c>
       <c r="L114">
         <v>578843400</v>
@@ -6093,13 +6093,13 @@
         <v>6410900</v>
       </c>
       <c r="N114">
-        <v>109128251000</v>
+        <v>101271016100</v>
       </c>
       <c r="O114">
         <v>-134641300</v>
       </c>
       <c r="P114">
-        <v>-1706895206000</v>
+        <v>-1561981265000</v>
       </c>
     </row>
     <row r="115">
@@ -6116,10 +6116,10 @@
         <v>160400</v>
       </c>
       <c r="E115">
-        <v>53032392000</v>
+        <v>49806021600</v>
       </c>
       <c r="F115">
-        <v>126743308000</v>
+        <v>120244613200</v>
       </c>
       <c r="G115">
         <v>2623282000</v>
@@ -6128,13 +6128,13 @@
         <v>11692500</v>
       </c>
       <c r="I115">
-        <v>182398982000</v>
+        <v>172673916800</v>
       </c>
       <c r="J115" t="str">
         <v>2022-12-21T14:22:00.000Z</v>
       </c>
       <c r="K115">
-        <v>9325476456000</v>
+        <v>8581955721000</v>
       </c>
       <c r="L115">
         <v>590535900</v>
@@ -6143,13 +6143,13 @@
         <v>5071500</v>
       </c>
       <c r="N115">
-        <v>73710916000</v>
+        <v>70438591600</v>
       </c>
       <c r="O115">
         <v>-129569800</v>
       </c>
       <c r="P115">
-        <v>-1633184290000</v>
+        <v>-1491542673400</v>
       </c>
     </row>
     <row r="116">
@@ -6166,25 +6166,25 @@
         <v>47200</v>
       </c>
       <c r="E116">
-        <v>37668102000</v>
+        <v>35113059600</v>
       </c>
       <c r="F116">
-        <v>109946881000</v>
+        <v>101657878300</v>
       </c>
       <c r="G116">
-        <v>564343000</v>
+        <v>512395000</v>
       </c>
       <c r="H116">
         <v>10231800</v>
       </c>
       <c r="I116">
-        <v>148179326000</v>
+        <v>137283332900</v>
       </c>
       <c r="J116" t="str">
         <v>2022-12-21T14:24:00.000Z</v>
       </c>
       <c r="K116">
-        <v>9473655782000</v>
+        <v>8719239053900</v>
       </c>
       <c r="L116">
         <v>600767700</v>
@@ -6193,13 +6193,13 @@
         <v>5702200</v>
       </c>
       <c r="N116">
-        <v>72278779000</v>
+        <v>66544818700</v>
       </c>
       <c r="O116">
         <v>-123867600</v>
       </c>
       <c r="P116">
-        <v>-1560905511000</v>
+        <v>-1424997854700</v>
       </c>
     </row>
     <row r="117">
@@ -6216,25 +6216,25 @@
         <v>82200</v>
       </c>
       <c r="E117">
-        <v>44869408000</v>
+        <v>42432847000</v>
       </c>
       <c r="F117">
-        <v>171780464000</v>
+        <v>134768013500</v>
       </c>
       <c r="G117">
-        <v>1241229000</v>
+        <v>1229241000</v>
       </c>
       <c r="H117">
         <v>14195000</v>
       </c>
       <c r="I117">
-        <v>217891101000</v>
+        <v>178430101500</v>
       </c>
       <c r="J117" t="str">
         <v>2022-12-21T14:26:00.000Z</v>
       </c>
       <c r="K117">
-        <v>9691546883000</v>
+        <v>8897669155400</v>
       </c>
       <c r="L117">
         <v>614962700</v>
@@ -6243,13 +6243,13 @@
         <v>7373400</v>
       </c>
       <c r="N117">
-        <v>126911056000</v>
+        <v>92335166500</v>
       </c>
       <c r="O117">
         <v>-116494200</v>
       </c>
       <c r="P117">
-        <v>-1433994455000</v>
+        <v>-1332662688200</v>
       </c>
     </row>
     <row r="118">
@@ -6266,25 +6266,25 @@
         <v>95600</v>
       </c>
       <c r="E118">
-        <v>53173457000</v>
+        <v>48138596900</v>
       </c>
       <c r="F118">
-        <v>128929374000</v>
+        <v>123839469000</v>
       </c>
       <c r="G118">
-        <v>1565137000</v>
+        <v>1427774500</v>
       </c>
       <c r="H118">
         <v>13525000</v>
       </c>
       <c r="I118">
-        <v>183667968000</v>
+        <v>173405840400</v>
       </c>
       <c r="J118" t="str">
         <v>2022-12-21T14:28:00.000Z</v>
       </c>
       <c r="K118">
-        <v>9875214851000</v>
+        <v>9071074995800</v>
       </c>
       <c r="L118">
         <v>628487700</v>
@@ -6293,13 +6293,13 @@
         <v>6464000</v>
       </c>
       <c r="N118">
-        <v>75755917000</v>
+        <v>75700872100</v>
       </c>
       <c r="O118">
         <v>-110030200</v>
       </c>
       <c r="P118">
-        <v>-1358238538000</v>
+        <v>-1256961816100</v>
       </c>
     </row>
     <row r="119">
@@ -6322,19 +6322,19 @@
         <v>133275000</v>
       </c>
       <c r="G119">
-        <v>20000000</v>
+        <v>20000</v>
       </c>
       <c r="H119">
         <v>25200</v>
       </c>
       <c r="I119">
-        <v>479501000</v>
+        <v>459521000</v>
       </c>
       <c r="J119" t="str">
         <v>2022-12-21T14:30:00.000Z</v>
       </c>
       <c r="K119">
-        <v>9875694352000</v>
+        <v>9071534516800</v>
       </c>
       <c r="L119">
         <v>628512900</v>
@@ -6349,7 +6349,7 @@
         <v>-110029800</v>
       </c>
       <c r="P119">
-        <v>-1358431489000</v>
+        <v>-1257154767100</v>
       </c>
     </row>
     <row r="120">
@@ -6369,22 +6369,22 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1000000</v>
+        <v>1000</v>
       </c>
       <c r="G120">
-        <v>1000000</v>
+        <v>1000</v>
       </c>
       <c r="H120">
         <v>200</v>
       </c>
       <c r="I120">
-        <v>2000000</v>
+        <v>2000</v>
       </c>
       <c r="J120" t="str">
         <v>2022-12-21T14:38:00.000Z</v>
       </c>
       <c r="K120">
-        <v>9875696352000</v>
+        <v>9071534518800</v>
       </c>
       <c r="L120">
         <v>628513100</v>
@@ -6393,13 +6393,13 @@
         <v>100</v>
       </c>
       <c r="N120">
-        <v>1000000</v>
+        <v>1000</v>
       </c>
       <c r="O120">
         <v>-110029700</v>
       </c>
       <c r="P120">
-        <v>-1358430489000</v>
+        <v>-1257154766100</v>
       </c>
     </row>
     <row r="121">
@@ -6416,25 +6416,25 @@
         <v>23259200</v>
       </c>
       <c r="E121">
-        <v>130766965000</v>
+        <v>113799749200</v>
       </c>
       <c r="F121">
-        <v>181447291000</v>
+        <v>178558582600</v>
       </c>
       <c r="G121">
-        <v>441832085000</v>
+        <v>400453704800</v>
       </c>
       <c r="H121">
         <v>38093200</v>
       </c>
       <c r="I121">
-        <v>754046341000</v>
+        <v>692812036600</v>
       </c>
       <c r="J121" t="str">
         <v>2022-12-21T14:44:00.000Z</v>
       </c>
       <c r="K121">
-        <v>10629742693000</v>
+        <v>9764346555400</v>
       </c>
       <c r="L121">
         <v>666606300</v>
@@ -6443,13 +6443,13 @@
         <v>3198200</v>
       </c>
       <c r="N121">
-        <v>50680326000</v>
+        <v>64758833400</v>
       </c>
       <c r="O121">
         <v>-106831500</v>
       </c>
       <c r="P121">
-        <v>-1307750163000</v>
+        <v>-1192395932700</v>
       </c>
     </row>
     <row r="122">
@@ -6484,7 +6484,7 @@
         <v>2022-12-21T14:48:00.000Z</v>
       </c>
       <c r="K122">
-        <v>10629747743000</v>
+        <v>9764351605400</v>
       </c>
       <c r="L122">
         <v>666606800</v>
@@ -6499,7 +6499,7 @@
         <v>-106831000</v>
       </c>
       <c r="P122">
-        <v>-1307745113000</v>
+        <v>-1192390882700</v>
       </c>
     </row>
     <row r="123">
@@ -6534,7 +6534,7 @@
         <v>2022-12-21T14:58:00.000Z</v>
       </c>
       <c r="K123">
-        <v>10629748753000</v>
+        <v>9764352615400</v>
       </c>
       <c r="L123">
         <v>666606900</v>
@@ -6549,7 +6549,7 @@
         <v>-106830900</v>
       </c>
       <c r="P123">
-        <v>-1307744103000</v>
+        <v>-1192389872700</v>
       </c>
     </row>
   </sheetData>

--- a/name/vnindex/20221221/VNINDEX_HOSE_5p_20221221.xlsx
+++ b/name/vnindex/20221221/VNINDEX_HOSE_5p_20221221.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P123"/>
+  <dimension ref="A1:AC123"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -451,6 +451,45 @@
       <c r="P1" t="str">
         <v>acum_busd_val</v>
       </c>
+      <c r="Q1" t="str">
+        <v>acum_val_bu</v>
+      </c>
+      <c r="R1" t="str">
+        <v>acum_val_sd</v>
+      </c>
+      <c r="S1" t="str">
+        <v>accum_bu</v>
+      </c>
+      <c r="T1" t="str">
+        <v>accum_sd</v>
+      </c>
+      <c r="U1" t="str">
+        <v>avg_val_bu</v>
+      </c>
+      <c r="V1" t="str">
+        <v>avg_val_sd</v>
+      </c>
+      <c r="W1" t="str">
+        <v>avg_val</v>
+      </c>
+      <c r="X1" t="str">
+        <v>avg_vol</v>
+      </c>
+      <c r="Y1" t="str">
+        <v>avg_bu</v>
+      </c>
+      <c r="Z1" t="str">
+        <v>avg_sd</v>
+      </c>
+      <c r="AA1" t="str">
+        <v>avg_busd</v>
+      </c>
+      <c r="AB1" t="str">
+        <v>avg_busd_val</v>
+      </c>
+      <c r="AC1" t="str">
+        <v>rbusd</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
@@ -501,6 +540,45 @@
       <c r="P2">
         <v>2039999.9999999998</v>
       </c>
+      <c r="Q2">
+        <v>2039999.9999999998</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>200</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>33033558627</v>
+      </c>
+      <c r="V2">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W2">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X2">
+        <v>5463991</v>
+      </c>
+      <c r="Y2">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z2">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA2">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB2">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3">
@@ -551,6 +629,45 @@
       <c r="P3">
         <v>-4080000</v>
       </c>
+      <c r="Q3">
+        <v>8280000</v>
+      </c>
+      <c r="R3">
+        <v>12360000</v>
+      </c>
+      <c r="S3">
+        <v>800</v>
+      </c>
+      <c r="T3">
+        <v>1200</v>
+      </c>
+      <c r="U3">
+        <v>33033558627</v>
+      </c>
+      <c r="V3">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W3">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X3">
+        <v>5463991</v>
+      </c>
+      <c r="Y3">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z3">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA3">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB3">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4">
@@ -601,6 +718,45 @@
       <c r="P4">
         <v>-4080000</v>
       </c>
+      <c r="Q4">
+        <v>8280000</v>
+      </c>
+      <c r="R4">
+        <v>12360000</v>
+      </c>
+      <c r="S4">
+        <v>800</v>
+      </c>
+      <c r="T4">
+        <v>1200</v>
+      </c>
+      <c r="U4">
+        <v>33033558627</v>
+      </c>
+      <c r="V4">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W4">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X4">
+        <v>5463991</v>
+      </c>
+      <c r="Y4">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z4">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA4">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB4">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5">
@@ -651,6 +807,45 @@
       <c r="P5">
         <v>4587252700</v>
       </c>
+      <c r="Q5">
+        <v>49651219600</v>
+      </c>
+      <c r="R5">
+        <v>45063966900</v>
+      </c>
+      <c r="S5">
+        <v>3923100</v>
+      </c>
+      <c r="T5">
+        <v>4941900</v>
+      </c>
+      <c r="U5">
+        <v>33033558627</v>
+      </c>
+      <c r="V5">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W5">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X5">
+        <v>5463991</v>
+      </c>
+      <c r="Y5">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z5">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA5">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB5">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC5">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6">
@@ -701,6 +896,45 @@
       <c r="P6">
         <v>9855006800</v>
       </c>
+      <c r="Q6">
+        <v>84408135500</v>
+      </c>
+      <c r="R6">
+        <v>74553128700</v>
+      </c>
+      <c r="S6">
+        <v>6206900</v>
+      </c>
+      <c r="T6">
+        <v>7056700</v>
+      </c>
+      <c r="U6">
+        <v>33033558627</v>
+      </c>
+      <c r="V6">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W6">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X6">
+        <v>5463991</v>
+      </c>
+      <c r="Y6">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z6">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA6">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB6">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC6">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7">
@@ -751,6 +985,45 @@
       <c r="P7">
         <v>-5818913100</v>
       </c>
+      <c r="Q7">
+        <v>113470380200</v>
+      </c>
+      <c r="R7">
+        <v>119289293300</v>
+      </c>
+      <c r="S7">
+        <v>7934900</v>
+      </c>
+      <c r="T7">
+        <v>10277700</v>
+      </c>
+      <c r="U7">
+        <v>33033558627</v>
+      </c>
+      <c r="V7">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W7">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X7">
+        <v>5463991</v>
+      </c>
+      <c r="Y7">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z7">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA7">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB7">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC7">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8">
@@ -801,6 +1074,45 @@
       <c r="P8">
         <v>2943345500</v>
       </c>
+      <c r="Q8">
+        <v>170447513600</v>
+      </c>
+      <c r="R8">
+        <v>167504168100</v>
+      </c>
+      <c r="S8">
+        <v>11004000</v>
+      </c>
+      <c r="T8">
+        <v>13506000</v>
+      </c>
+      <c r="U8">
+        <v>33033558627</v>
+      </c>
+      <c r="V8">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W8">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X8">
+        <v>5463991</v>
+      </c>
+      <c r="Y8">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z8">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA8">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB8">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC8">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9">
@@ -851,6 +1163,45 @@
       <c r="P9">
         <v>-9793485000</v>
       </c>
+      <c r="Q9">
+        <v>196442228400</v>
+      </c>
+      <c r="R9">
+        <v>206235713400</v>
+      </c>
+      <c r="S9">
+        <v>12732600</v>
+      </c>
+      <c r="T9">
+        <v>16237500</v>
+      </c>
+      <c r="U9">
+        <v>33033558627</v>
+      </c>
+      <c r="V9">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W9">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X9">
+        <v>5463991</v>
+      </c>
+      <c r="Y9">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z9">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA9">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB9">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC9">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10">
@@ -901,6 +1252,45 @@
       <c r="P10">
         <v>-6118625500</v>
       </c>
+      <c r="Q10">
+        <v>236293128200</v>
+      </c>
+      <c r="R10">
+        <v>242411753700</v>
+      </c>
+      <c r="S10">
+        <v>14934100</v>
+      </c>
+      <c r="T10">
+        <v>18811800</v>
+      </c>
+      <c r="U10">
+        <v>33033558627</v>
+      </c>
+      <c r="V10">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W10">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X10">
+        <v>5463991</v>
+      </c>
+      <c r="Y10">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z10">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA10">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB10">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC10">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11">
@@ -951,6 +1341,45 @@
       <c r="P11">
         <v>9634366500</v>
       </c>
+      <c r="Q11">
+        <v>273038939800</v>
+      </c>
+      <c r="R11">
+        <v>263404573300</v>
+      </c>
+      <c r="S11">
+        <v>17101800</v>
+      </c>
+      <c r="T11">
+        <v>20200000</v>
+      </c>
+      <c r="U11">
+        <v>33033558627</v>
+      </c>
+      <c r="V11">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W11">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X11">
+        <v>5463991</v>
+      </c>
+      <c r="Y11">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z11">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA11">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB11">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC11">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12">
@@ -1001,6 +1430,45 @@
       <c r="P12">
         <v>8699175000</v>
       </c>
+      <c r="Q12">
+        <v>291738531100</v>
+      </c>
+      <c r="R12">
+        <v>283039356100</v>
+      </c>
+      <c r="S12">
+        <v>18341500</v>
+      </c>
+      <c r="T12">
+        <v>21609200</v>
+      </c>
+      <c r="U12">
+        <v>33033558627</v>
+      </c>
+      <c r="V12">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W12">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X12">
+        <v>5463991</v>
+      </c>
+      <c r="Y12">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z12">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA12">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB12">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC12">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13">
@@ -1051,6 +1519,45 @@
       <c r="P13">
         <v>-2792590800</v>
       </c>
+      <c r="Q13">
+        <v>306084251900</v>
+      </c>
+      <c r="R13">
+        <v>308876842700</v>
+      </c>
+      <c r="S13">
+        <v>19351600</v>
+      </c>
+      <c r="T13">
+        <v>23310000</v>
+      </c>
+      <c r="U13">
+        <v>33033558627</v>
+      </c>
+      <c r="V13">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W13">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X13">
+        <v>5463991</v>
+      </c>
+      <c r="Y13">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z13">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA13">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB13">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC13">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14">
@@ -1101,6 +1608,45 @@
       <c r="P14">
         <v>-24714145500</v>
       </c>
+      <c r="Q14">
+        <v>320843687900</v>
+      </c>
+      <c r="R14">
+        <v>345557833400</v>
+      </c>
+      <c r="S14">
+        <v>20340500</v>
+      </c>
+      <c r="T14">
+        <v>25855400</v>
+      </c>
+      <c r="U14">
+        <v>33033558627</v>
+      </c>
+      <c r="V14">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W14">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X14">
+        <v>5463991</v>
+      </c>
+      <c r="Y14">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z14">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA14">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB14">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC14">
+        <v>2.2</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15">
@@ -1151,6 +1697,45 @@
       <c r="P15">
         <v>-65298738000</v>
       </c>
+      <c r="Q15">
+        <v>343681747900</v>
+      </c>
+      <c r="R15">
+        <v>408980485900</v>
+      </c>
+      <c r="S15">
+        <v>21755300</v>
+      </c>
+      <c r="T15">
+        <v>30218200</v>
+      </c>
+      <c r="U15">
+        <v>33033558627</v>
+      </c>
+      <c r="V15">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W15">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X15">
+        <v>5463991</v>
+      </c>
+      <c r="Y15">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z15">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA15">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB15">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC15">
+        <v>4.2</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16">
@@ -1201,6 +1786,45 @@
       <c r="P16">
         <v>-107464161700</v>
       </c>
+      <c r="Q16">
+        <v>354324735100</v>
+      </c>
+      <c r="R16">
+        <v>461788896800</v>
+      </c>
+      <c r="S16">
+        <v>22559800</v>
+      </c>
+      <c r="T16">
+        <v>34221600</v>
+      </c>
+      <c r="U16">
+        <v>33033558627</v>
+      </c>
+      <c r="V16">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W16">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X16">
+        <v>5463991</v>
+      </c>
+      <c r="Y16">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z16">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA16">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB16">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC16">
+        <v>4.3</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17">
@@ -1251,6 +1875,45 @@
       <c r="P17">
         <v>-111155414200</v>
       </c>
+      <c r="Q17">
+        <v>389708862800</v>
+      </c>
+      <c r="R17">
+        <v>500864277000</v>
+      </c>
+      <c r="S17">
+        <v>24069200</v>
+      </c>
+      <c r="T17">
+        <v>37571200</v>
+      </c>
+      <c r="U17">
+        <v>33033558627</v>
+      </c>
+      <c r="V17">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W17">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X17">
+        <v>5463991</v>
+      </c>
+      <c r="Y17">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z17">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA17">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB17">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC17">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18">
@@ -1301,6 +1964,45 @@
       <c r="P18">
         <v>-113569306500</v>
       </c>
+      <c r="Q18">
+        <v>416570378100</v>
+      </c>
+      <c r="R18">
+        <v>530139684600</v>
+      </c>
+      <c r="S18">
+        <v>25635500</v>
+      </c>
+      <c r="T18">
+        <v>39611700</v>
+      </c>
+      <c r="U18">
+        <v>33033558627</v>
+      </c>
+      <c r="V18">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W18">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X18">
+        <v>5463991</v>
+      </c>
+      <c r="Y18">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z18">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA18">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB18">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC18">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19">
@@ -1351,6 +2053,45 @@
       <c r="P19">
         <v>-104629588500</v>
       </c>
+      <c r="Q19">
+        <v>443851910700</v>
+      </c>
+      <c r="R19">
+        <v>548481499200</v>
+      </c>
+      <c r="S19">
+        <v>27562600</v>
+      </c>
+      <c r="T19">
+        <v>40820100</v>
+      </c>
+      <c r="U19">
+        <v>33033558627</v>
+      </c>
+      <c r="V19">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W19">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X19">
+        <v>5463991</v>
+      </c>
+      <c r="Y19">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z19">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA19">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB19">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC19">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20">
@@ -1401,6 +2142,45 @@
       <c r="P20">
         <v>-96260202700</v>
       </c>
+      <c r="Q20">
+        <v>466357968400</v>
+      </c>
+      <c r="R20">
+        <v>562618171100</v>
+      </c>
+      <c r="S20">
+        <v>28787400</v>
+      </c>
+      <c r="T20">
+        <v>41737100</v>
+      </c>
+      <c r="U20">
+        <v>33033558627</v>
+      </c>
+      <c r="V20">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W20">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X20">
+        <v>5463991</v>
+      </c>
+      <c r="Y20">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z20">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA20">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB20">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC20">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21">
@@ -1451,6 +2231,45 @@
       <c r="P21">
         <v>-97572212100</v>
       </c>
+      <c r="Q21">
+        <v>481600312900</v>
+      </c>
+      <c r="R21">
+        <v>579172525000</v>
+      </c>
+      <c r="S21">
+        <v>29870000</v>
+      </c>
+      <c r="T21">
+        <v>42915200</v>
+      </c>
+      <c r="U21">
+        <v>33033558627</v>
+      </c>
+      <c r="V21">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W21">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X21">
+        <v>5463991</v>
+      </c>
+      <c r="Y21">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z21">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA21">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB21">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC21">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22">
@@ -1501,6 +2320,45 @@
       <c r="P22">
         <v>-94534719500</v>
       </c>
+      <c r="Q22">
+        <v>498827734200</v>
+      </c>
+      <c r="R22">
+        <v>593362453700</v>
+      </c>
+      <c r="S22">
+        <v>30815000</v>
+      </c>
+      <c r="T22">
+        <v>43885800</v>
+      </c>
+      <c r="U22">
+        <v>33033558627</v>
+      </c>
+      <c r="V22">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W22">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X22">
+        <v>5463991</v>
+      </c>
+      <c r="Y22">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z22">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA22">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB22">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC22">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23">
@@ -1551,6 +2409,45 @@
       <c r="P23">
         <v>-96657139100</v>
       </c>
+      <c r="Q23">
+        <v>512324121000</v>
+      </c>
+      <c r="R23">
+        <v>608981260100</v>
+      </c>
+      <c r="S23">
+        <v>31569600</v>
+      </c>
+      <c r="T23">
+        <v>44914700</v>
+      </c>
+      <c r="U23">
+        <v>33033558627</v>
+      </c>
+      <c r="V23">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W23">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X23">
+        <v>5463991</v>
+      </c>
+      <c r="Y23">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z23">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA23">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB23">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC23">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24">
@@ -1601,6 +2498,45 @@
       <c r="P24">
         <v>-89830657300</v>
       </c>
+      <c r="Q24">
+        <v>528690485500</v>
+      </c>
+      <c r="R24">
+        <v>618521142800</v>
+      </c>
+      <c r="S24">
+        <v>32676300</v>
+      </c>
+      <c r="T24">
+        <v>45444500</v>
+      </c>
+      <c r="U24">
+        <v>33033558627</v>
+      </c>
+      <c r="V24">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W24">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X24">
+        <v>5463991</v>
+      </c>
+      <c r="Y24">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z24">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA24">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB24">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC24">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25">
@@ -1651,6 +2587,45 @@
       <c r="P25">
         <v>-76207303000</v>
       </c>
+      <c r="Q25">
+        <v>553422220600</v>
+      </c>
+      <c r="R25">
+        <v>629629523600</v>
+      </c>
+      <c r="S25">
+        <v>34282000</v>
+      </c>
+      <c r="T25">
+        <v>46105900</v>
+      </c>
+      <c r="U25">
+        <v>33033558627</v>
+      </c>
+      <c r="V25">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W25">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X25">
+        <v>5463991</v>
+      </c>
+      <c r="Y25">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z25">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA25">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB25">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC25">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26">
@@ -1701,6 +2676,45 @@
       <c r="P26">
         <v>-60332825400</v>
       </c>
+      <c r="Q26">
+        <v>580074574100</v>
+      </c>
+      <c r="R26">
+        <v>640407399500</v>
+      </c>
+      <c r="S26">
+        <v>36187400</v>
+      </c>
+      <c r="T26">
+        <v>46835800</v>
+      </c>
+      <c r="U26">
+        <v>33033558627</v>
+      </c>
+      <c r="V26">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W26">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X26">
+        <v>5463991</v>
+      </c>
+      <c r="Y26">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z26">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA26">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB26">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC26">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27">
@@ -1751,6 +2765,45 @@
       <c r="P27">
         <v>-56272857500</v>
       </c>
+      <c r="Q27">
+        <v>597654521900</v>
+      </c>
+      <c r="R27">
+        <v>653927379400</v>
+      </c>
+      <c r="S27">
+        <v>37355700</v>
+      </c>
+      <c r="T27">
+        <v>47806500</v>
+      </c>
+      <c r="U27">
+        <v>33033558627</v>
+      </c>
+      <c r="V27">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W27">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X27">
+        <v>5463991</v>
+      </c>
+      <c r="Y27">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z27">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA27">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB27">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC27">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28">
@@ -1801,6 +2854,45 @@
       <c r="P28">
         <v>-56362821500</v>
       </c>
+      <c r="Q28">
+        <v>613414627200</v>
+      </c>
+      <c r="R28">
+        <v>669777448700</v>
+      </c>
+      <c r="S28">
+        <v>38620300</v>
+      </c>
+      <c r="T28">
+        <v>48879000</v>
+      </c>
+      <c r="U28">
+        <v>33033558627</v>
+      </c>
+      <c r="V28">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W28">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X28">
+        <v>5463991</v>
+      </c>
+      <c r="Y28">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z28">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA28">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB28">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC28">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29">
@@ -1851,6 +2943,45 @@
       <c r="P29">
         <v>-73883559200</v>
       </c>
+      <c r="Q29">
+        <v>623199641500</v>
+      </c>
+      <c r="R29">
+        <v>697083200700</v>
+      </c>
+      <c r="S29">
+        <v>39284800</v>
+      </c>
+      <c r="T29">
+        <v>50755200</v>
+      </c>
+      <c r="U29">
+        <v>33033558627</v>
+      </c>
+      <c r="V29">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W29">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X29">
+        <v>5463991</v>
+      </c>
+      <c r="Y29">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z29">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA29">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB29">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC29">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30">
@@ -1901,6 +3032,45 @@
       <c r="P30">
         <v>-89260513700</v>
       </c>
+      <c r="Q30">
+        <v>628558436500</v>
+      </c>
+      <c r="R30">
+        <v>717818950200</v>
+      </c>
+      <c r="S30">
+        <v>39709900</v>
+      </c>
+      <c r="T30">
+        <v>52184400</v>
+      </c>
+      <c r="U30">
+        <v>33033558627</v>
+      </c>
+      <c r="V30">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W30">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X30">
+        <v>5463991</v>
+      </c>
+      <c r="Y30">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z30">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA30">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB30">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC30">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31">
@@ -1951,6 +3121,45 @@
       <c r="P31">
         <v>-115209716000</v>
       </c>
+      <c r="Q31">
+        <v>637502357300</v>
+      </c>
+      <c r="R31">
+        <v>752712073300</v>
+      </c>
+      <c r="S31">
+        <v>40268200</v>
+      </c>
+      <c r="T31">
+        <v>54432400</v>
+      </c>
+      <c r="U31">
+        <v>33033558627</v>
+      </c>
+      <c r="V31">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W31">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X31">
+        <v>5463991</v>
+      </c>
+      <c r="Y31">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z31">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA31">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB31">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC31">
+        <v>2.7</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32">
@@ -2001,6 +3210,45 @@
       <c r="P32">
         <v>-134408256700</v>
       </c>
+      <c r="Q32">
+        <v>647200106900</v>
+      </c>
+      <c r="R32">
+        <v>781608363600</v>
+      </c>
+      <c r="S32">
+        <v>41030000</v>
+      </c>
+      <c r="T32">
+        <v>56431400</v>
+      </c>
+      <c r="U32">
+        <v>33033558627</v>
+      </c>
+      <c r="V32">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W32">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X32">
+        <v>5463991</v>
+      </c>
+      <c r="Y32">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z32">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA32">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB32">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC32">
+        <v>2</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33">
@@ -2051,6 +3299,45 @@
       <c r="P33">
         <v>-159583265600</v>
       </c>
+      <c r="Q33">
+        <v>654697157900</v>
+      </c>
+      <c r="R33">
+        <v>814280423500</v>
+      </c>
+      <c r="S33">
+        <v>41598300</v>
+      </c>
+      <c r="T33">
+        <v>58646300</v>
+      </c>
+      <c r="U33">
+        <v>33033558627</v>
+      </c>
+      <c r="V33">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W33">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X33">
+        <v>5463991</v>
+      </c>
+      <c r="Y33">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z33">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA33">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB33">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC33">
+        <v>2.6</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34">
@@ -2101,6 +3388,45 @@
       <c r="P34">
         <v>-172667150200</v>
       </c>
+      <c r="Q34">
+        <v>661384206000</v>
+      </c>
+      <c r="R34">
+        <v>834051356200</v>
+      </c>
+      <c r="S34">
+        <v>42096500</v>
+      </c>
+      <c r="T34">
+        <v>60064400</v>
+      </c>
+      <c r="U34">
+        <v>33033558627</v>
+      </c>
+      <c r="V34">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W34">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X34">
+        <v>5463991</v>
+      </c>
+      <c r="Y34">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z34">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA34">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB34">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC34">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35">
@@ -2151,6 +3477,45 @@
       <c r="P35">
         <v>-191950790600</v>
       </c>
+      <c r="Q35">
+        <v>671476767500</v>
+      </c>
+      <c r="R35">
+        <v>863427558100</v>
+      </c>
+      <c r="S35">
+        <v>42738000</v>
+      </c>
+      <c r="T35">
+        <v>61935400</v>
+      </c>
+      <c r="U35">
+        <v>33033558627</v>
+      </c>
+      <c r="V35">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W35">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X35">
+        <v>5463991</v>
+      </c>
+      <c r="Y35">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z35">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA35">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB35">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC35">
+        <v>2</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36">
@@ -2201,6 +3566,45 @@
       <c r="P36">
         <v>-213578244100</v>
       </c>
+      <c r="Q36">
+        <v>678077804300</v>
+      </c>
+      <c r="R36">
+        <v>891656048400</v>
+      </c>
+      <c r="S36">
+        <v>43191000</v>
+      </c>
+      <c r="T36">
+        <v>64148300</v>
+      </c>
+      <c r="U36">
+        <v>33033558627</v>
+      </c>
+      <c r="V36">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W36">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X36">
+        <v>5463991</v>
+      </c>
+      <c r="Y36">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z36">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA36">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB36">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC36">
+        <v>2.2</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37">
@@ -2251,6 +3655,45 @@
       <c r="P37">
         <v>-250572319200</v>
       </c>
+      <c r="Q37">
+        <v>688691769000</v>
+      </c>
+      <c r="R37">
+        <v>939264088200</v>
+      </c>
+      <c r="S37">
+        <v>43862400</v>
+      </c>
+      <c r="T37">
+        <v>67518900</v>
+      </c>
+      <c r="U37">
+        <v>33033558627</v>
+      </c>
+      <c r="V37">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W37">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X37">
+        <v>5463991</v>
+      </c>
+      <c r="Y37">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z37">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA37">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB37">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC37">
+        <v>3.8</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38">
@@ -2301,6 +3744,45 @@
       <c r="P38">
         <v>-259346779300</v>
       </c>
+      <c r="Q38">
+        <v>705220707200</v>
+      </c>
+      <c r="R38">
+        <v>964567486500</v>
+      </c>
+      <c r="S38">
+        <v>44930100</v>
+      </c>
+      <c r="T38">
+        <v>69500800</v>
+      </c>
+      <c r="U38">
+        <v>33033558627</v>
+      </c>
+      <c r="V38">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W38">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X38">
+        <v>5463991</v>
+      </c>
+      <c r="Y38">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z38">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA38">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB38">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC38">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39">
@@ -2351,6 +3833,45 @@
       <c r="P39">
         <v>-255529826300</v>
       </c>
+      <c r="Q39">
+        <v>728425477000</v>
+      </c>
+      <c r="R39">
+        <v>983955303300</v>
+      </c>
+      <c r="S39">
+        <v>46551900</v>
+      </c>
+      <c r="T39">
+        <v>71024900</v>
+      </c>
+      <c r="U39">
+        <v>33033558627</v>
+      </c>
+      <c r="V39">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W39">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X39">
+        <v>5463991</v>
+      </c>
+      <c r="Y39">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z39">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA39">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB39">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC39">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40">
@@ -2401,6 +3922,45 @@
       <c r="P40">
         <v>-255757625900</v>
       </c>
+      <c r="Q40">
+        <v>741058565200</v>
+      </c>
+      <c r="R40">
+        <v>996816191100</v>
+      </c>
+      <c r="S40">
+        <v>47561400</v>
+      </c>
+      <c r="T40">
+        <v>71987800</v>
+      </c>
+      <c r="U40">
+        <v>33033558627</v>
+      </c>
+      <c r="V40">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W40">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X40">
+        <v>5463991</v>
+      </c>
+      <c r="Y40">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z40">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA40">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB40">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC40">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41">
@@ -2451,6 +4011,45 @@
       <c r="P41">
         <v>-264534156500</v>
       </c>
+      <c r="Q41">
+        <v>749469141400</v>
+      </c>
+      <c r="R41">
+        <v>1014003297900</v>
+      </c>
+      <c r="S41">
+        <v>48338500</v>
+      </c>
+      <c r="T41">
+        <v>73278600</v>
+      </c>
+      <c r="U41">
+        <v>33033558627</v>
+      </c>
+      <c r="V41">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W41">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X41">
+        <v>5463991</v>
+      </c>
+      <c r="Y41">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z41">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA41">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB41">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC41">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42">
@@ -2501,6 +4100,45 @@
       <c r="P42">
         <v>-275127437400</v>
       </c>
+      <c r="Q42">
+        <v>755620536800</v>
+      </c>
+      <c r="R42">
+        <v>1030747974200</v>
+      </c>
+      <c r="S42">
+        <v>48747800</v>
+      </c>
+      <c r="T42">
+        <v>74568000</v>
+      </c>
+      <c r="U42">
+        <v>33033558627</v>
+      </c>
+      <c r="V42">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W42">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X42">
+        <v>5463991</v>
+      </c>
+      <c r="Y42">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z42">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA42">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB42">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC42">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43">
@@ -2551,6 +4189,45 @@
       <c r="P43">
         <v>-279690403500</v>
       </c>
+      <c r="Q43">
+        <v>766162664100</v>
+      </c>
+      <c r="R43">
+        <v>1045853067600</v>
+      </c>
+      <c r="S43">
+        <v>49482700</v>
+      </c>
+      <c r="T43">
+        <v>75678600</v>
+      </c>
+      <c r="U43">
+        <v>33033558627</v>
+      </c>
+      <c r="V43">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W43">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X43">
+        <v>5463991</v>
+      </c>
+      <c r="Y43">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z43">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA43">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB43">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC43">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44">
@@ -2601,6 +4278,45 @@
       <c r="P44">
         <v>-277052800500</v>
       </c>
+      <c r="Q44">
+        <v>781129733500</v>
+      </c>
+      <c r="R44">
+        <v>1058182534000</v>
+      </c>
+      <c r="S44">
+        <v>50518000</v>
+      </c>
+      <c r="T44">
+        <v>76575300</v>
+      </c>
+      <c r="U44">
+        <v>33033558627</v>
+      </c>
+      <c r="V44">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W44">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X44">
+        <v>5463991</v>
+      </c>
+      <c r="Y44">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z44">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA44">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB44">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC44">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45">
@@ -2651,6 +4367,45 @@
       <c r="P45">
         <v>-269491797800</v>
       </c>
+      <c r="Q45">
+        <v>796469987400</v>
+      </c>
+      <c r="R45">
+        <v>1065961785200</v>
+      </c>
+      <c r="S45">
+        <v>51484900</v>
+      </c>
+      <c r="T45">
+        <v>77110200</v>
+      </c>
+      <c r="U45">
+        <v>33033558627</v>
+      </c>
+      <c r="V45">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W45">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X45">
+        <v>5463991</v>
+      </c>
+      <c r="Y45">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z45">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA45">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB45">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC45">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46">
@@ -2701,6 +4456,45 @@
       <c r="P46">
         <v>-260574194300</v>
       </c>
+      <c r="Q46">
+        <v>821677689500</v>
+      </c>
+      <c r="R46">
+        <v>1082251883800</v>
+      </c>
+      <c r="S46">
+        <v>53008600</v>
+      </c>
+      <c r="T46">
+        <v>78170700</v>
+      </c>
+      <c r="U46">
+        <v>33033558627</v>
+      </c>
+      <c r="V46">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W46">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X46">
+        <v>5463991</v>
+      </c>
+      <c r="Y46">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z46">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA46">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB46">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC46">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47">
@@ -2751,6 +4545,45 @@
       <c r="P47">
         <v>-263816850100</v>
       </c>
+      <c r="Q47">
+        <v>843158526200</v>
+      </c>
+      <c r="R47">
+        <v>1106975376300</v>
+      </c>
+      <c r="S47">
+        <v>54432900</v>
+      </c>
+      <c r="T47">
+        <v>79861100</v>
+      </c>
+      <c r="U47">
+        <v>33033558627</v>
+      </c>
+      <c r="V47">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W47">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X47">
+        <v>5463991</v>
+      </c>
+      <c r="Y47">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z47">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA47">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB47">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC47">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48">
@@ -2801,6 +4634,45 @@
       <c r="P48">
         <v>-252345838600</v>
       </c>
+      <c r="Q48">
+        <v>867070313300</v>
+      </c>
+      <c r="R48">
+        <v>1119416151900</v>
+      </c>
+      <c r="S48">
+        <v>55900600</v>
+      </c>
+      <c r="T48">
+        <v>80638600</v>
+      </c>
+      <c r="U48">
+        <v>33033558627</v>
+      </c>
+      <c r="V48">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W48">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X48">
+        <v>5463991</v>
+      </c>
+      <c r="Y48">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z48">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA48">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB48">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC48">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49">
@@ -2851,6 +4723,45 @@
       <c r="P49">
         <v>-224856736200</v>
       </c>
+      <c r="Q49">
+        <v>902988222700</v>
+      </c>
+      <c r="R49">
+        <v>1127844958900</v>
+      </c>
+      <c r="S49">
+        <v>57996100</v>
+      </c>
+      <c r="T49">
+        <v>81281000</v>
+      </c>
+      <c r="U49">
+        <v>33033558627</v>
+      </c>
+      <c r="V49">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W49">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X49">
+        <v>5463991</v>
+      </c>
+      <c r="Y49">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z49">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA49">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB49">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC49">
+        <v>2.8</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50">
@@ -2901,6 +4812,45 @@
       <c r="P50">
         <v>-176722240800</v>
       </c>
+      <c r="Q50">
+        <v>962797329200</v>
+      </c>
+      <c r="R50">
+        <v>1139519570000</v>
+      </c>
+      <c r="S50">
+        <v>61340200</v>
+      </c>
+      <c r="T50">
+        <v>82079300</v>
+      </c>
+      <c r="U50">
+        <v>33033558627</v>
+      </c>
+      <c r="V50">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W50">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X50">
+        <v>5463991</v>
+      </c>
+      <c r="Y50">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z50">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA50">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB50">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC50">
+        <v>4.9</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51">
@@ -2951,6 +4901,45 @@
       <c r="P51">
         <v>-151125361000</v>
       </c>
+      <c r="Q51">
+        <v>1001244543400</v>
+      </c>
+      <c r="R51">
+        <v>1152369904400</v>
+      </c>
+      <c r="S51">
+        <v>63526800</v>
+      </c>
+      <c r="T51">
+        <v>82918300</v>
+      </c>
+      <c r="U51">
+        <v>33033558627</v>
+      </c>
+      <c r="V51">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W51">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X51">
+        <v>5463991</v>
+      </c>
+      <c r="Y51">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z51">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA51">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB51">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC51">
+        <v>2.6</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52">
@@ -3001,6 +4990,45 @@
       <c r="P52">
         <v>-145064313200</v>
       </c>
+      <c r="Q52">
+        <v>1030759498300</v>
+      </c>
+      <c r="R52">
+        <v>1175823811500</v>
+      </c>
+      <c r="S52">
+        <v>65224900</v>
+      </c>
+      <c r="T52">
+        <v>84246000</v>
+      </c>
+      <c r="U52">
+        <v>33033558627</v>
+      </c>
+      <c r="V52">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W52">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X52">
+        <v>5463991</v>
+      </c>
+      <c r="Y52">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z52">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA52">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB52">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC52">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53">
@@ -3051,6 +5079,45 @@
       <c r="P53">
         <v>-163033772900</v>
       </c>
+      <c r="Q53">
+        <v>1039716074200</v>
+      </c>
+      <c r="R53">
+        <v>1202749847100</v>
+      </c>
+      <c r="S53">
+        <v>65766300</v>
+      </c>
+      <c r="T53">
+        <v>85850200</v>
+      </c>
+      <c r="U53">
+        <v>33033558627</v>
+      </c>
+      <c r="V53">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W53">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X53">
+        <v>5463991</v>
+      </c>
+      <c r="Y53">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z53">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA53">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB53">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC53">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54">
@@ -3101,6 +5168,45 @@
       <c r="P54">
         <v>-179694870000</v>
       </c>
+      <c r="Q54">
+        <v>1045580440700</v>
+      </c>
+      <c r="R54">
+        <v>1225275310700</v>
+      </c>
+      <c r="S54">
+        <v>66166900</v>
+      </c>
+      <c r="T54">
+        <v>87325800</v>
+      </c>
+      <c r="U54">
+        <v>33033558627</v>
+      </c>
+      <c r="V54">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W54">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X54">
+        <v>5463991</v>
+      </c>
+      <c r="Y54">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z54">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA54">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB54">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC54">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55">
@@ -3151,6 +5257,45 @@
       <c r="P55">
         <v>-186614290100</v>
       </c>
+      <c r="Q55">
+        <v>1052583998600</v>
+      </c>
+      <c r="R55">
+        <v>1239198288700</v>
+      </c>
+      <c r="S55">
+        <v>66658600</v>
+      </c>
+      <c r="T55">
+        <v>88233500</v>
+      </c>
+      <c r="U55">
+        <v>33033558627</v>
+      </c>
+      <c r="V55">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W55">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X55">
+        <v>5463991</v>
+      </c>
+      <c r="Y55">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z55">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA55">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB55">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC55">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56">
@@ -3201,6 +5346,45 @@
       <c r="P56">
         <v>-192495124300</v>
       </c>
+      <c r="Q56">
+        <v>1061696188300</v>
+      </c>
+      <c r="R56">
+        <v>1254191312600</v>
+      </c>
+      <c r="S56">
+        <v>67124000</v>
+      </c>
+      <c r="T56">
+        <v>89287800</v>
+      </c>
+      <c r="U56">
+        <v>33033558627</v>
+      </c>
+      <c r="V56">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W56">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X56">
+        <v>5463991</v>
+      </c>
+      <c r="Y56">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z56">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA56">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB56">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC56">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57">
@@ -3251,6 +5435,45 @@
       <c r="P57">
         <v>-188748651400</v>
       </c>
+      <c r="Q57">
+        <v>1071815169600</v>
+      </c>
+      <c r="R57">
+        <v>1260563821000</v>
+      </c>
+      <c r="S57">
+        <v>67791800</v>
+      </c>
+      <c r="T57">
+        <v>89745400</v>
+      </c>
+      <c r="U57">
+        <v>33033558627</v>
+      </c>
+      <c r="V57">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W57">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X57">
+        <v>5463991</v>
+      </c>
+      <c r="Y57">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z57">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA57">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB57">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC57">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58">
@@ -3301,6 +5524,45 @@
       <c r="P58">
         <v>-189417718800</v>
       </c>
+      <c r="Q58">
+        <v>1080764067400</v>
+      </c>
+      <c r="R58">
+        <v>1270181786200</v>
+      </c>
+      <c r="S58">
+        <v>68242900</v>
+      </c>
+      <c r="T58">
+        <v>90392500</v>
+      </c>
+      <c r="U58">
+        <v>33033558627</v>
+      </c>
+      <c r="V58">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W58">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X58">
+        <v>5463991</v>
+      </c>
+      <c r="Y58">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z58">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA58">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB58">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC58">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59">
@@ -3351,6 +5613,45 @@
       <c r="P59">
         <v>-183155480700</v>
       </c>
+      <c r="Q59">
+        <v>1095503074000</v>
+      </c>
+      <c r="R59">
+        <v>1278658554700</v>
+      </c>
+      <c r="S59">
+        <v>68958200</v>
+      </c>
+      <c r="T59">
+        <v>90923600</v>
+      </c>
+      <c r="U59">
+        <v>33033558627</v>
+      </c>
+      <c r="V59">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W59">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X59">
+        <v>5463991</v>
+      </c>
+      <c r="Y59">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z59">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA59">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB59">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC59">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60">
@@ -3401,6 +5702,45 @@
       <c r="P60">
         <v>-169875005100</v>
       </c>
+      <c r="Q60">
+        <v>1114568800100</v>
+      </c>
+      <c r="R60">
+        <v>1284443805200</v>
+      </c>
+      <c r="S60">
+        <v>70017600</v>
+      </c>
+      <c r="T60">
+        <v>91294300</v>
+      </c>
+      <c r="U60">
+        <v>33033558627</v>
+      </c>
+      <c r="V60">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W60">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X60">
+        <v>5463991</v>
+      </c>
+      <c r="Y60">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z60">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA60">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB60">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC60">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61">
@@ -3451,6 +5791,45 @@
       <c r="P61">
         <v>-162023837000</v>
       </c>
+      <c r="Q61">
+        <v>1133535935500</v>
+      </c>
+      <c r="R61">
+        <v>1295559772500</v>
+      </c>
+      <c r="S61">
+        <v>71161800</v>
+      </c>
+      <c r="T61">
+        <v>91992600</v>
+      </c>
+      <c r="U61">
+        <v>33033558627</v>
+      </c>
+      <c r="V61">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W61">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X61">
+        <v>5463991</v>
+      </c>
+      <c r="Y61">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z61">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA61">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB61">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC61">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62">
@@ -3501,6 +5880,45 @@
       <c r="P62">
         <v>-156269447800</v>
       </c>
+      <c r="Q62">
+        <v>1150543123500</v>
+      </c>
+      <c r="R62">
+        <v>1306812571300</v>
+      </c>
+      <c r="S62">
+        <v>72284000</v>
+      </c>
+      <c r="T62">
+        <v>92810200</v>
+      </c>
+      <c r="U62">
+        <v>33033558627</v>
+      </c>
+      <c r="V62">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W62">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X62">
+        <v>5463991</v>
+      </c>
+      <c r="Y62">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z62">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA62">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB62">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC62">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63">
@@ -3551,6 +5969,45 @@
       <c r="P63">
         <v>-153729450000</v>
       </c>
+      <c r="Q63">
+        <v>1164580314200</v>
+      </c>
+      <c r="R63">
+        <v>1318309764200</v>
+      </c>
+      <c r="S63">
+        <v>73174900</v>
+      </c>
+      <c r="T63">
+        <v>93419100</v>
+      </c>
+      <c r="U63">
+        <v>33033558627</v>
+      </c>
+      <c r="V63">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W63">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X63">
+        <v>5463991</v>
+      </c>
+      <c r="Y63">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z63">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA63">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB63">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC63">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64">
@@ -3601,6 +6058,45 @@
       <c r="P64">
         <v>-156466980800</v>
       </c>
+      <c r="Q64">
+        <v>1177033466500</v>
+      </c>
+      <c r="R64">
+        <v>1333500447300</v>
+      </c>
+      <c r="S64">
+        <v>73901200</v>
+      </c>
+      <c r="T64">
+        <v>94267000</v>
+      </c>
+      <c r="U64">
+        <v>33033558627</v>
+      </c>
+      <c r="V64">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W64">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X64">
+        <v>5463991</v>
+      </c>
+      <c r="Y64">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z64">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA64">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB64">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC64">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65">
@@ -3651,6 +6147,45 @@
       <c r="P65">
         <v>-166613153700</v>
       </c>
+      <c r="Q65">
+        <v>1190423893700</v>
+      </c>
+      <c r="R65">
+        <v>1357037047400</v>
+      </c>
+      <c r="S65">
+        <v>74647700</v>
+      </c>
+      <c r="T65">
+        <v>95609400</v>
+      </c>
+      <c r="U65">
+        <v>33033558627</v>
+      </c>
+      <c r="V65">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W65">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X65">
+        <v>5463991</v>
+      </c>
+      <c r="Y65">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z65">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA65">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB65">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC65">
+        <v>1</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66">
@@ -3701,6 +6236,45 @@
       <c r="P66">
         <v>-167300659100</v>
       </c>
+      <c r="Q66">
+        <v>1201448958200</v>
+      </c>
+      <c r="R66">
+        <v>1368749617300</v>
+      </c>
+      <c r="S66">
+        <v>75274000</v>
+      </c>
+      <c r="T66">
+        <v>96409200</v>
+      </c>
+      <c r="U66">
+        <v>33033558627</v>
+      </c>
+      <c r="V66">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W66">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X66">
+        <v>5463991</v>
+      </c>
+      <c r="Y66">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z66">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA66">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB66">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC66">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67">
@@ -3751,6 +6325,45 @@
       <c r="P67">
         <v>-164247034600</v>
       </c>
+      <c r="Q67">
+        <v>1214529866200</v>
+      </c>
+      <c r="R67">
+        <v>1378776900800</v>
+      </c>
+      <c r="S67">
+        <v>76055400</v>
+      </c>
+      <c r="T67">
+        <v>97066800</v>
+      </c>
+      <c r="U67">
+        <v>33033558627</v>
+      </c>
+      <c r="V67">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W67">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X67">
+        <v>5463991</v>
+      </c>
+      <c r="Y67">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z67">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA67">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB67">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC67">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68">
@@ -3801,6 +6414,45 @@
       <c r="P68">
         <v>-175985383200</v>
       </c>
+      <c r="Q68">
+        <v>1229863239600</v>
+      </c>
+      <c r="R68">
+        <v>1405848622800</v>
+      </c>
+      <c r="S68">
+        <v>77078100</v>
+      </c>
+      <c r="T68">
+        <v>98957300</v>
+      </c>
+      <c r="U68">
+        <v>33033558627</v>
+      </c>
+      <c r="V68">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W68">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X68">
+        <v>5463991</v>
+      </c>
+      <c r="Y68">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z68">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA68">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB68">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC68">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69">
@@ -3851,6 +6503,45 @@
       <c r="P69">
         <v>-174605656100</v>
       </c>
+      <c r="Q69">
+        <v>1243854094400</v>
+      </c>
+      <c r="R69">
+        <v>1418459750500</v>
+      </c>
+      <c r="S69">
+        <v>77870000</v>
+      </c>
+      <c r="T69">
+        <v>99777700</v>
+      </c>
+      <c r="U69">
+        <v>33033558627</v>
+      </c>
+      <c r="V69">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W69">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X69">
+        <v>5463991</v>
+      </c>
+      <c r="Y69">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z69">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA69">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB69">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC69">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70">
@@ -3901,6 +6592,45 @@
       <c r="P70">
         <v>-178937725700</v>
       </c>
+      <c r="Q70">
+        <v>1253636967500</v>
+      </c>
+      <c r="R70">
+        <v>1432574693200</v>
+      </c>
+      <c r="S70">
+        <v>78460500</v>
+      </c>
+      <c r="T70">
+        <v>100710100</v>
+      </c>
+      <c r="U70">
+        <v>33033558627</v>
+      </c>
+      <c r="V70">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W70">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X70">
+        <v>5463991</v>
+      </c>
+      <c r="Y70">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z70">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA70">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB70">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC70">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71">
@@ -3951,6 +6681,45 @@
       <c r="P71">
         <v>-162138553900</v>
       </c>
+      <c r="Q71">
+        <v>1285029012300</v>
+      </c>
+      <c r="R71">
+        <v>1447167566200</v>
+      </c>
+      <c r="S71">
+        <v>80212900</v>
+      </c>
+      <c r="T71">
+        <v>101673200</v>
+      </c>
+      <c r="U71">
+        <v>33033558627</v>
+      </c>
+      <c r="V71">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W71">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X71">
+        <v>5463991</v>
+      </c>
+      <c r="Y71">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z71">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA71">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB71">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC71">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72">
@@ -4001,6 +6770,45 @@
       <c r="P72">
         <v>-162856270700</v>
       </c>
+      <c r="Q72">
+        <v>1305746840700</v>
+      </c>
+      <c r="R72">
+        <v>1468603111400</v>
+      </c>
+      <c r="S72">
+        <v>82142000</v>
+      </c>
+      <c r="T72">
+        <v>103165500</v>
+      </c>
+      <c r="U72">
+        <v>33033558627</v>
+      </c>
+      <c r="V72">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W72">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X72">
+        <v>5463991</v>
+      </c>
+      <c r="Y72">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z72">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA72">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB72">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC72">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73">
@@ -4051,6 +6859,45 @@
       <c r="P73">
         <v>-162838800700</v>
       </c>
+      <c r="Q73">
+        <v>1305764310700</v>
+      </c>
+      <c r="R73">
+        <v>1468603111400</v>
+      </c>
+      <c r="S73">
+        <v>82143600</v>
+      </c>
+      <c r="T73">
+        <v>103165500</v>
+      </c>
+      <c r="U73">
+        <v>33033558627</v>
+      </c>
+      <c r="V73">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W73">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X73">
+        <v>5463991</v>
+      </c>
+      <c r="Y73">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z73">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA73">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB73">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC73">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74">
@@ -4101,6 +6948,45 @@
       <c r="P74">
         <v>-204888179200</v>
       </c>
+      <c r="Q74">
+        <v>1386896871900</v>
+      </c>
+      <c r="R74">
+        <v>1591785051100</v>
+      </c>
+      <c r="S74">
+        <v>87007600</v>
+      </c>
+      <c r="T74">
+        <v>111475700</v>
+      </c>
+      <c r="U74">
+        <v>33033558627</v>
+      </c>
+      <c r="V74">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W74">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X74">
+        <v>5463991</v>
+      </c>
+      <c r="Y74">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z74">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA74">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB74">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC74">
+        <v>4.3</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75">
@@ -4151,6 +7037,45 @@
       <c r="P75">
         <v>-224234049000</v>
       </c>
+      <c r="Q75">
+        <v>1419939037100</v>
+      </c>
+      <c r="R75">
+        <v>1644173086100</v>
+      </c>
+      <c r="S75">
+        <v>88960200</v>
+      </c>
+      <c r="T75">
+        <v>114853100</v>
+      </c>
+      <c r="U75">
+        <v>33033558627</v>
+      </c>
+      <c r="V75">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W75">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X75">
+        <v>5463991</v>
+      </c>
+      <c r="Y75">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z75">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA75">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB75">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC75">
+        <v>2</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76">
@@ -4201,6 +7126,45 @@
       <c r="P76">
         <v>-275714632800</v>
       </c>
+      <c r="Q76">
+        <v>1447520639700</v>
+      </c>
+      <c r="R76">
+        <v>1723235272500</v>
+      </c>
+      <c r="S76">
+        <v>90931600</v>
+      </c>
+      <c r="T76">
+        <v>120604300</v>
+      </c>
+      <c r="U76">
+        <v>33033558627</v>
+      </c>
+      <c r="V76">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W76">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X76">
+        <v>5463991</v>
+      </c>
+      <c r="Y76">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z76">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA76">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB76">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC76">
+        <v>5.3</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77">
@@ -4251,6 +7215,45 @@
       <c r="P77">
         <v>-345760674400</v>
       </c>
+      <c r="Q77">
+        <v>1476257976500</v>
+      </c>
+      <c r="R77">
+        <v>1822018650900</v>
+      </c>
+      <c r="S77">
+        <v>92650100</v>
+      </c>
+      <c r="T77">
+        <v>127759100</v>
+      </c>
+      <c r="U77">
+        <v>33033558627</v>
+      </c>
+      <c r="V77">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W77">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X77">
+        <v>5463991</v>
+      </c>
+      <c r="Y77">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z77">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA77">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB77">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC77">
+        <v>7.2</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78">
@@ -4301,6 +7304,45 @@
       <c r="P78">
         <v>-429663237200</v>
       </c>
+      <c r="Q78">
+        <v>1512829422200</v>
+      </c>
+      <c r="R78">
+        <v>1942492659400</v>
+      </c>
+      <c r="S78">
+        <v>94963500</v>
+      </c>
+      <c r="T78">
+        <v>136973600</v>
+      </c>
+      <c r="U78">
+        <v>33033558627</v>
+      </c>
+      <c r="V78">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W78">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X78">
+        <v>5463991</v>
+      </c>
+      <c r="Y78">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z78">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA78">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB78">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC78">
+        <v>8.6</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79">
@@ -4351,6 +7393,45 @@
       <c r="P79">
         <v>-435711568800</v>
       </c>
+      <c r="Q79">
+        <v>1558681536600</v>
+      </c>
+      <c r="R79">
+        <v>1994393105400</v>
+      </c>
+      <c r="S79">
+        <v>98013500</v>
+      </c>
+      <c r="T79">
+        <v>140601700</v>
+      </c>
+      <c r="U79">
+        <v>33033558627</v>
+      </c>
+      <c r="V79">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W79">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X79">
+        <v>5463991</v>
+      </c>
+      <c r="Y79">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z79">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA79">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB79">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC79">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80">
@@ -4401,6 +7482,45 @@
       <c r="P80">
         <v>-396152218600</v>
       </c>
+      <c r="Q80">
+        <v>1623827621000</v>
+      </c>
+      <c r="R80">
+        <v>2019979839600</v>
+      </c>
+      <c r="S80">
+        <v>101934300</v>
+      </c>
+      <c r="T80">
+        <v>142407700</v>
+      </c>
+      <c r="U80">
+        <v>33033558627</v>
+      </c>
+      <c r="V80">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W80">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X80">
+        <v>5463991</v>
+      </c>
+      <c r="Y80">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z80">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA80">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB80">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC80">
+        <v>4</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81">
@@ -4451,6 +7571,45 @@
       <c r="P81">
         <v>-383469119300</v>
       </c>
+      <c r="Q81">
+        <v>1661864748700</v>
+      </c>
+      <c r="R81">
+        <v>2045333868000</v>
+      </c>
+      <c r="S81">
+        <v>104483100</v>
+      </c>
+      <c r="T81">
+        <v>143936600</v>
+      </c>
+      <c r="U81">
+        <v>33033558627</v>
+      </c>
+      <c r="V81">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W81">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X81">
+        <v>5463991</v>
+      </c>
+      <c r="Y81">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z81">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA81">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB81">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC81">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82">
@@ -4501,6 +7660,45 @@
       <c r="P82">
         <v>-383036681500</v>
       </c>
+      <c r="Q82">
+        <v>1692654785400</v>
+      </c>
+      <c r="R82">
+        <v>2075691466900</v>
+      </c>
+      <c r="S82">
+        <v>106707800</v>
+      </c>
+      <c r="T82">
+        <v>146220000</v>
+      </c>
+      <c r="U82">
+        <v>33033558627</v>
+      </c>
+      <c r="V82">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W82">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X82">
+        <v>5463991</v>
+      </c>
+      <c r="Y82">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z82">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA82">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB82">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC82">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83">
@@ -4551,6 +7749,45 @@
       <c r="P83">
         <v>-373123288300</v>
       </c>
+      <c r="Q83">
+        <v>1727827437000</v>
+      </c>
+      <c r="R83">
+        <v>2100950725300</v>
+      </c>
+      <c r="S83">
+        <v>109044800</v>
+      </c>
+      <c r="T83">
+        <v>147904000</v>
+      </c>
+      <c r="U83">
+        <v>33033558627</v>
+      </c>
+      <c r="V83">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W83">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X83">
+        <v>5463991</v>
+      </c>
+      <c r="Y83">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z83">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA83">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB83">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC83">
+        <v>1</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84">
@@ -4601,6 +7838,45 @@
       <c r="P84">
         <v>-351533936700</v>
       </c>
+      <c r="Q84">
+        <v>1775023067200</v>
+      </c>
+      <c r="R84">
+        <v>2126557003900</v>
+      </c>
+      <c r="S84">
+        <v>111811000</v>
+      </c>
+      <c r="T84">
+        <v>149505600</v>
+      </c>
+      <c r="U84">
+        <v>33033558627</v>
+      </c>
+      <c r="V84">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W84">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X84">
+        <v>5463991</v>
+      </c>
+      <c r="Y84">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z84">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA84">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB84">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC84">
+        <v>2.2</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85">
@@ -4651,6 +7927,45 @@
       <c r="P85">
         <v>-351512140700</v>
       </c>
+      <c r="Q85">
+        <v>1806170481600</v>
+      </c>
+      <c r="R85">
+        <v>2157682622300</v>
+      </c>
+      <c r="S85">
+        <v>113711200</v>
+      </c>
+      <c r="T85">
+        <v>152284600</v>
+      </c>
+      <c r="U85">
+        <v>33033558627</v>
+      </c>
+      <c r="V85">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W85">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X85">
+        <v>5463991</v>
+      </c>
+      <c r="Y85">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z85">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA85">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB85">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC85">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86">
@@ -4701,6 +8016,45 @@
       <c r="P86">
         <v>-347366088600</v>
       </c>
+      <c r="Q86">
+        <v>1842411165600</v>
+      </c>
+      <c r="R86">
+        <v>2189777254200</v>
+      </c>
+      <c r="S86">
+        <v>115902800</v>
+      </c>
+      <c r="T86">
+        <v>154585600</v>
+      </c>
+      <c r="U86">
+        <v>33033558627</v>
+      </c>
+      <c r="V86">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W86">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X86">
+        <v>5463991</v>
+      </c>
+      <c r="Y86">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z86">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA86">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB86">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC86">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87">
@@ -4751,6 +8105,45 @@
       <c r="P87">
         <v>-351073433500</v>
       </c>
+      <c r="Q87">
+        <v>1879422032200</v>
+      </c>
+      <c r="R87">
+        <v>2230495465700</v>
+      </c>
+      <c r="S87">
+        <v>118063200</v>
+      </c>
+      <c r="T87">
+        <v>157493100</v>
+      </c>
+      <c r="U87">
+        <v>33033558627</v>
+      </c>
+      <c r="V87">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W87">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X87">
+        <v>5463991</v>
+      </c>
+      <c r="Y87">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z87">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA87">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB87">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC87">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88">
@@ -4801,6 +8194,45 @@
       <c r="P88">
         <v>-339320077300</v>
       </c>
+      <c r="Q88">
+        <v>1921394283100</v>
+      </c>
+      <c r="R88">
+        <v>2260714360400</v>
+      </c>
+      <c r="S88">
+        <v>120694800</v>
+      </c>
+      <c r="T88">
+        <v>159651200</v>
+      </c>
+      <c r="U88">
+        <v>33033558627</v>
+      </c>
+      <c r="V88">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W88">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X88">
+        <v>5463991</v>
+      </c>
+      <c r="Y88">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z88">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA88">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB88">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC88">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89">
@@ -4851,6 +8283,45 @@
       <c r="P89">
         <v>-343978062100</v>
       </c>
+      <c r="Q89">
+        <v>1955848285900</v>
+      </c>
+      <c r="R89">
+        <v>2299826348000</v>
+      </c>
+      <c r="S89">
+        <v>122964800</v>
+      </c>
+      <c r="T89">
+        <v>161986400</v>
+      </c>
+      <c r="U89">
+        <v>33033558627</v>
+      </c>
+      <c r="V89">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W89">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X89">
+        <v>5463991</v>
+      </c>
+      <c r="Y89">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z89">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA89">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB89">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC89">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90">
@@ -4901,6 +8372,45 @@
       <c r="P90">
         <v>-345882714400</v>
       </c>
+      <c r="Q90">
+        <v>1986875343600</v>
+      </c>
+      <c r="R90">
+        <v>2332758058000</v>
+      </c>
+      <c r="S90">
+        <v>125129000</v>
+      </c>
+      <c r="T90">
+        <v>164248500</v>
+      </c>
+      <c r="U90">
+        <v>33033558627</v>
+      </c>
+      <c r="V90">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W90">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X90">
+        <v>5463991</v>
+      </c>
+      <c r="Y90">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z90">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA90">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB90">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC90">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91">
@@ -4951,6 +8461,45 @@
       <c r="P91">
         <v>-413995394300</v>
       </c>
+      <c r="Q91">
+        <v>2018524336000</v>
+      </c>
+      <c r="R91">
+        <v>2432519730300</v>
+      </c>
+      <c r="S91">
+        <v>127045900</v>
+      </c>
+      <c r="T91">
+        <v>171729700</v>
+      </c>
+      <c r="U91">
+        <v>33033558627</v>
+      </c>
+      <c r="V91">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W91">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X91">
+        <v>5463991</v>
+      </c>
+      <c r="Y91">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z91">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA91">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB91">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC91">
+        <v>7</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92">
@@ -5001,6 +8550,45 @@
       <c r="P92">
         <v>-566561181300</v>
       </c>
+      <c r="Q92">
+        <v>2041152317900</v>
+      </c>
+      <c r="R92">
+        <v>2607713499200</v>
+      </c>
+      <c r="S92">
+        <v>128634800</v>
+      </c>
+      <c r="T92">
+        <v>186616700</v>
+      </c>
+      <c r="U92">
+        <v>33033558627</v>
+      </c>
+      <c r="V92">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W92">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X92">
+        <v>5463991</v>
+      </c>
+      <c r="Y92">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z92">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA92">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB92">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC92">
+        <v>15.6</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93">
@@ -5051,6 +8639,45 @@
       <c r="P93">
         <v>-598401362300</v>
       </c>
+      <c r="Q93">
+        <v>2146057201300</v>
+      </c>
+      <c r="R93">
+        <v>2744458563600</v>
+      </c>
+      <c r="S93">
+        <v>135972600</v>
+      </c>
+      <c r="T93">
+        <v>198585600</v>
+      </c>
+      <c r="U93">
+        <v>33033558627</v>
+      </c>
+      <c r="V93">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W93">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X93">
+        <v>5463991</v>
+      </c>
+      <c r="Y93">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z93">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA93">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB93">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC93">
+        <v>3.3</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94">
@@ -5101,6 +8728,45 @@
       <c r="P94">
         <v>-596144138200</v>
       </c>
+      <c r="Q94">
+        <v>2214861164500</v>
+      </c>
+      <c r="R94">
+        <v>2811005302700</v>
+      </c>
+      <c r="S94">
+        <v>141129500</v>
+      </c>
+      <c r="T94">
+        <v>204421000</v>
+      </c>
+      <c r="U94">
+        <v>33033558627</v>
+      </c>
+      <c r="V94">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W94">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X94">
+        <v>5463991</v>
+      </c>
+      <c r="Y94">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z94">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA94">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB94">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC94">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95">
@@ -5151,6 +8817,45 @@
       <c r="P95">
         <v>-574810516000</v>
       </c>
+      <c r="Q95">
+        <v>2274132252800</v>
+      </c>
+      <c r="R95">
+        <v>2848942768800</v>
+      </c>
+      <c r="S95">
+        <v>145300900</v>
+      </c>
+      <c r="T95">
+        <v>207386600</v>
+      </c>
+      <c r="U95">
+        <v>33033558627</v>
+      </c>
+      <c r="V95">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W95">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X95">
+        <v>5463991</v>
+      </c>
+      <c r="Y95">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z95">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA95">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB95">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC95">
+        <v>2.2</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96">
@@ -5201,6 +8906,45 @@
       <c r="P96">
         <v>-601450644900</v>
       </c>
+      <c r="Q96">
+        <v>2305819931000</v>
+      </c>
+      <c r="R96">
+        <v>2907270575900</v>
+      </c>
+      <c r="S96">
+        <v>147517700</v>
+      </c>
+      <c r="T96">
+        <v>211160700</v>
+      </c>
+      <c r="U96">
+        <v>33033558627</v>
+      </c>
+      <c r="V96">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W96">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X96">
+        <v>5463991</v>
+      </c>
+      <c r="Y96">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z96">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA96">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB96">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC96">
+        <v>2.7</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97">
@@ -5251,6 +8995,45 @@
       <c r="P97">
         <v>-635845947300</v>
       </c>
+      <c r="Q97">
+        <v>2330627731800</v>
+      </c>
+      <c r="R97">
+        <v>2966473679100</v>
+      </c>
+      <c r="S97">
+        <v>149194400</v>
+      </c>
+      <c r="T97">
+        <v>215435300</v>
+      </c>
+      <c r="U97">
+        <v>33033558627</v>
+      </c>
+      <c r="V97">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W97">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X97">
+        <v>5463991</v>
+      </c>
+      <c r="Y97">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z97">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA97">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB97">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC97">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98">
@@ -5301,6 +9084,45 @@
       <c r="P98">
         <v>-697608449500</v>
       </c>
+      <c r="Q98">
+        <v>2361484274300</v>
+      </c>
+      <c r="R98">
+        <v>3059092723800</v>
+      </c>
+      <c r="S98">
+        <v>151301100</v>
+      </c>
+      <c r="T98">
+        <v>222499200</v>
+      </c>
+      <c r="U98">
+        <v>33033558627</v>
+      </c>
+      <c r="V98">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W98">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X98">
+        <v>5463991</v>
+      </c>
+      <c r="Y98">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z98">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA98">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB98">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC98">
+        <v>6.3</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99">
@@ -5351,6 +9173,45 @@
       <c r="P99">
         <v>-807301720700</v>
       </c>
+      <c r="Q99">
+        <v>2399506374500</v>
+      </c>
+      <c r="R99">
+        <v>3206808095200</v>
+      </c>
+      <c r="S99">
+        <v>154124200</v>
+      </c>
+      <c r="T99">
+        <v>233876700</v>
+      </c>
+      <c r="U99">
+        <v>33033558627</v>
+      </c>
+      <c r="V99">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W99">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X99">
+        <v>5463991</v>
+      </c>
+      <c r="Y99">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z99">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA99">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB99">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC99">
+        <v>11.2</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100">
@@ -5401,6 +9262,45 @@
       <c r="P100">
         <v>-954810013700</v>
       </c>
+      <c r="Q100">
+        <v>2445683578300</v>
+      </c>
+      <c r="R100">
+        <v>3400493592000</v>
+      </c>
+      <c r="S100">
+        <v>157136700</v>
+      </c>
+      <c r="T100">
+        <v>247517600</v>
+      </c>
+      <c r="U100">
+        <v>33033558627</v>
+      </c>
+      <c r="V100">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W100">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X100">
+        <v>5463991</v>
+      </c>
+      <c r="Y100">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z100">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA100">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB100">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC100">
+        <v>15.1</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101">
@@ -5451,6 +9351,45 @@
       <c r="P101">
         <v>-1034648054900</v>
       </c>
+      <c r="Q101">
+        <v>2502598181400</v>
+      </c>
+      <c r="R101">
+        <v>3537246236300</v>
+      </c>
+      <c r="S101">
+        <v>160693700</v>
+      </c>
+      <c r="T101">
+        <v>257818700</v>
+      </c>
+      <c r="U101">
+        <v>33033558627</v>
+      </c>
+      <c r="V101">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W101">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X101">
+        <v>5463991</v>
+      </c>
+      <c r="Y101">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z101">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA101">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB101">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC101">
+        <v>8.2</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102">
@@ -5501,6 +9440,45 @@
       <c r="P102">
         <v>-1022468672800</v>
       </c>
+      <c r="Q102">
+        <v>2574186295500</v>
+      </c>
+      <c r="R102">
+        <v>3596654968300</v>
+      </c>
+      <c r="S102">
+        <v>165431000</v>
+      </c>
+      <c r="T102">
+        <v>261929600</v>
+      </c>
+      <c r="U102">
+        <v>33033558627</v>
+      </c>
+      <c r="V102">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W102">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X102">
+        <v>5463991</v>
+      </c>
+      <c r="Y102">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z102">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA102">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB102">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC102">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103">
@@ -5551,6 +9529,45 @@
       <c r="P103">
         <v>-967640809900</v>
       </c>
+      <c r="Q103">
+        <v>2660190083200</v>
+      </c>
+      <c r="R103">
+        <v>3627830893100</v>
+      </c>
+      <c r="S103">
+        <v>171187600</v>
+      </c>
+      <c r="T103">
+        <v>263727100</v>
+      </c>
+      <c r="U103">
+        <v>33033558627</v>
+      </c>
+      <c r="V103">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W103">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X103">
+        <v>5463991</v>
+      </c>
+      <c r="Y103">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z103">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA103">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB103">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC103">
+        <v>5.6</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104">
@@ -5601,6 +9618,45 @@
       <c r="P104">
         <v>-935200215200</v>
       </c>
+      <c r="Q104">
+        <v>2719233598800</v>
+      </c>
+      <c r="R104">
+        <v>3654433814000</v>
+      </c>
+      <c r="S104">
+        <v>175264600</v>
+      </c>
+      <c r="T104">
+        <v>265251800</v>
+      </c>
+      <c r="U104">
+        <v>33033558627</v>
+      </c>
+      <c r="V104">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W104">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X104">
+        <v>5463991</v>
+      </c>
+      <c r="Y104">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z104">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA104">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB104">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC104">
+        <v>3.3</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105">
@@ -5651,6 +9707,45 @@
       <c r="P105">
         <v>-887902945500</v>
       </c>
+      <c r="Q105">
+        <v>2788380234700</v>
+      </c>
+      <c r="R105">
+        <v>3676283180200</v>
+      </c>
+      <c r="S105">
+        <v>180700900</v>
+      </c>
+      <c r="T105">
+        <v>266746000</v>
+      </c>
+      <c r="U105">
+        <v>33033558627</v>
+      </c>
+      <c r="V105">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W105">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X105">
+        <v>5463991</v>
+      </c>
+      <c r="Y105">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z105">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA105">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB105">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC105">
+        <v>4.8</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106">
@@ -5701,6 +9796,45 @@
       <c r="P106">
         <v>-898352516800</v>
       </c>
+      <c r="Q106">
+        <v>2825786764400</v>
+      </c>
+      <c r="R106">
+        <v>3724139281200</v>
+      </c>
+      <c r="S106">
+        <v>183505600</v>
+      </c>
+      <c r="T106">
+        <v>270181900</v>
+      </c>
+      <c r="U106">
+        <v>33033558627</v>
+      </c>
+      <c r="V106">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W106">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X106">
+        <v>5463991</v>
+      </c>
+      <c r="Y106">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z106">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA106">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB106">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC106">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107">
@@ -5751,6 +9885,45 @@
       <c r="P107">
         <v>-968456289000</v>
       </c>
+      <c r="Q107">
+        <v>2856703662600</v>
+      </c>
+      <c r="R107">
+        <v>3825159951600</v>
+      </c>
+      <c r="S107">
+        <v>185709200</v>
+      </c>
+      <c r="T107">
+        <v>277345900</v>
+      </c>
+      <c r="U107">
+        <v>33033558627</v>
+      </c>
+      <c r="V107">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W107">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X107">
+        <v>5463991</v>
+      </c>
+      <c r="Y107">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z107">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA107">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB107">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC107">
+        <v>7.2</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108">
@@ -5801,6 +9974,45 @@
       <c r="P108">
         <v>-1018420787200</v>
       </c>
+      <c r="Q108">
+        <v>2890930636800</v>
+      </c>
+      <c r="R108">
+        <v>3909351424000</v>
+      </c>
+      <c r="S108">
+        <v>187740500</v>
+      </c>
+      <c r="T108">
+        <v>282938200</v>
+      </c>
+      <c r="U108">
+        <v>33033558627</v>
+      </c>
+      <c r="V108">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W108">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X108">
+        <v>5463991</v>
+      </c>
+      <c r="Y108">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z108">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA108">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB108">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC108">
+        <v>5.1</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109">
@@ -5851,6 +10063,45 @@
       <c r="P109">
         <v>-1082965484400</v>
       </c>
+      <c r="Q109">
+        <v>2937382359600</v>
+      </c>
+      <c r="R109">
+        <v>4020347844000</v>
+      </c>
+      <c r="S109">
+        <v>190734700</v>
+      </c>
+      <c r="T109">
+        <v>290147900</v>
+      </c>
+      <c r="U109">
+        <v>33033558627</v>
+      </c>
+      <c r="V109">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W109">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X109">
+        <v>5463991</v>
+      </c>
+      <c r="Y109">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z109">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA109">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB109">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC109">
+        <v>6.6</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110">
@@ -5901,6 +10152,45 @@
       <c r="P110">
         <v>-1250975991800</v>
       </c>
+      <c r="Q110">
+        <v>2981333479100</v>
+      </c>
+      <c r="R110">
+        <v>4232309470900</v>
+      </c>
+      <c r="S110">
+        <v>193615200</v>
+      </c>
+      <c r="T110">
+        <v>304689000</v>
+      </c>
+      <c r="U110">
+        <v>33033558627</v>
+      </c>
+      <c r="V110">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W110">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X110">
+        <v>5463991</v>
+      </c>
+      <c r="Y110">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z110">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA110">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB110">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC110">
+        <v>17.2</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111">
@@ -5951,6 +10241,45 @@
       <c r="P111">
         <v>-1476348659000</v>
       </c>
+      <c r="Q111">
+        <v>3032850847500</v>
+      </c>
+      <c r="R111">
+        <v>4509199506500</v>
+      </c>
+      <c r="S111">
+        <v>196890900</v>
+      </c>
+      <c r="T111">
+        <v>323355700</v>
+      </c>
+      <c r="U111">
+        <v>33033558627</v>
+      </c>
+      <c r="V111">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W111">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X111">
+        <v>5463991</v>
+      </c>
+      <c r="Y111">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z111">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA111">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB111">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC111">
+        <v>23.1</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112">
@@ -6001,6 +10330,45 @@
       <c r="P112">
         <v>-1583696336300</v>
       </c>
+      <c r="Q112">
+        <v>3118058093900</v>
+      </c>
+      <c r="R112">
+        <v>4701754430200</v>
+      </c>
+      <c r="S112">
+        <v>202746300</v>
+      </c>
+      <c r="T112">
+        <v>337502000</v>
+      </c>
+      <c r="U112">
+        <v>33033558627</v>
+      </c>
+      <c r="V112">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W112">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X112">
+        <v>5463991</v>
+      </c>
+      <c r="Y112">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z112">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA112">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB112">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC112">
+        <v>11</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113">
@@ -6051,6 +10419,45 @@
       <c r="P113">
         <v>-1663252281100</v>
       </c>
+      <c r="Q113">
+        <v>3214071259400</v>
+      </c>
+      <c r="R113">
+        <v>4877323540500</v>
+      </c>
+      <c r="S113">
+        <v>208624500</v>
+      </c>
+      <c r="T113">
+        <v>349676700</v>
+      </c>
+      <c r="U113">
+        <v>33033558627</v>
+      </c>
+      <c r="V113">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W113">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X113">
+        <v>5463991</v>
+      </c>
+      <c r="Y113">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z113">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA113">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB113">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC113">
+        <v>8.1</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114">
@@ -6101,6 +10508,45 @@
       <c r="P114">
         <v>-1561981265000</v>
       </c>
+      <c r="Q114">
+        <v>3370886259900</v>
+      </c>
+      <c r="R114">
+        <v>4932867524900</v>
+      </c>
+      <c r="S114">
+        <v>218685000</v>
+      </c>
+      <c r="T114">
+        <v>353326300</v>
+      </c>
+      <c r="U114">
+        <v>33033558627</v>
+      </c>
+      <c r="V114">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W114">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X114">
+        <v>5463991</v>
+      </c>
+      <c r="Y114">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z114">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA114">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB114">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC114">
+        <v>10.4</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115">
@@ -6151,6 +10597,45 @@
       <c r="P115">
         <v>-1491542673400</v>
       </c>
+      <c r="Q115">
+        <v>3491130873100</v>
+      </c>
+      <c r="R115">
+        <v>4982673546500</v>
+      </c>
+      <c r="S115">
+        <v>226986800</v>
+      </c>
+      <c r="T115">
+        <v>356556600</v>
+      </c>
+      <c r="U115">
+        <v>33033558627</v>
+      </c>
+      <c r="V115">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W115">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X115">
+        <v>5463991</v>
+      </c>
+      <c r="Y115">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z115">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA115">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB115">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC115">
+        <v>7.2</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116">
@@ -6201,6 +10686,45 @@
       <c r="P116">
         <v>-1424997854700</v>
       </c>
+      <c r="Q116">
+        <v>3592788751400</v>
+      </c>
+      <c r="R116">
+        <v>5017786606100</v>
+      </c>
+      <c r="S116">
+        <v>234930200</v>
+      </c>
+      <c r="T116">
+        <v>358797800</v>
+      </c>
+      <c r="U116">
+        <v>33033558627</v>
+      </c>
+      <c r="V116">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W116">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X116">
+        <v>5463991</v>
+      </c>
+      <c r="Y116">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z116">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA116">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB116">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC116">
+        <v>6.8</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117">
@@ -6251,6 +10775,45 @@
       <c r="P117">
         <v>-1332662688200</v>
       </c>
+      <c r="Q117">
+        <v>3727556764900</v>
+      </c>
+      <c r="R117">
+        <v>5060219453100</v>
+      </c>
+      <c r="S117">
+        <v>245673300</v>
+      </c>
+      <c r="T117">
+        <v>362167500</v>
+      </c>
+      <c r="U117">
+        <v>33033558627</v>
+      </c>
+      <c r="V117">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W117">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X117">
+        <v>5463991</v>
+      </c>
+      <c r="Y117">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z117">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA117">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB117">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC117">
+        <v>9.4</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118">
@@ -6301,6 +10864,45 @@
       <c r="P118">
         <v>-1256961816100</v>
       </c>
+      <c r="Q118">
+        <v>3851396233900</v>
+      </c>
+      <c r="R118">
+        <v>5108358050000</v>
+      </c>
+      <c r="S118">
+        <v>255620000</v>
+      </c>
+      <c r="T118">
+        <v>365650200</v>
+      </c>
+      <c r="U118">
+        <v>33033558627</v>
+      </c>
+      <c r="V118">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W118">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X118">
+        <v>5463991</v>
+      </c>
+      <c r="Y118">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z118">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA118">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB118">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC118">
+        <v>7.7</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119">
@@ -6351,6 +10953,45 @@
       <c r="P119">
         <v>-1257154767100</v>
       </c>
+      <c r="Q119">
+        <v>3851529508900</v>
+      </c>
+      <c r="R119">
+        <v>5108684276000</v>
+      </c>
+      <c r="S119">
+        <v>255631800</v>
+      </c>
+      <c r="T119">
+        <v>365661600</v>
+      </c>
+      <c r="U119">
+        <v>33033558627</v>
+      </c>
+      <c r="V119">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W119">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X119">
+        <v>5463991</v>
+      </c>
+      <c r="Y119">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z119">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA119">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB119">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC119">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120">
@@ -6401,6 +11042,45 @@
       <c r="P120">
         <v>-1257154766100</v>
       </c>
+      <c r="Q120">
+        <v>3851529509900</v>
+      </c>
+      <c r="R120">
+        <v>5108684276000</v>
+      </c>
+      <c r="S120">
+        <v>255631900</v>
+      </c>
+      <c r="T120">
+        <v>365661600</v>
+      </c>
+      <c r="U120">
+        <v>33033558627</v>
+      </c>
+      <c r="V120">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W120">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X120">
+        <v>5463991</v>
+      </c>
+      <c r="Y120">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z120">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA120">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB120">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC120">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121">
@@ -6451,6 +11131,45 @@
       <c r="P121">
         <v>-1192395932700</v>
       </c>
+      <c r="Q121">
+        <v>4030088092500</v>
+      </c>
+      <c r="R121">
+        <v>5222484025200</v>
+      </c>
+      <c r="S121">
+        <v>264648000</v>
+      </c>
+      <c r="T121">
+        <v>371479500</v>
+      </c>
+      <c r="U121">
+        <v>33033558627</v>
+      </c>
+      <c r="V121">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W121">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X121">
+        <v>5463991</v>
+      </c>
+      <c r="Y121">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z121">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA121">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB121">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC121">
+        <v>6.6</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122">
@@ -6501,6 +11220,45 @@
       <c r="P122">
         <v>-1192390882700</v>
       </c>
+      <c r="Q122">
+        <v>4030093142500</v>
+      </c>
+      <c r="R122">
+        <v>5222484025200</v>
+      </c>
+      <c r="S122">
+        <v>264648500</v>
+      </c>
+      <c r="T122">
+        <v>371479500</v>
+      </c>
+      <c r="U122">
+        <v>33033558627</v>
+      </c>
+      <c r="V122">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W122">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X122">
+        <v>5463991</v>
+      </c>
+      <c r="Y122">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z122">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA122">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB122">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC122">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123">
@@ -6551,10 +11309,49 @@
       <c r="P123">
         <v>-1192389872700</v>
       </c>
+      <c r="Q123">
+        <v>4030094152500</v>
+      </c>
+      <c r="R123">
+        <v>5222484025200</v>
+      </c>
+      <c r="S123">
+        <v>264648600</v>
+      </c>
+      <c r="T123">
+        <v>371479500</v>
+      </c>
+      <c r="U123">
+        <v>33033558627</v>
+      </c>
+      <c r="V123">
+        <v>42807246108.2</v>
+      </c>
+      <c r="W123">
+        <v>80035677175.4</v>
+      </c>
+      <c r="X123">
+        <v>5463991</v>
+      </c>
+      <c r="Y123">
+        <v>2169250.8</v>
+      </c>
+      <c r="Z123">
+        <v>3044913.9</v>
+      </c>
+      <c r="AA123">
+        <v>-875663.1</v>
+      </c>
+      <c r="AB123">
+        <v>-9773687481.1</v>
+      </c>
+      <c r="AC123">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P123"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AC123"/>
   </ignoredErrors>
 </worksheet>
 </file>